--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9BC9C-83F3-4BBF-9378-4D0B81698121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69451CB-DC68-4257-B5AA-5DAD50D6602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
   <si>
     <t>Threads</t>
   </si>
@@ -41,7 +41,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Quality</t>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>Ihis</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Sorted Partitioning</a:t>
+              <a:t>Sorted Partitioning (k=5)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,97 +181,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$2</c:f>
+              <c:f>Tabelle1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>67867</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48195</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43720</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52E6-46B8-9A34-5220990A28C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1024859584"/>
-        <c:axId val="1024860000"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -293,21 +220,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$6</c:f>
+              <c:f>Tabelle1!$F$4:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.96763307859054104</c:v>
+                  <c:v>66692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96254847707062496</c:v>
+                  <c:v>33353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95707787789263299</c:v>
+                  <c:v>26131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95719143086468705</c:v>
+                  <c:v>18826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,7 +293,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52E6-46B8-9A34-5220990A28C8}"/>
+              <c16:uniqueId val="{00000001-91F0-4852-9A23-AACE878B67D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,8 +307,141 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1023909856"/>
-        <c:axId val="1023911936"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$4:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.96763307859054104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96254847707062496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95707787789263299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95719143086468705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.951799211415157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95044550661094895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94910406910980505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94631494771818903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94176747817304696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94097541924430705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93946599857246005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93912039244564605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93891405303633901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93696775706535096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93704761416094795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93679578101456695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93665483908422498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.935996256544808</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93521532397336504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93508554720051995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.933773849746796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91F0-4852-9A23-AACE878B67D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="720937760"/>
+        <c:axId val="720951072"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1024859584"/>
@@ -439,7 +550,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1023911936"/>
+        <c:axId val="720951072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -447,7 +558,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -478,12 +589,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023909856"/>
+        <c:crossAx val="720937760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1023909856"/>
+        <c:axId val="720937760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1023911936"/>
+        <c:crossAx val="720951072"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1128,16 +1239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1462,67 +1573,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B8DC0-A531-437E-9555-E46366EDC663}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B3:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.96763307859054104</v>
+      </c>
+      <c r="F4">
+        <v>66692</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.96763307859054104</v>
-      </c>
-      <c r="D3">
-        <v>67867</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="E5">
         <v>0.96254847707062496</v>
       </c>
-      <c r="D4">
-        <v>48195</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="F5">
+        <v>33353</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="E6">
         <v>0.95707787789263299</v>
       </c>
-      <c r="D5">
-        <v>43720</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="F6">
+        <v>26131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="E7">
         <v>0.95719143086468705</v>
       </c>
-      <c r="D6">
-        <v>39445</v>
+      <c r="F7">
+        <v>18826</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.951799211415157</v>
+      </c>
+      <c r="F8">
+        <v>16914</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.95044550661094895</v>
+      </c>
+      <c r="F9">
+        <v>16379</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.94910406910980505</v>
+      </c>
+      <c r="F10">
+        <v>15707</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.94631494771818903</v>
+      </c>
+      <c r="F11">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.94176747817304696</v>
+      </c>
+      <c r="F12">
+        <v>11913</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0.94097541924430705</v>
+      </c>
+      <c r="F13">
+        <v>12144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0.93946599857246005</v>
+      </c>
+      <c r="F14">
+        <v>9794</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0.93912039244564605</v>
+      </c>
+      <c r="F15">
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0.93891405303633901</v>
+      </c>
+      <c r="F16">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.93696775706535096</v>
+      </c>
+      <c r="F17">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0.93704761416094795</v>
+      </c>
+      <c r="F18">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.93679578101456695</v>
+      </c>
+      <c r="F19">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0.93665483908422498</v>
+      </c>
+      <c r="F20">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0.935996256544808</v>
+      </c>
+      <c r="F21">
+        <v>7453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0.93521532397336504</v>
+      </c>
+      <c r="F22">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0.93508554720051995</v>
+      </c>
+      <c r="F23">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>0.933773849746796</v>
+      </c>
+      <c r="F24">
+        <v>7370</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69451CB-DC68-4257-B5AA-5DAD50D6602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CE7AF-58CF-4159-806E-6B96572813BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="6">
   <si>
     <t>Threads</t>
   </si>
@@ -126,11 +126,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -158,11 +158,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -195,7 +195,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -207,23 +207,49 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$4:$F$24</c:f>
+              <c:f>Tabelle1!$F$4:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>66692</c:v>
                 </c:pt>
@@ -286,6 +312,135 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7030</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6282</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6711</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6645</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6233</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5498</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6271</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6554</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5631</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5619</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5294</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4848</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4934</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4716</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5674</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5758</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4982</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5217</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5082</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4556</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4462</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4908</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4717</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4610</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4748</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5523</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,7 +483,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -340,23 +495,49 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$4:$E$24</c:f>
+              <c:f>Tabelle1!$E$4:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0.96763307859054104</c:v>
                 </c:pt>
@@ -419,6 +600,135 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.933773849746796</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93471187725718297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93312999223141502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93461158012968004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93395206352729399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93342322048867299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93367456178423303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93243999432493796</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93274552630310803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93306075153488699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93309346168951901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93262413592910598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93253552925439898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93220400288782301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93227758521150395</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93127151382231099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93074714797353397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93150161391770303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.931358661008577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93141934526325898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93100311661978197</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93025629738391302</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93045409262478695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93010384339372798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92998366720742398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93071418017461105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93057989561392496</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93053544804924404</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92951642223189901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92968297592280802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.93015359218078897</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92985104138783803</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.92926542214404995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92951816233100104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.92916754048252204</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92923455533203503</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.93004327536768205</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92870046207343104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92931681612262895</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92928605966028299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92856370592644599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.92909040355241401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.9279564589482</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92880382612626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,8 +784,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -533,8 +843,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -559,7 +869,7 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -577,8 +887,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -600,10 +910,12 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="720951072"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -635,8 +947,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -733,18 +1045,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -752,8 +1064,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -774,7 +1086,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -790,7 +1102,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -798,8 +1110,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -833,36 +1145,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -874,18 +1212,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -894,10 +1235,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -914,20 +1255,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -942,15 +1281,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -961,17 +1300,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -980,17 +1318,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -999,21 +1336,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1032,17 +1363,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1051,17 +1381,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1070,17 +1399,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1090,8 +1418,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1101,7 +1429,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1109,7 +1437,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1118,10 +1446,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1129,17 +1468,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1149,27 +1488,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1179,8 +1517,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1199,8 +1537,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1212,8 +1550,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1223,14 +1561,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1239,16 +1571,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1573,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B8DC0-A531-437E-9555-E46366EDC663}">
-  <dimension ref="B3:F24"/>
+  <dimension ref="B3:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,6 +2287,737 @@
         <v>7370</v>
       </c>
     </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0.93471187725718297</v>
+      </c>
+      <c r="F25">
+        <v>7213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0.93312999223141502</v>
+      </c>
+      <c r="F26">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0.93461158012968004</v>
+      </c>
+      <c r="F27">
+        <v>7377</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0.93395206352729399</v>
+      </c>
+      <c r="F28">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0.93342322048867299</v>
+      </c>
+      <c r="F29">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0.93367456178423303</v>
+      </c>
+      <c r="F30">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0.93243999432493796</v>
+      </c>
+      <c r="F31">
+        <v>6711</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>0.93274552630310803</v>
+      </c>
+      <c r="F32">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0.93306075153488699</v>
+      </c>
+      <c r="F33">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>0.93309346168951901</v>
+      </c>
+      <c r="F34">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>0.93262413592910598</v>
+      </c>
+      <c r="F35">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>0.93253552925439898</v>
+      </c>
+      <c r="F36">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>0.93220400288782301</v>
+      </c>
+      <c r="F37">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>0.93227758521150395</v>
+      </c>
+      <c r="F38">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>0.93127151382231099</v>
+      </c>
+      <c r="F39">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>0.93074714797353397</v>
+      </c>
+      <c r="F40">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>0.93150161391770303</v>
+      </c>
+      <c r="F41">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>0.931358661008577</v>
+      </c>
+      <c r="F42">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0.93141934526325898</v>
+      </c>
+      <c r="F43">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>0.93100311661978197</v>
+      </c>
+      <c r="F44">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>0.93025629738391302</v>
+      </c>
+      <c r="F45">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>0.93045409262478695</v>
+      </c>
+      <c r="F46">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0.93010384339372798</v>
+      </c>
+      <c r="F47">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>0.92998366720742398</v>
+      </c>
+      <c r="F48">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>0.93071418017461105</v>
+      </c>
+      <c r="F49">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <v>0.93057989561392496</v>
+      </c>
+      <c r="F50">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0.93053544804924404</v>
+      </c>
+      <c r="F51">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <v>0.92951642223189901</v>
+      </c>
+      <c r="F52">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>0.92968297592280802</v>
+      </c>
+      <c r="F53">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>0.93015359218078897</v>
+      </c>
+      <c r="F54">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>0.92985104138783803</v>
+      </c>
+      <c r="F55">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>53</v>
+      </c>
+      <c r="E56">
+        <v>0.92926542214404995</v>
+      </c>
+      <c r="F56">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <v>0.92951816233100104</v>
+      </c>
+      <c r="F57">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <v>0.92916754048252204</v>
+      </c>
+      <c r="F58">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>0.92923455533203503</v>
+      </c>
+      <c r="F59">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <v>0.93004327536768205</v>
+      </c>
+      <c r="F60">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>0.92870046207343104</v>
+      </c>
+      <c r="F61">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <v>0.92931681612262895</v>
+      </c>
+      <c r="F62">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <v>0.92928605966028299</v>
+      </c>
+      <c r="F63">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>0.92856370592644599</v>
+      </c>
+      <c r="F64">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <v>0.92909040355241401</v>
+      </c>
+      <c r="F65">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <v>0.9279564589482</v>
+      </c>
+      <c r="F66">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <v>0.92880382612626</v>
+      </c>
+      <c r="F67">
+        <v>5196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CE7AF-58CF-4159-806E-6B96572813BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A578A5-94C7-497B-B7E9-778957FCAE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="k=5, sorted" sheetId="1" r:id="rId1"/>
+    <sheet name="k=11, sorted" sheetId="2" r:id="rId2"/>
+    <sheet name="l=3, sorted" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="8">
   <si>
     <t>Threads</t>
   </si>
@@ -51,6 +53,12 @@
   </si>
   <si>
     <t>Ihis</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -185,7 +193,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$3</c:f>
+              <c:f>'k=5, sorted'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +254,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$4:$F$67</c:f>
+              <c:f>'k=5, sorted'!$F$4:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -473,7 +481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$3</c:f>
+              <c:f>'k=5, sorted'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,7 +542,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$4:$E$67</c:f>
+              <c:f>'k=5, sorted'!$E$4:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -737,6 +745,1746 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91F0-4852-9A23-AACE878B67D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="720937760"/>
+        <c:axId val="720951072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024859584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024860000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024859584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="720951072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720937760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="720937760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="720951072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sorted Partitioning (k-anonymity, k=11)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k=11, sorted'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'k=11, sorted'!$F$4:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>110601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24690</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13660</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12656</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12507</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12266</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11921</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10392</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11064</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9377</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9641</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8854</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10069</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9041</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11111</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8630</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9287</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9017</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8654</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8312</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8266</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8811</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8148</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7764</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7675</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8505</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8368</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8249</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8885</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7352</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-121F-41B6-B6A5-8DADD82416D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k=11, sorted'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'k=11, sorted'!$E$4:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.94630704492773399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94579230127604696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93994493882154895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93618783612629297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93172981231213503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92858789400588304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92553953837557601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92292088473997402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91739461687301804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91580706978707105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91455883339216704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91407079481873998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91187643022351295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91065597163509904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90915704208695602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90848651602799102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.907540033747394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90617072729498005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90706592035133904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90515400669068002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90439378317525498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90463207036924298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90488370407010499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90474902260402101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90398736564696203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90365653154186998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90342968707552096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90342447122732805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90251386985691995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90299179304146704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90181080640133504</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90223926205098204</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90133297540401902</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90177440693542099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90156322927777899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90088052988874401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.899641004695378</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.899813711668489</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.90023909021386705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90004544374649398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90001706781882596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90003406937080799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89981267661971198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.89911013388044403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89954151755134804</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89968856050204005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.89971300783616204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.89952329637760498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89900659054458198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89800661557464101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89751032737632397</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89849531617223399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.89799788126355895</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.89789807137438604</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.89816426167510799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89777052491568399</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.89749905747902903</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89717999720804198</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.897923434471119</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89663260028087299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.89590671499502805</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.89630839016425401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.89588269543382104</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.89700302287302203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-121F-41B6-B6A5-8DADD82416D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="720937760"/>
+        <c:axId val="720951072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024859584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024860000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024859584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="720951072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720937760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="720937760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="720951072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sorted Partitioning (l-diversity,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> l=3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'l=3, sorted'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'l=3, sorted'!$F$4:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>17636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4719</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8832</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4971</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5394</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5835</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5430</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5905</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6519</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6619</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5853</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7670</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6543</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6402</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6437</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6354</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6492</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6042</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6311</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC62-4A8F-9D72-EC29A29845F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'l=3, sorted'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'l=3, sorted'!$E$4:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.97495615668354096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97296774168732703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97713036082480298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97929572725290703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97377838108449699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97259381318119698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97605574566889897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97321040535286396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97001467203717895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97090544732707895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.968566609922767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97032511028027202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.965725879932257</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96748233855430799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96366438563356305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96489963847507698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96339212152977305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96167519682453395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96157073440937502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95890325803815701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95772632949746495</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95626418765274401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95345557933724601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94429946599560199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.947702068682168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94618262907834805</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94544809427697396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.942500593377114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94064404814480396</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93763239485373495</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93777779620533996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93683934143134096</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93382501736188805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93052956865593195</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93067459423031196</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92307450492885601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92121184580599702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92288418128690497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91338357278298499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.91810342968276004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.91007303910972903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91126300823956996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.898914982189147</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90317839433645897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89957176575430198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89494999226276395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.886425173665227</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88554282722628097</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89612614682706604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.87514385750829304</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88437561005424903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.86566336082135398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87593027640670595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC62-4A8F-9D72-EC29A29845F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1044,7 +2792,1133 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1608,6 +4482,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B286701-D027-44A8-9362-6BC52C7E6F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0282366D-FEB6-4E07-8CE7-EBD36D6B63F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1907,18 +4867,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B8DC0-A531-437E-9555-E46366EDC663}">
   <dimension ref="B3:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -3016,6 +5984,5182 @@
       </c>
       <c r="F67">
         <v>5196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37DF0B-ECB5-4F3A-BFAE-9160593DE107}">
+  <dimension ref="B3:F67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.94630704492773399</v>
+      </c>
+      <c r="F4">
+        <v>110601</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0.94579230127604696</v>
+      </c>
+      <c r="F5">
+        <v>56434</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.93994493882154895</v>
+      </c>
+      <c r="F6">
+        <v>46485</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.93618783612629297</v>
+      </c>
+      <c r="F7">
+        <v>32080</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.93172981231213503</v>
+      </c>
+      <c r="F8">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.92858789400588304</v>
+      </c>
+      <c r="F9">
+        <v>29487</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.92553953837557601</v>
+      </c>
+      <c r="F10">
+        <v>24690</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.92292088473997402</v>
+      </c>
+      <c r="F11">
+        <v>20864</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.91739461687301804</v>
+      </c>
+      <c r="F12">
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0.91580706978707105</v>
+      </c>
+      <c r="F13">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0.91455883339216704</v>
+      </c>
+      <c r="F14">
+        <v>18365</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0.91407079481873998</v>
+      </c>
+      <c r="F15">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0.91187643022351295</v>
+      </c>
+      <c r="F16">
+        <v>16348</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.91065597163509904</v>
+      </c>
+      <c r="F17">
+        <v>15727</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0.90915704208695602</v>
+      </c>
+      <c r="F18">
+        <v>14594</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.90848651602799102</v>
+      </c>
+      <c r="F19">
+        <v>13985</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0.907540033747394</v>
+      </c>
+      <c r="F20">
+        <v>13427</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0.90617072729498005</v>
+      </c>
+      <c r="F21">
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0.90706592035133904</v>
+      </c>
+      <c r="F22">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0.90515400669068002</v>
+      </c>
+      <c r="F23">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>0.90439378317525498</v>
+      </c>
+      <c r="F24">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0.90463207036924298</v>
+      </c>
+      <c r="F25">
+        <v>12507</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0.90488370407010499</v>
+      </c>
+      <c r="F26">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0.90474902260402101</v>
+      </c>
+      <c r="F27">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0.90398736564696203</v>
+      </c>
+      <c r="F28">
+        <v>10956</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0.90365653154186998</v>
+      </c>
+      <c r="F29">
+        <v>11921</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0.90342968707552096</v>
+      </c>
+      <c r="F30">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0.90342447122732805</v>
+      </c>
+      <c r="F31">
+        <v>10392</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>0.90251386985691995</v>
+      </c>
+      <c r="F32">
+        <v>11064</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0.90299179304146704</v>
+      </c>
+      <c r="F33">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>0.90181080640133504</v>
+      </c>
+      <c r="F34">
+        <v>9594</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>0.90223926205098204</v>
+      </c>
+      <c r="F35">
+        <v>10108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>0.90133297540401902</v>
+      </c>
+      <c r="F36">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>0.90177440693542099</v>
+      </c>
+      <c r="F37">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>0.90156322927777899</v>
+      </c>
+      <c r="F38">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>0.90088052988874401</v>
+      </c>
+      <c r="F39">
+        <v>10668</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>0.899641004695378</v>
+      </c>
+      <c r="F40">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>0.899813711668489</v>
+      </c>
+      <c r="F41">
+        <v>10069</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>0.90023909021386705</v>
+      </c>
+      <c r="F42">
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0.90004544374649398</v>
+      </c>
+      <c r="F43">
+        <v>9041</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>0.90001706781882596</v>
+      </c>
+      <c r="F44">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>0.90003406937080799</v>
+      </c>
+      <c r="F45">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>0.89981267661971198</v>
+      </c>
+      <c r="F46">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0.89911013388044403</v>
+      </c>
+      <c r="F47">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>0.89954151755134804</v>
+      </c>
+      <c r="F48">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>0.89968856050204005</v>
+      </c>
+      <c r="F49">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <v>0.89971300783616204</v>
+      </c>
+      <c r="F50">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0.89952329637760498</v>
+      </c>
+      <c r="F51">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <v>0.89900659054458198</v>
+      </c>
+      <c r="F52">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>0.89800661557464101</v>
+      </c>
+      <c r="F53">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>0.89751032737632397</v>
+      </c>
+      <c r="F54">
+        <v>8148</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>0.89849531617223399</v>
+      </c>
+      <c r="F55">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>53</v>
+      </c>
+      <c r="E56">
+        <v>0.89799788126355895</v>
+      </c>
+      <c r="F56">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <v>0.89789807137438604</v>
+      </c>
+      <c r="F57">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <v>0.89816426167510799</v>
+      </c>
+      <c r="F58">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>0.89777052491568399</v>
+      </c>
+      <c r="F59">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <v>0.89749905747902903</v>
+      </c>
+      <c r="F60">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>0.89717999720804198</v>
+      </c>
+      <c r="F61">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <v>0.897923434471119</v>
+      </c>
+      <c r="F62">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <v>0.89663260028087299</v>
+      </c>
+      <c r="F63">
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>0.89590671499502805</v>
+      </c>
+      <c r="F64">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <v>0.89630839016425401</v>
+      </c>
+      <c r="F65">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <v>0.89588269543382104</v>
+      </c>
+      <c r="F66">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <v>0.89700302287302203</v>
+      </c>
+      <c r="F67">
+        <v>7400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448DA2DE-1690-401C-9B07-CD6551B45953}">
+  <dimension ref="B3:X185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.97495615668354096</v>
+      </c>
+      <c r="F4">
+        <v>17636</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0.96763307859054104</v>
+      </c>
+      <c r="X4">
+        <v>59606</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0.97296774168732703</v>
+      </c>
+      <c r="F5">
+        <v>9780</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0.96254847707062496</v>
+      </c>
+      <c r="X5">
+        <v>36035</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.97713036082480298</v>
+      </c>
+      <c r="F6">
+        <v>9980</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>0.95707787789263299</v>
+      </c>
+      <c r="X6">
+        <v>27903</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.97929572725290703</v>
+      </c>
+      <c r="F7">
+        <v>6366</v>
+      </c>
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>0.95719143086468705</v>
+      </c>
+      <c r="X7">
+        <v>19252</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.97377838108449699</v>
+      </c>
+      <c r="F8">
+        <v>6238</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>0.951799211415157</v>
+      </c>
+      <c r="X8">
+        <v>17004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.97259381318119698</v>
+      </c>
+      <c r="F9">
+        <v>5700</v>
+      </c>
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>0.95044550661094895</v>
+      </c>
+      <c r="X9">
+        <v>19979</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.97605574566889897</v>
+      </c>
+      <c r="F10">
+        <v>5395</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>0.94910406910980505</v>
+      </c>
+      <c r="X10">
+        <v>16665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.97321040535286396</v>
+      </c>
+      <c r="F11">
+        <v>4939</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>0.94631494771818903</v>
+      </c>
+      <c r="X11">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.97001467203717895</v>
+      </c>
+      <c r="F12">
+        <v>5342</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>0.94176747817304696</v>
+      </c>
+      <c r="X12">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0.97090544732707895</v>
+      </c>
+      <c r="F13">
+        <v>5621</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>0.94097541924430705</v>
+      </c>
+      <c r="X13">
+        <v>12018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0.968566609922767</v>
+      </c>
+      <c r="F14">
+        <v>4399</v>
+      </c>
+      <c r="S14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>11</v>
+      </c>
+      <c r="W14">
+        <v>0.93946599857246005</v>
+      </c>
+      <c r="X14">
+        <v>9878</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0.97032511028027202</v>
+      </c>
+      <c r="F15">
+        <v>3777</v>
+      </c>
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>0.93912039244564605</v>
+      </c>
+      <c r="X15">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0.965725879932257</v>
+      </c>
+      <c r="F16">
+        <v>4593</v>
+      </c>
+      <c r="S16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <v>0.93891405303633901</v>
+      </c>
+      <c r="X16">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.96748233855430799</v>
+      </c>
+      <c r="F17">
+        <v>4248</v>
+      </c>
+      <c r="S17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>0.93696775706535096</v>
+      </c>
+      <c r="X17">
+        <v>9695</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0.96366438563356305</v>
+      </c>
+      <c r="F18">
+        <v>3851</v>
+      </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>15</v>
+      </c>
+      <c r="W18">
+        <v>0.93704761416094795</v>
+      </c>
+      <c r="X18">
+        <v>8657</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.96489963847507698</v>
+      </c>
+      <c r="F19">
+        <v>3716</v>
+      </c>
+      <c r="S19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>0.93679578101456695</v>
+      </c>
+      <c r="X19">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0.96339212152977305</v>
+      </c>
+      <c r="F20">
+        <v>3638</v>
+      </c>
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>17</v>
+      </c>
+      <c r="W20">
+        <v>0.93665483908422498</v>
+      </c>
+      <c r="X20">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0.96167519682453395</v>
+      </c>
+      <c r="F21">
+        <v>4508</v>
+      </c>
+      <c r="S21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>0.935996256544808</v>
+      </c>
+      <c r="X21">
+        <v>7922</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0.96157073440937502</v>
+      </c>
+      <c r="F22">
+        <v>4719</v>
+      </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>0.93521532397336504</v>
+      </c>
+      <c r="X22">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0.95890325803815701</v>
+      </c>
+      <c r="F23">
+        <v>4286</v>
+      </c>
+      <c r="S23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>0.93508554720051995</v>
+      </c>
+      <c r="X23">
+        <v>7766</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>0.95772632949746495</v>
+      </c>
+      <c r="F24">
+        <v>4083</v>
+      </c>
+      <c r="S24" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>21</v>
+      </c>
+      <c r="W24">
+        <v>0.933773849746796</v>
+      </c>
+      <c r="X24">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0.95626418765274401</v>
+      </c>
+      <c r="F25">
+        <v>4746</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>22</v>
+      </c>
+      <c r="W25">
+        <v>0.93471187725718297</v>
+      </c>
+      <c r="X25">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0.95345557933724601</v>
+      </c>
+      <c r="F26">
+        <v>4548</v>
+      </c>
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="V26">
+        <v>23</v>
+      </c>
+      <c r="W26">
+        <v>0.93312999223141502</v>
+      </c>
+      <c r="X26">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0.94429946599560199</v>
+      </c>
+      <c r="F27">
+        <v>5214</v>
+      </c>
+      <c r="S27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="W27">
+        <v>0.93461158012968004</v>
+      </c>
+      <c r="X27">
+        <v>7768</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0.947702068682168</v>
+      </c>
+      <c r="F28">
+        <v>4608</v>
+      </c>
+      <c r="S28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>25</v>
+      </c>
+      <c r="W28">
+        <v>0.93395206352729399</v>
+      </c>
+      <c r="X28">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0.94618262907834805</v>
+      </c>
+      <c r="F29">
+        <v>4948</v>
+      </c>
+      <c r="S29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>26</v>
+      </c>
+      <c r="W29">
+        <v>0.93342322048867299</v>
+      </c>
+      <c r="X29">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0.94544809427697396</v>
+      </c>
+      <c r="F30">
+        <v>4879</v>
+      </c>
+      <c r="S30" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>27</v>
+      </c>
+      <c r="W30">
+        <v>0.93367456178423303</v>
+      </c>
+      <c r="X30">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0.942500593377114</v>
+      </c>
+      <c r="F31">
+        <v>8832</v>
+      </c>
+      <c r="S31" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>28</v>
+      </c>
+      <c r="W31">
+        <v>0.93243999432493796</v>
+      </c>
+      <c r="X31">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>0.94064404814480396</v>
+      </c>
+      <c r="F32">
+        <v>4971</v>
+      </c>
+      <c r="S32" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>29</v>
+      </c>
+      <c r="W32">
+        <v>0.93274552630310803</v>
+      </c>
+      <c r="X32">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0.93763239485373495</v>
+      </c>
+      <c r="F33">
+        <v>4829</v>
+      </c>
+      <c r="S33" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>30</v>
+      </c>
+      <c r="W33">
+        <v>0.93306075153488699</v>
+      </c>
+      <c r="X33">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>0.93777779620533996</v>
+      </c>
+      <c r="F34">
+        <v>5394</v>
+      </c>
+      <c r="S34" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="V34">
+        <v>31</v>
+      </c>
+      <c r="W34">
+        <v>0.93309346168952001</v>
+      </c>
+      <c r="X34">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>0.93683934143134096</v>
+      </c>
+      <c r="F35">
+        <v>6004</v>
+      </c>
+      <c r="S35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35">
+        <v>0.93262413592910598</v>
+      </c>
+      <c r="X35">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>0.93382501736188805</v>
+      </c>
+      <c r="F36">
+        <v>5209</v>
+      </c>
+      <c r="S36" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>33</v>
+      </c>
+      <c r="W36">
+        <v>0.93253552925439898</v>
+      </c>
+      <c r="X36">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>0.93052956865593195</v>
+      </c>
+      <c r="F37">
+        <v>5835</v>
+      </c>
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="V37">
+        <v>34</v>
+      </c>
+      <c r="W37">
+        <v>0.93220400288782301</v>
+      </c>
+      <c r="X37">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>0.93067459423031196</v>
+      </c>
+      <c r="F38">
+        <v>5430</v>
+      </c>
+      <c r="S38" t="s">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <v>35</v>
+      </c>
+      <c r="W38">
+        <v>0.93227758521150395</v>
+      </c>
+      <c r="X38">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>0.92307450492885601</v>
+      </c>
+      <c r="F39">
+        <v>6860</v>
+      </c>
+      <c r="S39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>36</v>
+      </c>
+      <c r="W39">
+        <v>0.93127151382231099</v>
+      </c>
+      <c r="X39">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>0.92121184580599702</v>
+      </c>
+      <c r="F40">
+        <v>5905</v>
+      </c>
+      <c r="S40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>37</v>
+      </c>
+      <c r="W40">
+        <v>0.93074714797353397</v>
+      </c>
+      <c r="X40">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>0.92288418128690497</v>
+      </c>
+      <c r="F41">
+        <v>6519</v>
+      </c>
+      <c r="S41" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>38</v>
+      </c>
+      <c r="W41">
+        <v>0.93150161391770303</v>
+      </c>
+      <c r="X41">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>0.91338357278298499</v>
+      </c>
+      <c r="F42">
+        <v>6283</v>
+      </c>
+      <c r="S42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>39</v>
+      </c>
+      <c r="W42">
+        <v>0.931358661008578</v>
+      </c>
+      <c r="X42">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0.91810342968276004</v>
+      </c>
+      <c r="F43">
+        <v>6619</v>
+      </c>
+      <c r="S43" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>40</v>
+      </c>
+      <c r="W43">
+        <v>0.93141934526325898</v>
+      </c>
+      <c r="X43">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>0.91007303910972903</v>
+      </c>
+      <c r="F44">
+        <v>5853</v>
+      </c>
+      <c r="S44" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="V44">
+        <v>41</v>
+      </c>
+      <c r="W44">
+        <v>0.93100311661978197</v>
+      </c>
+      <c r="X44">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>0.91126300823956996</v>
+      </c>
+      <c r="F45">
+        <v>7670</v>
+      </c>
+      <c r="S45" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <v>42</v>
+      </c>
+      <c r="W45">
+        <v>0.93025629738391302</v>
+      </c>
+      <c r="X45">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>0.898914982189147</v>
+      </c>
+      <c r="F46">
+        <v>5268</v>
+      </c>
+      <c r="S46" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>43</v>
+      </c>
+      <c r="W46">
+        <v>0.93045409262478795</v>
+      </c>
+      <c r="X46">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0.90317839433645897</v>
+      </c>
+      <c r="F47">
+        <v>5393</v>
+      </c>
+      <c r="S47" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="V47">
+        <v>44</v>
+      </c>
+      <c r="W47">
+        <v>0.93010384339372798</v>
+      </c>
+      <c r="X47">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>0.89957176575430198</v>
+      </c>
+      <c r="F48">
+        <v>6543</v>
+      </c>
+      <c r="S48" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="V48">
+        <v>45</v>
+      </c>
+      <c r="W48">
+        <v>0.92998366720742398</v>
+      </c>
+      <c r="X48">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>0.89494999226276395</v>
+      </c>
+      <c r="F49">
+        <v>6402</v>
+      </c>
+      <c r="S49" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="V49">
+        <v>46</v>
+      </c>
+      <c r="W49">
+        <v>0.93071418017461105</v>
+      </c>
+      <c r="X49">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <v>0.886425173665227</v>
+      </c>
+      <c r="F50">
+        <v>6437</v>
+      </c>
+      <c r="S50" t="s">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="V50">
+        <v>47</v>
+      </c>
+      <c r="W50">
+        <v>0.93057989561392496</v>
+      </c>
+      <c r="X50">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0.88554282722628097</v>
+      </c>
+      <c r="F51">
+        <v>6298</v>
+      </c>
+      <c r="S51" t="s">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>48</v>
+      </c>
+      <c r="W51">
+        <v>0.93053544804924404</v>
+      </c>
+      <c r="X51">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <v>0.89612614682706604</v>
+      </c>
+      <c r="F52">
+        <v>6354</v>
+      </c>
+      <c r="S52" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>49</v>
+      </c>
+      <c r="W52">
+        <v>0.92951642223190001</v>
+      </c>
+      <c r="X52">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>0.87514385750829304</v>
+      </c>
+      <c r="F53">
+        <v>6492</v>
+      </c>
+      <c r="S53" t="s">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="V53">
+        <v>50</v>
+      </c>
+      <c r="W53">
+        <v>0.92968297592280802</v>
+      </c>
+      <c r="X53">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
+      <c r="E54">
+        <v>0.88437561005424903</v>
+      </c>
+      <c r="F54">
+        <v>6042</v>
+      </c>
+      <c r="S54" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>51</v>
+      </c>
+      <c r="W54">
+        <v>0.93015359218078997</v>
+      </c>
+      <c r="X54">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>0.86566336082135398</v>
+      </c>
+      <c r="F55">
+        <v>6311</v>
+      </c>
+      <c r="S55" t="s">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="V55">
+        <v>52</v>
+      </c>
+      <c r="W55">
+        <v>0.92985104138783803</v>
+      </c>
+      <c r="X55">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>53</v>
+      </c>
+      <c r="E56">
+        <v>0.87593027640670595</v>
+      </c>
+      <c r="F56">
+        <v>6169</v>
+      </c>
+      <c r="S56" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>53</v>
+      </c>
+      <c r="W56">
+        <v>0.92926542214404895</v>
+      </c>
+      <c r="X56">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+      <c r="S57" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="V57">
+        <v>54</v>
+      </c>
+      <c r="W57">
+        <v>0.92951816233100104</v>
+      </c>
+      <c r="X57">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="S58" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+      <c r="V58">
+        <v>55</v>
+      </c>
+      <c r="W58">
+        <v>0.92916754048252204</v>
+      </c>
+      <c r="X58">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="S59" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="V59">
+        <v>56</v>
+      </c>
+      <c r="W59">
+        <v>0.92923455533203403</v>
+      </c>
+      <c r="X59">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>57</v>
+      </c>
+      <c r="S60" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>57</v>
+      </c>
+      <c r="W60">
+        <v>0.93004327536768205</v>
+      </c>
+      <c r="X60">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="S61" t="s">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>5</v>
+      </c>
+      <c r="V61">
+        <v>58</v>
+      </c>
+      <c r="W61">
+        <v>0.92870046207343104</v>
+      </c>
+      <c r="X61">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+      <c r="S62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="V62">
+        <v>59</v>
+      </c>
+      <c r="W62">
+        <v>0.92931681612262895</v>
+      </c>
+      <c r="X62">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="S63" t="s">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="V63">
+        <v>60</v>
+      </c>
+      <c r="W63">
+        <v>0.92928605966028299</v>
+      </c>
+      <c r="X63">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="S64" t="s">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+      <c r="V64">
+        <v>61</v>
+      </c>
+      <c r="W64">
+        <v>0.92856370592644599</v>
+      </c>
+      <c r="X64">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="S65" t="s">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>5</v>
+      </c>
+      <c r="V65">
+        <v>62</v>
+      </c>
+      <c r="W65">
+        <v>0.92909040355241401</v>
+      </c>
+      <c r="X65">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>63</v>
+      </c>
+      <c r="S66" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>5</v>
+      </c>
+      <c r="V66">
+        <v>63</v>
+      </c>
+      <c r="W66">
+        <v>0.9279564589482</v>
+      </c>
+      <c r="X66">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="S67" t="s">
+        <v>5</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>64</v>
+      </c>
+      <c r="W67">
+        <v>0.92880382612626</v>
+      </c>
+      <c r="X67">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S68" t="s">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>11</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0.94630704492773399</v>
+      </c>
+      <c r="X68">
+        <v>110601</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>11</v>
+      </c>
+      <c r="V69">
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <v>0.94579230127604696</v>
+      </c>
+      <c r="X69">
+        <v>56434</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S70" t="s">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>11</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>0.93994493882154895</v>
+      </c>
+      <c r="X70">
+        <v>46485</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S71" t="s">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>11</v>
+      </c>
+      <c r="V71">
+        <v>4</v>
+      </c>
+      <c r="W71">
+        <v>0.93618783612629297</v>
+      </c>
+      <c r="X71">
+        <v>32080</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S72" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>11</v>
+      </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
+      <c r="W72">
+        <v>0.93172981231213503</v>
+      </c>
+      <c r="X72">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T73">
+        <v>11</v>
+      </c>
+      <c r="V73">
+        <v>6</v>
+      </c>
+      <c r="W73">
+        <v>0.92858789400588304</v>
+      </c>
+      <c r="X73">
+        <v>29487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S74" t="s">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>11</v>
+      </c>
+      <c r="V74">
+        <v>7</v>
+      </c>
+      <c r="W74">
+        <v>0.92553953837557601</v>
+      </c>
+      <c r="X74">
+        <v>24690</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S75" t="s">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>11</v>
+      </c>
+      <c r="V75">
+        <v>8</v>
+      </c>
+      <c r="W75">
+        <v>0.92292088473997402</v>
+      </c>
+      <c r="X75">
+        <v>20864</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S76" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76">
+        <v>11</v>
+      </c>
+      <c r="V76">
+        <v>9</v>
+      </c>
+      <c r="W76">
+        <v>0.91739461687301804</v>
+      </c>
+      <c r="X76">
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S77" t="s">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>11</v>
+      </c>
+      <c r="V77">
+        <v>10</v>
+      </c>
+      <c r="W77">
+        <v>0.91580706978707105</v>
+      </c>
+      <c r="X77">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S78" t="s">
+        <v>5</v>
+      </c>
+      <c r="T78">
+        <v>11</v>
+      </c>
+      <c r="V78">
+        <v>11</v>
+      </c>
+      <c r="W78">
+        <v>0.91455883339216704</v>
+      </c>
+      <c r="X78">
+        <v>18365</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S79" t="s">
+        <v>5</v>
+      </c>
+      <c r="T79">
+        <v>11</v>
+      </c>
+      <c r="V79">
+        <v>12</v>
+      </c>
+      <c r="W79">
+        <v>0.91407079481873998</v>
+      </c>
+      <c r="X79">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S80" t="s">
+        <v>5</v>
+      </c>
+      <c r="T80">
+        <v>11</v>
+      </c>
+      <c r="V80">
+        <v>13</v>
+      </c>
+      <c r="W80">
+        <v>0.91187643022351295</v>
+      </c>
+      <c r="X80">
+        <v>16348</v>
+      </c>
+    </row>
+    <row r="81" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S81" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>11</v>
+      </c>
+      <c r="V81">
+        <v>14</v>
+      </c>
+      <c r="W81">
+        <v>0.91065597163509904</v>
+      </c>
+      <c r="X81">
+        <v>15727</v>
+      </c>
+    </row>
+    <row r="82" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S82" t="s">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>11</v>
+      </c>
+      <c r="V82">
+        <v>15</v>
+      </c>
+      <c r="W82">
+        <v>0.90915704208695602</v>
+      </c>
+      <c r="X82">
+        <v>14594</v>
+      </c>
+    </row>
+    <row r="83" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S83" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>11</v>
+      </c>
+      <c r="V83">
+        <v>16</v>
+      </c>
+      <c r="W83">
+        <v>0.90848651602799102</v>
+      </c>
+      <c r="X83">
+        <v>13985</v>
+      </c>
+    </row>
+    <row r="84" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S84" t="s">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>11</v>
+      </c>
+      <c r="V84">
+        <v>17</v>
+      </c>
+      <c r="W84">
+        <v>0.907540033747394</v>
+      </c>
+      <c r="X84">
+        <v>13427</v>
+      </c>
+    </row>
+    <row r="85" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S85" t="s">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>11</v>
+      </c>
+      <c r="V85">
+        <v>18</v>
+      </c>
+      <c r="W85">
+        <v>0.90617072729498005</v>
+      </c>
+      <c r="X85">
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="86" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>11</v>
+      </c>
+      <c r="V86">
+        <v>19</v>
+      </c>
+      <c r="W86">
+        <v>0.90706592035133904</v>
+      </c>
+      <c r="X86">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="87" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S87" t="s">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>11</v>
+      </c>
+      <c r="V87">
+        <v>20</v>
+      </c>
+      <c r="W87">
+        <v>0.90515400669068002</v>
+      </c>
+      <c r="X87">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="88" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S88" t="s">
+        <v>5</v>
+      </c>
+      <c r="T88">
+        <v>11</v>
+      </c>
+      <c r="V88">
+        <v>21</v>
+      </c>
+      <c r="W88">
+        <v>0.90439378317525498</v>
+      </c>
+      <c r="X88">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="89" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S89" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>11</v>
+      </c>
+      <c r="V89">
+        <v>22</v>
+      </c>
+      <c r="W89">
+        <v>0.90463207036924298</v>
+      </c>
+      <c r="X89">
+        <v>12507</v>
+      </c>
+    </row>
+    <row r="90" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S90" t="s">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>11</v>
+      </c>
+      <c r="V90">
+        <v>23</v>
+      </c>
+      <c r="W90">
+        <v>0.90488370407010499</v>
+      </c>
+      <c r="X90">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="91" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S91" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <v>11</v>
+      </c>
+      <c r="V91">
+        <v>24</v>
+      </c>
+      <c r="W91">
+        <v>0.90474902260402101</v>
+      </c>
+      <c r="X91">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="92" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S92" t="s">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>11</v>
+      </c>
+      <c r="V92">
+        <v>25</v>
+      </c>
+      <c r="W92">
+        <v>0.90398736564696203</v>
+      </c>
+      <c r="X92">
+        <v>10956</v>
+      </c>
+    </row>
+    <row r="93" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S93" t="s">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>11</v>
+      </c>
+      <c r="V93">
+        <v>26</v>
+      </c>
+      <c r="W93">
+        <v>0.90365653154186998</v>
+      </c>
+      <c r="X93">
+        <v>11921</v>
+      </c>
+    </row>
+    <row r="94" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S94" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>11</v>
+      </c>
+      <c r="V94">
+        <v>27</v>
+      </c>
+      <c r="W94">
+        <v>0.90342968707552096</v>
+      </c>
+      <c r="X94">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="95" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S95" t="s">
+        <v>5</v>
+      </c>
+      <c r="T95">
+        <v>11</v>
+      </c>
+      <c r="V95">
+        <v>28</v>
+      </c>
+      <c r="W95">
+        <v>0.90342447122732805</v>
+      </c>
+      <c r="X95">
+        <v>10392</v>
+      </c>
+    </row>
+    <row r="96" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S96" t="s">
+        <v>5</v>
+      </c>
+      <c r="T96">
+        <v>11</v>
+      </c>
+      <c r="V96">
+        <v>29</v>
+      </c>
+      <c r="W96">
+        <v>0.90251386985691995</v>
+      </c>
+      <c r="X96">
+        <v>11064</v>
+      </c>
+    </row>
+    <row r="97" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S97" t="s">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>11</v>
+      </c>
+      <c r="V97">
+        <v>30</v>
+      </c>
+      <c r="W97">
+        <v>0.90299179304146704</v>
+      </c>
+      <c r="X97">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="98" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S98" t="s">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>11</v>
+      </c>
+      <c r="V98">
+        <v>31</v>
+      </c>
+      <c r="W98">
+        <v>0.90181080640133504</v>
+      </c>
+      <c r="X98">
+        <v>9594</v>
+      </c>
+    </row>
+    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S99" t="s">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>11</v>
+      </c>
+      <c r="V99">
+        <v>32</v>
+      </c>
+      <c r="W99">
+        <v>0.90223926205098204</v>
+      </c>
+      <c r="X99">
+        <v>10108</v>
+      </c>
+    </row>
+    <row r="100" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S100" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>11</v>
+      </c>
+      <c r="V100">
+        <v>33</v>
+      </c>
+      <c r="W100">
+        <v>0.90133297540401902</v>
+      </c>
+      <c r="X100">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="101" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S101" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>11</v>
+      </c>
+      <c r="V101">
+        <v>34</v>
+      </c>
+      <c r="W101">
+        <v>0.90177440693542099</v>
+      </c>
+      <c r="X101">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="102" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S102" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102">
+        <v>11</v>
+      </c>
+      <c r="V102">
+        <v>35</v>
+      </c>
+      <c r="W102">
+        <v>0.90156322927777899</v>
+      </c>
+      <c r="X102">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="103" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S103" t="s">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>11</v>
+      </c>
+      <c r="V103">
+        <v>36</v>
+      </c>
+      <c r="W103">
+        <v>0.90088052988874401</v>
+      </c>
+      <c r="X103">
+        <v>10668</v>
+      </c>
+    </row>
+    <row r="104" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S104" t="s">
+        <v>5</v>
+      </c>
+      <c r="T104">
+        <v>11</v>
+      </c>
+      <c r="V104">
+        <v>37</v>
+      </c>
+      <c r="W104">
+        <v>0.899641004695378</v>
+      </c>
+      <c r="X104">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="105" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S105" t="s">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>11</v>
+      </c>
+      <c r="V105">
+        <v>38</v>
+      </c>
+      <c r="W105">
+        <v>0.899813711668489</v>
+      </c>
+      <c r="X105">
+        <v>10069</v>
+      </c>
+    </row>
+    <row r="106" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S106" t="s">
+        <v>5</v>
+      </c>
+      <c r="T106">
+        <v>11</v>
+      </c>
+      <c r="V106">
+        <v>39</v>
+      </c>
+      <c r="W106">
+        <v>0.90023909021386705</v>
+      </c>
+      <c r="X106">
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="107" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S107" t="s">
+        <v>5</v>
+      </c>
+      <c r="T107">
+        <v>11</v>
+      </c>
+      <c r="V107">
+        <v>40</v>
+      </c>
+      <c r="W107">
+        <v>0.90004544374649398</v>
+      </c>
+      <c r="X107">
+        <v>9041</v>
+      </c>
+    </row>
+    <row r="108" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S108" t="s">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>11</v>
+      </c>
+      <c r="V108">
+        <v>41</v>
+      </c>
+      <c r="W108">
+        <v>0.90001706781882596</v>
+      </c>
+      <c r="X108">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="109" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S109" t="s">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>11</v>
+      </c>
+      <c r="V109">
+        <v>42</v>
+      </c>
+      <c r="W109">
+        <v>0.90003406937080799</v>
+      </c>
+      <c r="X109">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="110" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S110" t="s">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>11</v>
+      </c>
+      <c r="V110">
+        <v>43</v>
+      </c>
+      <c r="W110">
+        <v>0.89981267661971198</v>
+      </c>
+      <c r="X110">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="111" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S111" t="s">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>11</v>
+      </c>
+      <c r="V111">
+        <v>44</v>
+      </c>
+      <c r="W111">
+        <v>0.89911013388044403</v>
+      </c>
+      <c r="X111">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="112" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S112" t="s">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>11</v>
+      </c>
+      <c r="V112">
+        <v>45</v>
+      </c>
+      <c r="W112">
+        <v>0.89954151755134804</v>
+      </c>
+      <c r="X112">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="113" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S113" t="s">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>11</v>
+      </c>
+      <c r="V113">
+        <v>46</v>
+      </c>
+      <c r="W113">
+        <v>0.89968856050204005</v>
+      </c>
+      <c r="X113">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="114" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S114" t="s">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>11</v>
+      </c>
+      <c r="V114">
+        <v>47</v>
+      </c>
+      <c r="W114">
+        <v>0.89971300783616204</v>
+      </c>
+      <c r="X114">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="115" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S115" t="s">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>11</v>
+      </c>
+      <c r="V115">
+        <v>48</v>
+      </c>
+      <c r="W115">
+        <v>0.89952329637760498</v>
+      </c>
+      <c r="X115">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="116" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S116" t="s">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>11</v>
+      </c>
+      <c r="V116">
+        <v>49</v>
+      </c>
+      <c r="W116">
+        <v>0.89900659054458198</v>
+      </c>
+      <c r="X116">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="117" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S117" t="s">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>11</v>
+      </c>
+      <c r="V117">
+        <v>50</v>
+      </c>
+      <c r="W117">
+        <v>0.89800661557464101</v>
+      </c>
+      <c r="X117">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="118" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S118" t="s">
+        <v>5</v>
+      </c>
+      <c r="T118">
+        <v>11</v>
+      </c>
+      <c r="V118">
+        <v>51</v>
+      </c>
+      <c r="W118">
+        <v>0.89751032737632397</v>
+      </c>
+      <c r="X118">
+        <v>8148</v>
+      </c>
+    </row>
+    <row r="119" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S119" t="s">
+        <v>5</v>
+      </c>
+      <c r="T119">
+        <v>11</v>
+      </c>
+      <c r="V119">
+        <v>52</v>
+      </c>
+      <c r="W119">
+        <v>0.89849531617223399</v>
+      </c>
+      <c r="X119">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="120" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S120" t="s">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>11</v>
+      </c>
+      <c r="V120">
+        <v>53</v>
+      </c>
+      <c r="W120">
+        <v>0.89799788126355895</v>
+      </c>
+      <c r="X120">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="121" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S121" t="s">
+        <v>5</v>
+      </c>
+      <c r="T121">
+        <v>11</v>
+      </c>
+      <c r="V121">
+        <v>54</v>
+      </c>
+      <c r="W121">
+        <v>0.89789807137438604</v>
+      </c>
+      <c r="X121">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="122" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S122" t="s">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>11</v>
+      </c>
+      <c r="V122">
+        <v>55</v>
+      </c>
+      <c r="W122">
+        <v>0.89816426167510799</v>
+      </c>
+      <c r="X122">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="123" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S123" t="s">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>11</v>
+      </c>
+      <c r="V123">
+        <v>56</v>
+      </c>
+      <c r="W123">
+        <v>0.89777052491568399</v>
+      </c>
+      <c r="X123">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="124" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S124" t="s">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>11</v>
+      </c>
+      <c r="V124">
+        <v>57</v>
+      </c>
+      <c r="W124">
+        <v>0.89749905747902903</v>
+      </c>
+      <c r="X124">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="125" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S125" t="s">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>11</v>
+      </c>
+      <c r="V125">
+        <v>58</v>
+      </c>
+      <c r="W125">
+        <v>0.89717999720804198</v>
+      </c>
+      <c r="X125">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="126" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S126" t="s">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>11</v>
+      </c>
+      <c r="V126">
+        <v>59</v>
+      </c>
+      <c r="W126">
+        <v>0.897923434471119</v>
+      </c>
+      <c r="X126">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="127" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S127" t="s">
+        <v>5</v>
+      </c>
+      <c r="T127">
+        <v>11</v>
+      </c>
+      <c r="V127">
+        <v>60</v>
+      </c>
+      <c r="W127">
+        <v>0.89663260028087299</v>
+      </c>
+      <c r="X127">
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="128" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S128" t="s">
+        <v>5</v>
+      </c>
+      <c r="T128">
+        <v>11</v>
+      </c>
+      <c r="V128">
+        <v>61</v>
+      </c>
+      <c r="W128">
+        <v>0.89590671499502805</v>
+      </c>
+      <c r="X128">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="129" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S129" t="s">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>11</v>
+      </c>
+      <c r="V129">
+        <v>62</v>
+      </c>
+      <c r="W129">
+        <v>0.89630839016425401</v>
+      </c>
+      <c r="X129">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="130" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S130" t="s">
+        <v>5</v>
+      </c>
+      <c r="T130">
+        <v>11</v>
+      </c>
+      <c r="V130">
+        <v>63</v>
+      </c>
+      <c r="W130">
+        <v>0.89588269543382104</v>
+      </c>
+      <c r="X130">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="131" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S131" t="s">
+        <v>5</v>
+      </c>
+      <c r="T131">
+        <v>11</v>
+      </c>
+      <c r="V131">
+        <v>64</v>
+      </c>
+      <c r="W131">
+        <v>0.89700302287302203</v>
+      </c>
+      <c r="X131">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="132" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S132" t="s">
+        <v>5</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>1</v>
+      </c>
+      <c r="W132">
+        <v>0.97495615668354096</v>
+      </c>
+      <c r="X132">
+        <v>17636</v>
+      </c>
+    </row>
+    <row r="133" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S133" t="s">
+        <v>5</v>
+      </c>
+      <c r="U133">
+        <v>3</v>
+      </c>
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>0.97296774168732703</v>
+      </c>
+      <c r="X133">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="134" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S134" t="s">
+        <v>5</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>0.97713036082480298</v>
+      </c>
+      <c r="X134">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="135" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S135" t="s">
+        <v>5</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>4</v>
+      </c>
+      <c r="W135">
+        <v>0.97929572725290703</v>
+      </c>
+      <c r="X135">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="136" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S136" t="s">
+        <v>5</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>0.97377838108449699</v>
+      </c>
+      <c r="X136">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="137" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S137" t="s">
+        <v>5</v>
+      </c>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="V137">
+        <v>6</v>
+      </c>
+      <c r="W137">
+        <v>0.97259381318119698</v>
+      </c>
+      <c r="X137">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="138" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S138" t="s">
+        <v>5</v>
+      </c>
+      <c r="U138">
+        <v>3</v>
+      </c>
+      <c r="V138">
+        <v>7</v>
+      </c>
+      <c r="W138">
+        <v>0.97605574566889897</v>
+      </c>
+      <c r="X138">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="139" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S139" t="s">
+        <v>5</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>8</v>
+      </c>
+      <c r="W139">
+        <v>0.97321040535286396</v>
+      </c>
+      <c r="X139">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="140" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S140" t="s">
+        <v>5</v>
+      </c>
+      <c r="U140">
+        <v>3</v>
+      </c>
+      <c r="V140">
+        <v>9</v>
+      </c>
+      <c r="W140">
+        <v>0.97001467203717895</v>
+      </c>
+      <c r="X140">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="141" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S141" t="s">
+        <v>5</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>10</v>
+      </c>
+      <c r="W141">
+        <v>0.97090544732707895</v>
+      </c>
+      <c r="X141">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="142" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S142" t="s">
+        <v>5</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>11</v>
+      </c>
+      <c r="W142">
+        <v>0.968566609922767</v>
+      </c>
+      <c r="X142">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="143" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S143" t="s">
+        <v>5</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143">
+        <v>12</v>
+      </c>
+      <c r="W143">
+        <v>0.97032511028027202</v>
+      </c>
+      <c r="X143">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="144" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S144" t="s">
+        <v>5</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>13</v>
+      </c>
+      <c r="W144">
+        <v>0.965725879932257</v>
+      </c>
+      <c r="X144">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="145" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S145" t="s">
+        <v>5</v>
+      </c>
+      <c r="U145">
+        <v>3</v>
+      </c>
+      <c r="V145">
+        <v>14</v>
+      </c>
+      <c r="W145">
+        <v>0.96748233855430799</v>
+      </c>
+      <c r="X145">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="146" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S146" t="s">
+        <v>5</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
+        <v>15</v>
+      </c>
+      <c r="W146">
+        <v>0.96366438563356305</v>
+      </c>
+      <c r="X146">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="147" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S147" t="s">
+        <v>5</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>16</v>
+      </c>
+      <c r="W147">
+        <v>0.96489963847507698</v>
+      </c>
+      <c r="X147">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="148" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S148" t="s">
+        <v>5</v>
+      </c>
+      <c r="U148">
+        <v>3</v>
+      </c>
+      <c r="V148">
+        <v>17</v>
+      </c>
+      <c r="W148">
+        <v>0.96339212152977305</v>
+      </c>
+      <c r="X148">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="149" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S149" t="s">
+        <v>5</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>18</v>
+      </c>
+      <c r="W149">
+        <v>0.96167519682453395</v>
+      </c>
+      <c r="X149">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="150" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S150" t="s">
+        <v>5</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>19</v>
+      </c>
+      <c r="W150">
+        <v>0.96157073440937502</v>
+      </c>
+      <c r="X150">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="151" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S151" t="s">
+        <v>5</v>
+      </c>
+      <c r="U151">
+        <v>3</v>
+      </c>
+      <c r="V151">
+        <v>20</v>
+      </c>
+      <c r="W151">
+        <v>0.95890325803815701</v>
+      </c>
+      <c r="X151">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="152" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S152" t="s">
+        <v>5</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>21</v>
+      </c>
+      <c r="W152">
+        <v>0.95772632949746495</v>
+      </c>
+      <c r="X152">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="153" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S153" t="s">
+        <v>5</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>22</v>
+      </c>
+      <c r="W153">
+        <v>0.95626418765274401</v>
+      </c>
+      <c r="X153">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="154" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S154" t="s">
+        <v>5</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>23</v>
+      </c>
+      <c r="W154">
+        <v>0.95345557933724601</v>
+      </c>
+      <c r="X154">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="155" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S155" t="s">
+        <v>5</v>
+      </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
+      <c r="V155">
+        <v>24</v>
+      </c>
+      <c r="W155">
+        <v>0.94429946599560199</v>
+      </c>
+      <c r="X155">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="156" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S156" t="s">
+        <v>5</v>
+      </c>
+      <c r="U156">
+        <v>3</v>
+      </c>
+      <c r="V156">
+        <v>25</v>
+      </c>
+      <c r="W156">
+        <v>0.947702068682168</v>
+      </c>
+      <c r="X156">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="157" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S157" t="s">
+        <v>5</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>26</v>
+      </c>
+      <c r="W157">
+        <v>0.94618262907834805</v>
+      </c>
+      <c r="X157">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="158" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S158" t="s">
+        <v>5</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158">
+        <v>27</v>
+      </c>
+      <c r="W158">
+        <v>0.94544809427697396</v>
+      </c>
+      <c r="X158">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="159" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
+        <v>5</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>28</v>
+      </c>
+      <c r="W159">
+        <v>0.942500593377114</v>
+      </c>
+      <c r="X159">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="160" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S160" t="s">
+        <v>5</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>29</v>
+      </c>
+      <c r="W160">
+        <v>0.94064404814480396</v>
+      </c>
+      <c r="X160">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="161" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S161" t="s">
+        <v>5</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>30</v>
+      </c>
+      <c r="W161">
+        <v>0.93763239485373495</v>
+      </c>
+      <c r="X161">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="162" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S162" t="s">
+        <v>5</v>
+      </c>
+      <c r="U162">
+        <v>3</v>
+      </c>
+      <c r="V162">
+        <v>31</v>
+      </c>
+      <c r="W162">
+        <v>0.93777779620533996</v>
+      </c>
+      <c r="X162">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="163" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S163" t="s">
+        <v>5</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163">
+        <v>32</v>
+      </c>
+      <c r="W163">
+        <v>0.93683934143134096</v>
+      </c>
+      <c r="X163">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="164" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S164" t="s">
+        <v>5</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>33</v>
+      </c>
+      <c r="W164">
+        <v>0.93382501736188805</v>
+      </c>
+      <c r="X164">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="165" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S165" t="s">
+        <v>5</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>34</v>
+      </c>
+      <c r="W165">
+        <v>0.93052956865593195</v>
+      </c>
+      <c r="X165">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="166" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S166" t="s">
+        <v>5</v>
+      </c>
+      <c r="U166">
+        <v>3</v>
+      </c>
+      <c r="V166">
+        <v>35</v>
+      </c>
+      <c r="W166">
+        <v>0.93067459423031196</v>
+      </c>
+      <c r="X166">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="167" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S167" t="s">
+        <v>5</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <v>36</v>
+      </c>
+      <c r="W167">
+        <v>0.92307450492885601</v>
+      </c>
+      <c r="X167">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="168" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S168" t="s">
+        <v>5</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>37</v>
+      </c>
+      <c r="W168">
+        <v>0.92121184580599702</v>
+      </c>
+      <c r="X168">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="169" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S169" t="s">
+        <v>5</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>38</v>
+      </c>
+      <c r="W169">
+        <v>0.92288418128690497</v>
+      </c>
+      <c r="X169">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="170" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S170" t="s">
+        <v>5</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>39</v>
+      </c>
+      <c r="W170">
+        <v>0.91338357278298499</v>
+      </c>
+      <c r="X170">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="171" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S171" t="s">
+        <v>5</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>40</v>
+      </c>
+      <c r="W171">
+        <v>0.91810342968276004</v>
+      </c>
+      <c r="X171">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="172" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S172" t="s">
+        <v>5</v>
+      </c>
+      <c r="U172">
+        <v>3</v>
+      </c>
+      <c r="V172">
+        <v>41</v>
+      </c>
+      <c r="W172">
+        <v>0.91007303910972903</v>
+      </c>
+      <c r="X172">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="173" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S173" t="s">
+        <v>5</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>42</v>
+      </c>
+      <c r="W173">
+        <v>0.91126300823956996</v>
+      </c>
+      <c r="X173">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="174" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S174" t="s">
+        <v>5</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>43</v>
+      </c>
+      <c r="W174">
+        <v>0.898914982189147</v>
+      </c>
+      <c r="X174">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="175" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S175" t="s">
+        <v>5</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>44</v>
+      </c>
+      <c r="W175">
+        <v>0.90317839433645897</v>
+      </c>
+      <c r="X175">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="176" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S176" t="s">
+        <v>5</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>45</v>
+      </c>
+      <c r="W176">
+        <v>0.89957176575430198</v>
+      </c>
+      <c r="X176">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="177" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S177" t="s">
+        <v>5</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>46</v>
+      </c>
+      <c r="W177">
+        <v>0.89494999226276395</v>
+      </c>
+      <c r="X177">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="178" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S178" t="s">
+        <v>5</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>47</v>
+      </c>
+      <c r="W178">
+        <v>0.886425173665227</v>
+      </c>
+      <c r="X178">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="179" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S179" t="s">
+        <v>5</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>48</v>
+      </c>
+      <c r="W179">
+        <v>0.88554282722628097</v>
+      </c>
+      <c r="X179">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="180" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S180" t="s">
+        <v>5</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>49</v>
+      </c>
+      <c r="W180">
+        <v>0.89612614682706604</v>
+      </c>
+      <c r="X180">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="181" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S181" t="s">
+        <v>5</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>50</v>
+      </c>
+      <c r="W181">
+        <v>0.87514385750829304</v>
+      </c>
+      <c r="X181">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="182" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S182" t="s">
+        <v>5</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
+        <v>51</v>
+      </c>
+      <c r="W182">
+        <v>0.88437561005424903</v>
+      </c>
+      <c r="X182">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="183" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S183" t="s">
+        <v>5</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>52</v>
+      </c>
+      <c r="W183">
+        <v>0.86566336082135398</v>
+      </c>
+      <c r="X183">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="184" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S184" t="s">
+        <v>5</v>
+      </c>
+      <c r="U184">
+        <v>3</v>
+      </c>
+      <c r="V184">
+        <v>53</v>
+      </c>
+      <c r="W184">
+        <v>0.87593027640670595</v>
+      </c>
+      <c r="X184">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="185" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S185" t="s">
+        <v>5</v>
+      </c>
+      <c r="U185">
+        <v>3</v>
+      </c>
+      <c r="V185">
+        <v>54</v>
+      </c>
+      <c r="W185">
+        <v>0.86600664069525901</v>
+      </c>
+      <c r="X185">
+        <v>6030</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A578A5-94C7-497B-B7E9-778957FCAE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D9DCF-17F5-4AB3-8EDB-E6C45F020D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="6">
   <si>
     <t>Threads</t>
   </si>
@@ -46,16 +46,10 @@
     <t>Dataset</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Granularity</t>
   </si>
   <si>
     <t>Ihis</t>
-  </si>
-  <si>
-    <t>l</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -4886,13 +4880,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -4900,7 +4894,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -4917,7 +4911,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -4934,7 +4928,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4951,7 +4945,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4968,7 +4962,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -4985,7 +4979,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -5002,7 +4996,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -5019,7 +5013,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -5036,7 +5030,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -5053,7 +5047,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -5070,7 +5064,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -5087,7 +5081,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -5104,7 +5098,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -5121,7 +5115,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -5138,7 +5132,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -5155,7 +5149,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -5172,7 +5166,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -5189,7 +5183,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -5206,7 +5200,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -5223,7 +5217,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -5240,7 +5234,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -5257,7 +5251,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -5274,7 +5268,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -5291,7 +5285,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -5308,7 +5302,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -5325,7 +5319,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -5342,7 +5336,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -5359,7 +5353,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -5376,7 +5370,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -5393,7 +5387,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5410,7 +5404,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5427,7 +5421,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5444,7 +5438,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -5461,7 +5455,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5478,7 +5472,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5495,7 +5489,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5512,7 +5506,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5529,7 +5523,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5546,7 +5540,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5563,7 +5557,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5580,7 +5574,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5597,7 +5591,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5614,7 +5608,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5631,7 +5625,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5648,7 +5642,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5665,7 +5659,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5682,7 +5676,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5699,7 +5693,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5716,7 +5710,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5733,7 +5727,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5750,7 +5744,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5767,7 +5761,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5784,7 +5778,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5801,7 +5795,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5818,7 +5812,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -5835,7 +5829,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -5852,7 +5846,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -5869,7 +5863,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -5886,7 +5880,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -5903,7 +5897,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -5920,7 +5914,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -5937,7 +5931,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -5954,7 +5948,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -5971,7 +5965,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -6015,13 +6009,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -6029,7 +6023,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -6046,7 +6040,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -6063,7 +6057,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -6080,7 +6074,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -6097,7 +6091,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -6114,7 +6108,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -6131,7 +6125,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -6148,7 +6142,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -6165,7 +6159,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -6182,7 +6176,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -6199,7 +6193,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -6216,7 +6210,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -6233,7 +6227,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -6250,7 +6244,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -6267,7 +6261,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -6284,7 +6278,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -6301,7 +6295,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -6318,7 +6312,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -6335,7 +6329,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -6352,7 +6346,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -6369,7 +6363,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -6386,7 +6380,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -6403,7 +6397,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -6420,7 +6414,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -6437,7 +6431,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -6454,7 +6448,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -6471,7 +6465,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -6488,7 +6482,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -6505,7 +6499,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -6522,7 +6516,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -6539,7 +6533,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -6556,7 +6550,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -6573,7 +6567,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -6590,7 +6584,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -6607,7 +6601,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -6624,7 +6618,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -6641,7 +6635,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -6658,7 +6652,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>11</v>
@@ -6675,7 +6669,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -6692,7 +6686,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -6709,7 +6703,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -6726,7 +6720,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -6743,7 +6737,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -6760,7 +6754,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -6777,7 +6771,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>11</v>
@@ -6794,7 +6788,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -6811,7 +6805,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -6828,7 +6822,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -6845,7 +6839,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>11</v>
@@ -6862,7 +6856,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>11</v>
@@ -6879,7 +6873,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -6896,7 +6890,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -6913,7 +6907,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>11</v>
@@ -6930,7 +6924,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -6947,7 +6941,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>11</v>
@@ -6964,7 +6958,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -6981,7 +6975,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>11</v>
@@ -6998,7 +6992,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -7015,7 +7009,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -7032,7 +7026,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>11</v>
@@ -7049,7 +7043,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>11</v>
@@ -7066,7 +7060,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -7083,7 +7077,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -7100,7 +7094,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>11</v>
@@ -7123,60 +7117,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448DA2DE-1690-401C-9B07-CD6551B45953}">
-  <dimension ref="B3:X185"/>
+  <dimension ref="B3:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -7190,25 +7158,10 @@
       <c r="F4">
         <v>17636</v>
       </c>
-      <c r="S4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0.96763307859054104</v>
-      </c>
-      <c r="X4">
-        <v>59606</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -7222,25 +7175,10 @@
       <c r="F5">
         <v>9780</v>
       </c>
-      <c r="S5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>0.96254847707062496</v>
-      </c>
-      <c r="X5">
-        <v>36035</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -7254,25 +7192,10 @@
       <c r="F6">
         <v>9980</v>
       </c>
-      <c r="S6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>0.95707787789263299</v>
-      </c>
-      <c r="X6">
-        <v>27903</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -7286,25 +7209,10 @@
       <c r="F7">
         <v>6366</v>
       </c>
-      <c r="S7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>4</v>
-      </c>
-      <c r="W7">
-        <v>0.95719143086468705</v>
-      </c>
-      <c r="X7">
-        <v>19252</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -7318,25 +7226,10 @@
       <c r="F8">
         <v>6238</v>
       </c>
-      <c r="S8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>0.951799211415157</v>
-      </c>
-      <c r="X8">
-        <v>17004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -7350,25 +7243,10 @@
       <c r="F9">
         <v>5700</v>
       </c>
-      <c r="S9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>0.95044550661094895</v>
-      </c>
-      <c r="X9">
-        <v>19979</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -7382,25 +7260,10 @@
       <c r="F10">
         <v>5395</v>
       </c>
-      <c r="S10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>0.94910406910980505</v>
-      </c>
-      <c r="X10">
-        <v>16665</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -7414,25 +7277,10 @@
       <c r="F11">
         <v>4939</v>
       </c>
-      <c r="S11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-      <c r="V11">
-        <v>8</v>
-      </c>
-      <c r="W11">
-        <v>0.94631494771818903</v>
-      </c>
-      <c r="X11">
-        <v>13051</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -7446,25 +7294,10 @@
       <c r="F12">
         <v>5342</v>
       </c>
-      <c r="S12" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="V12">
-        <v>9</v>
-      </c>
-      <c r="W12">
-        <v>0.94176747817304696</v>
-      </c>
-      <c r="X12">
-        <v>12368</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -7478,25 +7311,10 @@
       <c r="F13">
         <v>5621</v>
       </c>
-      <c r="S13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>0.94097541924430705</v>
-      </c>
-      <c r="X13">
-        <v>12018</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -7510,25 +7328,10 @@
       <c r="F14">
         <v>4399</v>
       </c>
-      <c r="S14" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14">
-        <v>5</v>
-      </c>
-      <c r="V14">
-        <v>11</v>
-      </c>
-      <c r="W14">
-        <v>0.93946599857246005</v>
-      </c>
-      <c r="X14">
-        <v>9878</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -7542,25 +7345,10 @@
       <c r="F15">
         <v>3777</v>
       </c>
-      <c r="S15" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15">
-        <v>5</v>
-      </c>
-      <c r="V15">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>0.93912039244564605</v>
-      </c>
-      <c r="X15">
-        <v>10231</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -7574,25 +7362,10 @@
       <c r="F16">
         <v>4593</v>
       </c>
-      <c r="S16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="V16">
-        <v>13</v>
-      </c>
-      <c r="W16">
-        <v>0.93891405303633901</v>
-      </c>
-      <c r="X16">
-        <v>9132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -7606,25 +7379,10 @@
       <c r="F17">
         <v>4248</v>
       </c>
-      <c r="S17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-      <c r="V17">
-        <v>14</v>
-      </c>
-      <c r="W17">
-        <v>0.93696775706535096</v>
-      </c>
-      <c r="X17">
-        <v>9695</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -7638,25 +7396,10 @@
       <c r="F18">
         <v>3851</v>
       </c>
-      <c r="S18" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18">
-        <v>5</v>
-      </c>
-      <c r="V18">
-        <v>15</v>
-      </c>
-      <c r="W18">
-        <v>0.93704761416094795</v>
-      </c>
-      <c r="X18">
-        <v>8657</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -7670,25 +7413,10 @@
       <c r="F19">
         <v>3716</v>
       </c>
-      <c r="S19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T19">
-        <v>5</v>
-      </c>
-      <c r="V19">
-        <v>16</v>
-      </c>
-      <c r="W19">
-        <v>0.93679578101456695</v>
-      </c>
-      <c r="X19">
-        <v>8594</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -7702,25 +7430,10 @@
       <c r="F20">
         <v>3638</v>
       </c>
-      <c r="S20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20">
-        <v>5</v>
-      </c>
-      <c r="V20">
-        <v>17</v>
-      </c>
-      <c r="W20">
-        <v>0.93665483908422498</v>
-      </c>
-      <c r="X20">
-        <v>9106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -7734,25 +7447,10 @@
       <c r="F21">
         <v>4508</v>
       </c>
-      <c r="S21" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
-      <c r="V21">
-        <v>18</v>
-      </c>
-      <c r="W21">
-        <v>0.935996256544808</v>
-      </c>
-      <c r="X21">
-        <v>7922</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -7766,25 +7464,10 @@
       <c r="F22">
         <v>4719</v>
       </c>
-      <c r="S22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="V22">
-        <v>19</v>
-      </c>
-      <c r="W22">
-        <v>0.93521532397336504</v>
-      </c>
-      <c r="X22">
-        <v>7977</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -7798,25 +7481,10 @@
       <c r="F23">
         <v>4286</v>
       </c>
-      <c r="S23" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23">
-        <v>5</v>
-      </c>
-      <c r="V23">
-        <v>20</v>
-      </c>
-      <c r="W23">
-        <v>0.93508554720051995</v>
-      </c>
-      <c r="X23">
-        <v>7766</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -7830,25 +7498,10 @@
       <c r="F24">
         <v>4083</v>
       </c>
-      <c r="S24" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24">
-        <v>5</v>
-      </c>
-      <c r="V24">
-        <v>21</v>
-      </c>
-      <c r="W24">
-        <v>0.933773849746796</v>
-      </c>
-      <c r="X24">
-        <v>7594</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -7862,25 +7515,10 @@
       <c r="F25">
         <v>4746</v>
       </c>
-      <c r="S25" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="V25">
-        <v>22</v>
-      </c>
-      <c r="W25">
-        <v>0.93471187725718297</v>
-      </c>
-      <c r="X25">
-        <v>7407</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -7894,25 +7532,10 @@
       <c r="F26">
         <v>4548</v>
       </c>
-      <c r="S26" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>5</v>
-      </c>
-      <c r="V26">
-        <v>23</v>
-      </c>
-      <c r="W26">
-        <v>0.93312999223141502</v>
-      </c>
-      <c r="X26">
-        <v>6266</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -7926,25 +7549,10 @@
       <c r="F27">
         <v>5214</v>
       </c>
-      <c r="S27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27">
-        <v>5</v>
-      </c>
-      <c r="V27">
-        <v>24</v>
-      </c>
-      <c r="W27">
-        <v>0.93461158012968004</v>
-      </c>
-      <c r="X27">
-        <v>7768</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -7958,25 +7566,10 @@
       <c r="F28">
         <v>4608</v>
       </c>
-      <c r="S28" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28">
-        <v>5</v>
-      </c>
-      <c r="V28">
-        <v>25</v>
-      </c>
-      <c r="W28">
-        <v>0.93395206352729399</v>
-      </c>
-      <c r="X28">
-        <v>6683</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -7990,25 +7583,10 @@
       <c r="F29">
         <v>4948</v>
       </c>
-      <c r="S29" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="V29">
-        <v>26</v>
-      </c>
-      <c r="W29">
-        <v>0.93342322048867299</v>
-      </c>
-      <c r="X29">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -8022,25 +7600,10 @@
       <c r="F30">
         <v>4879</v>
       </c>
-      <c r="S30" t="s">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>5</v>
-      </c>
-      <c r="V30">
-        <v>27</v>
-      </c>
-      <c r="W30">
-        <v>0.93367456178423303</v>
-      </c>
-      <c r="X30">
-        <v>6230</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -8054,25 +7617,10 @@
       <c r="F31">
         <v>8832</v>
       </c>
-      <c r="S31" t="s">
-        <v>5</v>
-      </c>
-      <c r="T31">
-        <v>5</v>
-      </c>
-      <c r="V31">
-        <v>28</v>
-      </c>
-      <c r="W31">
-        <v>0.93243999432493796</v>
-      </c>
-      <c r="X31">
-        <v>6707</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -8086,25 +7634,10 @@
       <c r="F32">
         <v>4971</v>
       </c>
-      <c r="S32" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32">
-        <v>5</v>
-      </c>
-      <c r="V32">
-        <v>29</v>
-      </c>
-      <c r="W32">
-        <v>0.93274552630310803</v>
-      </c>
-      <c r="X32">
-        <v>8021</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -8118,25 +7651,10 @@
       <c r="F33">
         <v>4829</v>
       </c>
-      <c r="S33" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33">
-        <v>5</v>
-      </c>
-      <c r="V33">
-        <v>30</v>
-      </c>
-      <c r="W33">
-        <v>0.93306075153488699</v>
-      </c>
-      <c r="X33">
-        <v>6315</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -8150,25 +7668,10 @@
       <c r="F34">
         <v>5394</v>
       </c>
-      <c r="S34" t="s">
-        <v>5</v>
-      </c>
-      <c r="T34">
-        <v>5</v>
-      </c>
-      <c r="V34">
-        <v>31</v>
-      </c>
-      <c r="W34">
-        <v>0.93309346168952001</v>
-      </c>
-      <c r="X34">
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -8182,25 +7685,10 @@
       <c r="F35">
         <v>6004</v>
       </c>
-      <c r="S35" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>5</v>
-      </c>
-      <c r="V35">
-        <v>32</v>
-      </c>
-      <c r="W35">
-        <v>0.93262413592910598</v>
-      </c>
-      <c r="X35">
-        <v>5254</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -8214,25 +7702,10 @@
       <c r="F36">
         <v>5209</v>
       </c>
-      <c r="S36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T36">
-        <v>5</v>
-      </c>
-      <c r="V36">
-        <v>33</v>
-      </c>
-      <c r="W36">
-        <v>0.93253552925439898</v>
-      </c>
-      <c r="X36">
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -8246,25 +7719,10 @@
       <c r="F37">
         <v>5835</v>
       </c>
-      <c r="S37" t="s">
-        <v>5</v>
-      </c>
-      <c r="T37">
-        <v>5</v>
-      </c>
-      <c r="V37">
-        <v>34</v>
-      </c>
-      <c r="W37">
-        <v>0.93220400288782301</v>
-      </c>
-      <c r="X37">
-        <v>5590</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -8278,25 +7736,10 @@
       <c r="F38">
         <v>5430</v>
       </c>
-      <c r="S38" t="s">
-        <v>5</v>
-      </c>
-      <c r="T38">
-        <v>5</v>
-      </c>
-      <c r="V38">
-        <v>35</v>
-      </c>
-      <c r="W38">
-        <v>0.93227758521150395</v>
-      </c>
-      <c r="X38">
-        <v>6468</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -8310,25 +7753,10 @@
       <c r="F39">
         <v>6860</v>
       </c>
-      <c r="S39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T39">
-        <v>5</v>
-      </c>
-      <c r="V39">
-        <v>36</v>
-      </c>
-      <c r="W39">
-        <v>0.93127151382231099</v>
-      </c>
-      <c r="X39">
-        <v>5976</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -8342,25 +7770,10 @@
       <c r="F40">
         <v>5905</v>
       </c>
-      <c r="S40" t="s">
-        <v>5</v>
-      </c>
-      <c r="T40">
-        <v>5</v>
-      </c>
-      <c r="V40">
-        <v>37</v>
-      </c>
-      <c r="W40">
-        <v>0.93074714797353397</v>
-      </c>
-      <c r="X40">
-        <v>5737</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>11</v>
@@ -8374,25 +7787,10 @@
       <c r="F41">
         <v>6519</v>
       </c>
-      <c r="S41" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41">
-        <v>5</v>
-      </c>
-      <c r="V41">
-        <v>38</v>
-      </c>
-      <c r="W41">
-        <v>0.93150161391770303</v>
-      </c>
-      <c r="X41">
-        <v>5912</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -8406,25 +7804,10 @@
       <c r="F42">
         <v>6283</v>
       </c>
-      <c r="S42" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="V42">
-        <v>39</v>
-      </c>
-      <c r="W42">
-        <v>0.931358661008578</v>
-      </c>
-      <c r="X42">
-        <v>5549</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -8438,25 +7821,10 @@
       <c r="F43">
         <v>6619</v>
       </c>
-      <c r="S43" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43">
-        <v>5</v>
-      </c>
-      <c r="V43">
-        <v>40</v>
-      </c>
-      <c r="W43">
-        <v>0.93141934526325898</v>
-      </c>
-      <c r="X43">
-        <v>5377</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -8470,25 +7838,10 @@
       <c r="F44">
         <v>5853</v>
       </c>
-      <c r="S44" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44">
-        <v>5</v>
-      </c>
-      <c r="V44">
-        <v>41</v>
-      </c>
-      <c r="W44">
-        <v>0.93100311661978197</v>
-      </c>
-      <c r="X44">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -8502,25 +7855,10 @@
       <c r="F45">
         <v>7670</v>
       </c>
-      <c r="S45" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45">
-        <v>5</v>
-      </c>
-      <c r="V45">
-        <v>42</v>
-      </c>
-      <c r="W45">
-        <v>0.93025629738391302</v>
-      </c>
-      <c r="X45">
-        <v>5327</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -8534,25 +7872,10 @@
       <c r="F46">
         <v>5268</v>
       </c>
-      <c r="S46" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>5</v>
-      </c>
-      <c r="V46">
-        <v>43</v>
-      </c>
-      <c r="W46">
-        <v>0.93045409262478795</v>
-      </c>
-      <c r="X46">
-        <v>4926</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -8566,25 +7889,10 @@
       <c r="F47">
         <v>5393</v>
       </c>
-      <c r="S47" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47">
-        <v>5</v>
-      </c>
-      <c r="V47">
-        <v>44</v>
-      </c>
-      <c r="W47">
-        <v>0.93010384339372798</v>
-      </c>
-      <c r="X47">
-        <v>5019</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>11</v>
@@ -8598,25 +7906,10 @@
       <c r="F48">
         <v>6543</v>
       </c>
-      <c r="S48" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48">
-        <v>5</v>
-      </c>
-      <c r="V48">
-        <v>45</v>
-      </c>
-      <c r="W48">
-        <v>0.92998366720742398</v>
-      </c>
-      <c r="X48">
-        <v>5525</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -8630,25 +7923,10 @@
       <c r="F49">
         <v>6402</v>
       </c>
-      <c r="S49" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49">
-        <v>5</v>
-      </c>
-      <c r="V49">
-        <v>46</v>
-      </c>
-      <c r="W49">
-        <v>0.93071418017461105</v>
-      </c>
-      <c r="X49">
-        <v>4845</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -8662,25 +7940,10 @@
       <c r="F50">
         <v>6437</v>
       </c>
-      <c r="S50" t="s">
-        <v>5</v>
-      </c>
-      <c r="T50">
-        <v>5</v>
-      </c>
-      <c r="V50">
-        <v>47</v>
-      </c>
-      <c r="W50">
-        <v>0.93057989561392496</v>
-      </c>
-      <c r="X50">
-        <v>5299</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -8694,25 +7957,10 @@
       <c r="F51">
         <v>6298</v>
       </c>
-      <c r="S51" t="s">
-        <v>5</v>
-      </c>
-      <c r="T51">
-        <v>5</v>
-      </c>
-      <c r="V51">
-        <v>48</v>
-      </c>
-      <c r="W51">
-        <v>0.93053544804924404</v>
-      </c>
-      <c r="X51">
-        <v>5158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>11</v>
@@ -8726,25 +7974,10 @@
       <c r="F52">
         <v>6354</v>
       </c>
-      <c r="S52" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52">
-        <v>5</v>
-      </c>
-      <c r="V52">
-        <v>49</v>
-      </c>
-      <c r="W52">
-        <v>0.92951642223190001</v>
-      </c>
-      <c r="X52">
-        <v>5631</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>11</v>
@@ -8758,25 +7991,10 @@
       <c r="F53">
         <v>6492</v>
       </c>
-      <c r="S53" t="s">
-        <v>5</v>
-      </c>
-      <c r="T53">
-        <v>5</v>
-      </c>
-      <c r="V53">
-        <v>50</v>
-      </c>
-      <c r="W53">
-        <v>0.92968297592280802</v>
-      </c>
-      <c r="X53">
-        <v>5069</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -8790,25 +8008,10 @@
       <c r="F54">
         <v>6042</v>
       </c>
-      <c r="S54" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54">
-        <v>5</v>
-      </c>
-      <c r="V54">
-        <v>51</v>
-      </c>
-      <c r="W54">
-        <v>0.93015359218078997</v>
-      </c>
-      <c r="X54">
-        <v>5618</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -8822,25 +8025,10 @@
       <c r="F55">
         <v>6311</v>
       </c>
-      <c r="S55" t="s">
-        <v>5</v>
-      </c>
-      <c r="T55">
-        <v>5</v>
-      </c>
-      <c r="V55">
-        <v>52</v>
-      </c>
-      <c r="W55">
-        <v>0.92985104138783803</v>
-      </c>
-      <c r="X55">
-        <v>5390</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>11</v>
@@ -8854,25 +8042,10 @@
       <c r="F56">
         <v>6169</v>
       </c>
-      <c r="S56" t="s">
-        <v>5</v>
-      </c>
-      <c r="T56">
-        <v>5</v>
-      </c>
-      <c r="V56">
-        <v>53</v>
-      </c>
-      <c r="W56">
-        <v>0.92926542214404895</v>
-      </c>
-      <c r="X56">
-        <v>5825</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -8880,25 +8053,10 @@
       <c r="D57">
         <v>54</v>
       </c>
-      <c r="S57" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57">
-        <v>5</v>
-      </c>
-      <c r="V57">
-        <v>54</v>
-      </c>
-      <c r="W57">
-        <v>0.92951816233100104</v>
-      </c>
-      <c r="X57">
-        <v>4907</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>11</v>
@@ -8906,25 +8064,10 @@
       <c r="D58">
         <v>55</v>
       </c>
-      <c r="S58" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58">
-        <v>5</v>
-      </c>
-      <c r="V58">
-        <v>55</v>
-      </c>
-      <c r="W58">
-        <v>0.92916754048252204</v>
-      </c>
-      <c r="X58">
-        <v>5325</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -8932,25 +8075,10 @@
       <c r="D59">
         <v>56</v>
       </c>
-      <c r="S59" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59">
-        <v>5</v>
-      </c>
-      <c r="V59">
-        <v>56</v>
-      </c>
-      <c r="W59">
-        <v>0.92923455533203403</v>
-      </c>
-      <c r="X59">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>11</v>
@@ -8958,25 +8086,10 @@
       <c r="D60">
         <v>57</v>
       </c>
-      <c r="S60" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60">
-        <v>5</v>
-      </c>
-      <c r="V60">
-        <v>57</v>
-      </c>
-      <c r="W60">
-        <v>0.93004327536768205</v>
-      </c>
-      <c r="X60">
-        <v>4814</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -8984,25 +8097,10 @@
       <c r="D61">
         <v>58</v>
       </c>
-      <c r="S61" t="s">
-        <v>5</v>
-      </c>
-      <c r="T61">
-        <v>5</v>
-      </c>
-      <c r="V61">
-        <v>58</v>
-      </c>
-      <c r="W61">
-        <v>0.92870046207343104</v>
-      </c>
-      <c r="X61">
-        <v>4647</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -9010,25 +8108,10 @@
       <c r="D62">
         <v>59</v>
       </c>
-      <c r="S62" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62">
-        <v>5</v>
-      </c>
-      <c r="V62">
-        <v>59</v>
-      </c>
-      <c r="W62">
-        <v>0.92931681612262895</v>
-      </c>
-      <c r="X62">
-        <v>4584</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>11</v>
@@ -9036,25 +8119,10 @@
       <c r="D63">
         <v>60</v>
       </c>
-      <c r="S63" t="s">
-        <v>5</v>
-      </c>
-      <c r="T63">
-        <v>5</v>
-      </c>
-      <c r="V63">
-        <v>60</v>
-      </c>
-      <c r="W63">
-        <v>0.92928605966028299</v>
-      </c>
-      <c r="X63">
-        <v>4511</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>11</v>
@@ -9062,25 +8130,10 @@
       <c r="D64">
         <v>61</v>
       </c>
-      <c r="S64" t="s">
-        <v>5</v>
-      </c>
-      <c r="T64">
-        <v>5</v>
-      </c>
-      <c r="V64">
-        <v>61</v>
-      </c>
-      <c r="W64">
-        <v>0.92856370592644599</v>
-      </c>
-      <c r="X64">
-        <v>4933</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -9088,25 +8141,10 @@
       <c r="D65">
         <v>62</v>
       </c>
-      <c r="S65" t="s">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>5</v>
-      </c>
-      <c r="V65">
-        <v>62</v>
-      </c>
-      <c r="W65">
-        <v>0.92909040355241401</v>
-      </c>
-      <c r="X65">
-        <v>5119</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -9114,2052 +8152,16 @@
       <c r="D66">
         <v>63</v>
       </c>
-      <c r="S66" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66">
-        <v>5</v>
-      </c>
-      <c r="V66">
-        <v>63</v>
-      </c>
-      <c r="W66">
-        <v>0.9279564589482</v>
-      </c>
-      <c r="X66">
-        <v>4643</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>11</v>
       </c>
       <c r="D67">
         <v>64</v>
-      </c>
-      <c r="S67" t="s">
-        <v>5</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="V67">
-        <v>64</v>
-      </c>
-      <c r="W67">
-        <v>0.92880382612626</v>
-      </c>
-      <c r="X67">
-        <v>4882</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S68" t="s">
-        <v>5</v>
-      </c>
-      <c r="T68">
-        <v>11</v>
-      </c>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="W68">
-        <v>0.94630704492773399</v>
-      </c>
-      <c r="X68">
-        <v>110601</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S69" t="s">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>11</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
-      <c r="W69">
-        <v>0.94579230127604696</v>
-      </c>
-      <c r="X69">
-        <v>56434</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S70" t="s">
-        <v>5</v>
-      </c>
-      <c r="T70">
-        <v>11</v>
-      </c>
-      <c r="V70">
-        <v>3</v>
-      </c>
-      <c r="W70">
-        <v>0.93994493882154895</v>
-      </c>
-      <c r="X70">
-        <v>46485</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S71" t="s">
-        <v>5</v>
-      </c>
-      <c r="T71">
-        <v>11</v>
-      </c>
-      <c r="V71">
-        <v>4</v>
-      </c>
-      <c r="W71">
-        <v>0.93618783612629297</v>
-      </c>
-      <c r="X71">
-        <v>32080</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S72" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72">
-        <v>11</v>
-      </c>
-      <c r="V72">
-        <v>5</v>
-      </c>
-      <c r="W72">
-        <v>0.93172981231213503</v>
-      </c>
-      <c r="X72">
-        <v>29921</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S73" t="s">
-        <v>5</v>
-      </c>
-      <c r="T73">
-        <v>11</v>
-      </c>
-      <c r="V73">
-        <v>6</v>
-      </c>
-      <c r="W73">
-        <v>0.92858789400588304</v>
-      </c>
-      <c r="X73">
-        <v>29487</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S74" t="s">
-        <v>5</v>
-      </c>
-      <c r="T74">
-        <v>11</v>
-      </c>
-      <c r="V74">
-        <v>7</v>
-      </c>
-      <c r="W74">
-        <v>0.92553953837557601</v>
-      </c>
-      <c r="X74">
-        <v>24690</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S75" t="s">
-        <v>5</v>
-      </c>
-      <c r="T75">
-        <v>11</v>
-      </c>
-      <c r="V75">
-        <v>8</v>
-      </c>
-      <c r="W75">
-        <v>0.92292088473997402</v>
-      </c>
-      <c r="X75">
-        <v>20864</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S76" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76">
-        <v>11</v>
-      </c>
-      <c r="V76">
-        <v>9</v>
-      </c>
-      <c r="W76">
-        <v>0.91739461687301804</v>
-      </c>
-      <c r="X76">
-        <v>20916</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S77" t="s">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>11</v>
-      </c>
-      <c r="V77">
-        <v>10</v>
-      </c>
-      <c r="W77">
-        <v>0.91580706978707105</v>
-      </c>
-      <c r="X77">
-        <v>19396</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S78" t="s">
-        <v>5</v>
-      </c>
-      <c r="T78">
-        <v>11</v>
-      </c>
-      <c r="V78">
-        <v>11</v>
-      </c>
-      <c r="W78">
-        <v>0.91455883339216704</v>
-      </c>
-      <c r="X78">
-        <v>18365</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S79" t="s">
-        <v>5</v>
-      </c>
-      <c r="T79">
-        <v>11</v>
-      </c>
-      <c r="V79">
-        <v>12</v>
-      </c>
-      <c r="W79">
-        <v>0.91407079481873998</v>
-      </c>
-      <c r="X79">
-        <v>17350</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S80" t="s">
-        <v>5</v>
-      </c>
-      <c r="T80">
-        <v>11</v>
-      </c>
-      <c r="V80">
-        <v>13</v>
-      </c>
-      <c r="W80">
-        <v>0.91187643022351295</v>
-      </c>
-      <c r="X80">
-        <v>16348</v>
-      </c>
-    </row>
-    <row r="81" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S81" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81">
-        <v>11</v>
-      </c>
-      <c r="V81">
-        <v>14</v>
-      </c>
-      <c r="W81">
-        <v>0.91065597163509904</v>
-      </c>
-      <c r="X81">
-        <v>15727</v>
-      </c>
-    </row>
-    <row r="82" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S82" t="s">
-        <v>5</v>
-      </c>
-      <c r="T82">
-        <v>11</v>
-      </c>
-      <c r="V82">
-        <v>15</v>
-      </c>
-      <c r="W82">
-        <v>0.90915704208695602</v>
-      </c>
-      <c r="X82">
-        <v>14594</v>
-      </c>
-    </row>
-    <row r="83" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S83" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83">
-        <v>11</v>
-      </c>
-      <c r="V83">
-        <v>16</v>
-      </c>
-      <c r="W83">
-        <v>0.90848651602799102</v>
-      </c>
-      <c r="X83">
-        <v>13985</v>
-      </c>
-    </row>
-    <row r="84" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S84" t="s">
-        <v>5</v>
-      </c>
-      <c r="T84">
-        <v>11</v>
-      </c>
-      <c r="V84">
-        <v>17</v>
-      </c>
-      <c r="W84">
-        <v>0.907540033747394</v>
-      </c>
-      <c r="X84">
-        <v>13427</v>
-      </c>
-    </row>
-    <row r="85" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S85" t="s">
-        <v>5</v>
-      </c>
-      <c r="T85">
-        <v>11</v>
-      </c>
-      <c r="V85">
-        <v>18</v>
-      </c>
-      <c r="W85">
-        <v>0.90617072729498005</v>
-      </c>
-      <c r="X85">
-        <v>13510</v>
-      </c>
-    </row>
-    <row r="86" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S86" t="s">
-        <v>5</v>
-      </c>
-      <c r="T86">
-        <v>11</v>
-      </c>
-      <c r="V86">
-        <v>19</v>
-      </c>
-      <c r="W86">
-        <v>0.90706592035133904</v>
-      </c>
-      <c r="X86">
-        <v>13479</v>
-      </c>
-    </row>
-    <row r="87" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S87" t="s">
-        <v>5</v>
-      </c>
-      <c r="T87">
-        <v>11</v>
-      </c>
-      <c r="V87">
-        <v>20</v>
-      </c>
-      <c r="W87">
-        <v>0.90515400669068002</v>
-      </c>
-      <c r="X87">
-        <v>13660</v>
-      </c>
-    </row>
-    <row r="88" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S88" t="s">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>11</v>
-      </c>
-      <c r="V88">
-        <v>21</v>
-      </c>
-      <c r="W88">
-        <v>0.90439378317525498</v>
-      </c>
-      <c r="X88">
-        <v>12656</v>
-      </c>
-    </row>
-    <row r="89" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S89" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>11</v>
-      </c>
-      <c r="V89">
-        <v>22</v>
-      </c>
-      <c r="W89">
-        <v>0.90463207036924298</v>
-      </c>
-      <c r="X89">
-        <v>12507</v>
-      </c>
-    </row>
-    <row r="90" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S90" t="s">
-        <v>5</v>
-      </c>
-      <c r="T90">
-        <v>11</v>
-      </c>
-      <c r="V90">
-        <v>23</v>
-      </c>
-      <c r="W90">
-        <v>0.90488370407010499</v>
-      </c>
-      <c r="X90">
-        <v>11783</v>
-      </c>
-    </row>
-    <row r="91" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S91" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91">
-        <v>11</v>
-      </c>
-      <c r="V91">
-        <v>24</v>
-      </c>
-      <c r="W91">
-        <v>0.90474902260402101</v>
-      </c>
-      <c r="X91">
-        <v>12266</v>
-      </c>
-    </row>
-    <row r="92" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S92" t="s">
-        <v>5</v>
-      </c>
-      <c r="T92">
-        <v>11</v>
-      </c>
-      <c r="V92">
-        <v>25</v>
-      </c>
-      <c r="W92">
-        <v>0.90398736564696203</v>
-      </c>
-      <c r="X92">
-        <v>10956</v>
-      </c>
-    </row>
-    <row r="93" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S93" t="s">
-        <v>5</v>
-      </c>
-      <c r="T93">
-        <v>11</v>
-      </c>
-      <c r="V93">
-        <v>26</v>
-      </c>
-      <c r="W93">
-        <v>0.90365653154186998</v>
-      </c>
-      <c r="X93">
-        <v>11921</v>
-      </c>
-    </row>
-    <row r="94" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S94" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94">
-        <v>11</v>
-      </c>
-      <c r="V94">
-        <v>27</v>
-      </c>
-      <c r="W94">
-        <v>0.90342968707552096</v>
-      </c>
-      <c r="X94">
-        <v>11009</v>
-      </c>
-    </row>
-    <row r="95" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S95" t="s">
-        <v>5</v>
-      </c>
-      <c r="T95">
-        <v>11</v>
-      </c>
-      <c r="V95">
-        <v>28</v>
-      </c>
-      <c r="W95">
-        <v>0.90342447122732805</v>
-      </c>
-      <c r="X95">
-        <v>10392</v>
-      </c>
-    </row>
-    <row r="96" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S96" t="s">
-        <v>5</v>
-      </c>
-      <c r="T96">
-        <v>11</v>
-      </c>
-      <c r="V96">
-        <v>29</v>
-      </c>
-      <c r="W96">
-        <v>0.90251386985691995</v>
-      </c>
-      <c r="X96">
-        <v>11064</v>
-      </c>
-    </row>
-    <row r="97" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S97" t="s">
-        <v>5</v>
-      </c>
-      <c r="T97">
-        <v>11</v>
-      </c>
-      <c r="V97">
-        <v>30</v>
-      </c>
-      <c r="W97">
-        <v>0.90299179304146704</v>
-      </c>
-      <c r="X97">
-        <v>11343</v>
-      </c>
-    </row>
-    <row r="98" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S98" t="s">
-        <v>5</v>
-      </c>
-      <c r="T98">
-        <v>11</v>
-      </c>
-      <c r="V98">
-        <v>31</v>
-      </c>
-      <c r="W98">
-        <v>0.90181080640133504</v>
-      </c>
-      <c r="X98">
-        <v>9594</v>
-      </c>
-    </row>
-    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S99" t="s">
-        <v>5</v>
-      </c>
-      <c r="T99">
-        <v>11</v>
-      </c>
-      <c r="V99">
-        <v>32</v>
-      </c>
-      <c r="W99">
-        <v>0.90223926205098204</v>
-      </c>
-      <c r="X99">
-        <v>10108</v>
-      </c>
-    </row>
-    <row r="100" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S100" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100">
-        <v>11</v>
-      </c>
-      <c r="V100">
-        <v>33</v>
-      </c>
-      <c r="W100">
-        <v>0.90133297540401902</v>
-      </c>
-      <c r="X100">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="101" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S101" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101">
-        <v>11</v>
-      </c>
-      <c r="V101">
-        <v>34</v>
-      </c>
-      <c r="W101">
-        <v>0.90177440693542099</v>
-      </c>
-      <c r="X101">
-        <v>9641</v>
-      </c>
-    </row>
-    <row r="102" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S102" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102">
-        <v>11</v>
-      </c>
-      <c r="V102">
-        <v>35</v>
-      </c>
-      <c r="W102">
-        <v>0.90156322927777899</v>
-      </c>
-      <c r="X102">
-        <v>8854</v>
-      </c>
-    </row>
-    <row r="103" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S103" t="s">
-        <v>5</v>
-      </c>
-      <c r="T103">
-        <v>11</v>
-      </c>
-      <c r="V103">
-        <v>36</v>
-      </c>
-      <c r="W103">
-        <v>0.90088052988874401</v>
-      </c>
-      <c r="X103">
-        <v>10668</v>
-      </c>
-    </row>
-    <row r="104" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S104" t="s">
-        <v>5</v>
-      </c>
-      <c r="T104">
-        <v>11</v>
-      </c>
-      <c r="V104">
-        <v>37</v>
-      </c>
-      <c r="W104">
-        <v>0.899641004695378</v>
-      </c>
-      <c r="X104">
-        <v>10101</v>
-      </c>
-    </row>
-    <row r="105" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S105" t="s">
-        <v>5</v>
-      </c>
-      <c r="T105">
-        <v>11</v>
-      </c>
-      <c r="V105">
-        <v>38</v>
-      </c>
-      <c r="W105">
-        <v>0.899813711668489</v>
-      </c>
-      <c r="X105">
-        <v>10069</v>
-      </c>
-    </row>
-    <row r="106" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S106" t="s">
-        <v>5</v>
-      </c>
-      <c r="T106">
-        <v>11</v>
-      </c>
-      <c r="V106">
-        <v>39</v>
-      </c>
-      <c r="W106">
-        <v>0.90023909021386705</v>
-      </c>
-      <c r="X106">
-        <v>9562</v>
-      </c>
-    </row>
-    <row r="107" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S107" t="s">
-        <v>5</v>
-      </c>
-      <c r="T107">
-        <v>11</v>
-      </c>
-      <c r="V107">
-        <v>40</v>
-      </c>
-      <c r="W107">
-        <v>0.90004544374649398</v>
-      </c>
-      <c r="X107">
-        <v>9041</v>
-      </c>
-    </row>
-    <row r="108" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S108" t="s">
-        <v>5</v>
-      </c>
-      <c r="T108">
-        <v>11</v>
-      </c>
-      <c r="V108">
-        <v>41</v>
-      </c>
-      <c r="W108">
-        <v>0.90001706781882596</v>
-      </c>
-      <c r="X108">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="109" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S109" t="s">
-        <v>5</v>
-      </c>
-      <c r="T109">
-        <v>11</v>
-      </c>
-      <c r="V109">
-        <v>42</v>
-      </c>
-      <c r="W109">
-        <v>0.90003406937080799</v>
-      </c>
-      <c r="X109">
-        <v>8630</v>
-      </c>
-    </row>
-    <row r="110" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S110" t="s">
-        <v>5</v>
-      </c>
-      <c r="T110">
-        <v>11</v>
-      </c>
-      <c r="V110">
-        <v>43</v>
-      </c>
-      <c r="W110">
-        <v>0.89981267661971198</v>
-      </c>
-      <c r="X110">
-        <v>9287</v>
-      </c>
-    </row>
-    <row r="111" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S111" t="s">
-        <v>5</v>
-      </c>
-      <c r="T111">
-        <v>11</v>
-      </c>
-      <c r="V111">
-        <v>44</v>
-      </c>
-      <c r="W111">
-        <v>0.89911013388044403</v>
-      </c>
-      <c r="X111">
-        <v>9017</v>
-      </c>
-    </row>
-    <row r="112" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S112" t="s">
-        <v>5</v>
-      </c>
-      <c r="T112">
-        <v>11</v>
-      </c>
-      <c r="V112">
-        <v>45</v>
-      </c>
-      <c r="W112">
-        <v>0.89954151755134804</v>
-      </c>
-      <c r="X112">
-        <v>8654</v>
-      </c>
-    </row>
-    <row r="113" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S113" t="s">
-        <v>5</v>
-      </c>
-      <c r="T113">
-        <v>11</v>
-      </c>
-      <c r="V113">
-        <v>46</v>
-      </c>
-      <c r="W113">
-        <v>0.89968856050204005</v>
-      </c>
-      <c r="X113">
-        <v>8143</v>
-      </c>
-    </row>
-    <row r="114" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S114" t="s">
-        <v>5</v>
-      </c>
-      <c r="T114">
-        <v>11</v>
-      </c>
-      <c r="V114">
-        <v>47</v>
-      </c>
-      <c r="W114">
-        <v>0.89971300783616204</v>
-      </c>
-      <c r="X114">
-        <v>8312</v>
-      </c>
-    </row>
-    <row r="115" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S115" t="s">
-        <v>5</v>
-      </c>
-      <c r="T115">
-        <v>11</v>
-      </c>
-      <c r="V115">
-        <v>48</v>
-      </c>
-      <c r="W115">
-        <v>0.89952329637760498</v>
-      </c>
-      <c r="X115">
-        <v>8043</v>
-      </c>
-    </row>
-    <row r="116" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S116" t="s">
-        <v>5</v>
-      </c>
-      <c r="T116">
-        <v>11</v>
-      </c>
-      <c r="V116">
-        <v>49</v>
-      </c>
-      <c r="W116">
-        <v>0.89900659054458198</v>
-      </c>
-      <c r="X116">
-        <v>8266</v>
-      </c>
-    </row>
-    <row r="117" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S117" t="s">
-        <v>5</v>
-      </c>
-      <c r="T117">
-        <v>11</v>
-      </c>
-      <c r="V117">
-        <v>50</v>
-      </c>
-      <c r="W117">
-        <v>0.89800661557464101</v>
-      </c>
-      <c r="X117">
-        <v>8811</v>
-      </c>
-    </row>
-    <row r="118" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S118" t="s">
-        <v>5</v>
-      </c>
-      <c r="T118">
-        <v>11</v>
-      </c>
-      <c r="V118">
-        <v>51</v>
-      </c>
-      <c r="W118">
-        <v>0.89751032737632397</v>
-      </c>
-      <c r="X118">
-        <v>8148</v>
-      </c>
-    </row>
-    <row r="119" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S119" t="s">
-        <v>5</v>
-      </c>
-      <c r="T119">
-        <v>11</v>
-      </c>
-      <c r="V119">
-        <v>52</v>
-      </c>
-      <c r="W119">
-        <v>0.89849531617223399</v>
-      </c>
-      <c r="X119">
-        <v>7666</v>
-      </c>
-    </row>
-    <row r="120" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S120" t="s">
-        <v>5</v>
-      </c>
-      <c r="T120">
-        <v>11</v>
-      </c>
-      <c r="V120">
-        <v>53</v>
-      </c>
-      <c r="W120">
-        <v>0.89799788126355895</v>
-      </c>
-      <c r="X120">
-        <v>7764</v>
-      </c>
-    </row>
-    <row r="121" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S121" t="s">
-        <v>5</v>
-      </c>
-      <c r="T121">
-        <v>11</v>
-      </c>
-      <c r="V121">
-        <v>54</v>
-      </c>
-      <c r="W121">
-        <v>0.89789807137438604</v>
-      </c>
-      <c r="X121">
-        <v>7498</v>
-      </c>
-    </row>
-    <row r="122" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S122" t="s">
-        <v>5</v>
-      </c>
-      <c r="T122">
-        <v>11</v>
-      </c>
-      <c r="V122">
-        <v>55</v>
-      </c>
-      <c r="W122">
-        <v>0.89816426167510799</v>
-      </c>
-      <c r="X122">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="123" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S123" t="s">
-        <v>5</v>
-      </c>
-      <c r="T123">
-        <v>11</v>
-      </c>
-      <c r="V123">
-        <v>56</v>
-      </c>
-      <c r="W123">
-        <v>0.89777052491568399</v>
-      </c>
-      <c r="X123">
-        <v>8505</v>
-      </c>
-    </row>
-    <row r="124" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S124" t="s">
-        <v>5</v>
-      </c>
-      <c r="T124">
-        <v>11</v>
-      </c>
-      <c r="V124">
-        <v>57</v>
-      </c>
-      <c r="W124">
-        <v>0.89749905747902903</v>
-      </c>
-      <c r="X124">
-        <v>8368</v>
-      </c>
-    </row>
-    <row r="125" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S125" t="s">
-        <v>5</v>
-      </c>
-      <c r="T125">
-        <v>11</v>
-      </c>
-      <c r="V125">
-        <v>58</v>
-      </c>
-      <c r="W125">
-        <v>0.89717999720804198</v>
-      </c>
-      <c r="X125">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="126" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S126" t="s">
-        <v>5</v>
-      </c>
-      <c r="T126">
-        <v>11</v>
-      </c>
-      <c r="V126">
-        <v>59</v>
-      </c>
-      <c r="W126">
-        <v>0.897923434471119</v>
-      </c>
-      <c r="X126">
-        <v>8999</v>
-      </c>
-    </row>
-    <row r="127" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S127" t="s">
-        <v>5</v>
-      </c>
-      <c r="T127">
-        <v>11</v>
-      </c>
-      <c r="V127">
-        <v>60</v>
-      </c>
-      <c r="W127">
-        <v>0.89663260028087299</v>
-      </c>
-      <c r="X127">
-        <v>8885</v>
-      </c>
-    </row>
-    <row r="128" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S128" t="s">
-        <v>5</v>
-      </c>
-      <c r="T128">
-        <v>11</v>
-      </c>
-      <c r="V128">
-        <v>61</v>
-      </c>
-      <c r="W128">
-        <v>0.89590671499502805</v>
-      </c>
-      <c r="X128">
-        <v>8702</v>
-      </c>
-    </row>
-    <row r="129" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S129" t="s">
-        <v>5</v>
-      </c>
-      <c r="T129">
-        <v>11</v>
-      </c>
-      <c r="V129">
-        <v>62</v>
-      </c>
-      <c r="W129">
-        <v>0.89630839016425401</v>
-      </c>
-      <c r="X129">
-        <v>7352</v>
-      </c>
-    </row>
-    <row r="130" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S130" t="s">
-        <v>5</v>
-      </c>
-      <c r="T130">
-        <v>11</v>
-      </c>
-      <c r="V130">
-        <v>63</v>
-      </c>
-      <c r="W130">
-        <v>0.89588269543382104</v>
-      </c>
-      <c r="X130">
-        <v>7333</v>
-      </c>
-    </row>
-    <row r="131" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S131" t="s">
-        <v>5</v>
-      </c>
-      <c r="T131">
-        <v>11</v>
-      </c>
-      <c r="V131">
-        <v>64</v>
-      </c>
-      <c r="W131">
-        <v>0.89700302287302203</v>
-      </c>
-      <c r="X131">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="132" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S132" t="s">
-        <v>5</v>
-      </c>
-      <c r="U132">
-        <v>3</v>
-      </c>
-      <c r="V132">
-        <v>1</v>
-      </c>
-      <c r="W132">
-        <v>0.97495615668354096</v>
-      </c>
-      <c r="X132">
-        <v>17636</v>
-      </c>
-    </row>
-    <row r="133" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S133" t="s">
-        <v>5</v>
-      </c>
-      <c r="U133">
-        <v>3</v>
-      </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
-      <c r="W133">
-        <v>0.97296774168732703</v>
-      </c>
-      <c r="X133">
-        <v>9780</v>
-      </c>
-    </row>
-    <row r="134" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S134" t="s">
-        <v>5</v>
-      </c>
-      <c r="U134">
-        <v>3</v>
-      </c>
-      <c r="V134">
-        <v>3</v>
-      </c>
-      <c r="W134">
-        <v>0.97713036082480298</v>
-      </c>
-      <c r="X134">
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="135" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S135" t="s">
-        <v>5</v>
-      </c>
-      <c r="U135">
-        <v>3</v>
-      </c>
-      <c r="V135">
-        <v>4</v>
-      </c>
-      <c r="W135">
-        <v>0.97929572725290703</v>
-      </c>
-      <c r="X135">
-        <v>6366</v>
-      </c>
-    </row>
-    <row r="136" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S136" t="s">
-        <v>5</v>
-      </c>
-      <c r="U136">
-        <v>3</v>
-      </c>
-      <c r="V136">
-        <v>5</v>
-      </c>
-      <c r="W136">
-        <v>0.97377838108449699</v>
-      </c>
-      <c r="X136">
-        <v>6238</v>
-      </c>
-    </row>
-    <row r="137" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S137" t="s">
-        <v>5</v>
-      </c>
-      <c r="U137">
-        <v>3</v>
-      </c>
-      <c r="V137">
-        <v>6</v>
-      </c>
-      <c r="W137">
-        <v>0.97259381318119698</v>
-      </c>
-      <c r="X137">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="138" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S138" t="s">
-        <v>5</v>
-      </c>
-      <c r="U138">
-        <v>3</v>
-      </c>
-      <c r="V138">
-        <v>7</v>
-      </c>
-      <c r="W138">
-        <v>0.97605574566889897</v>
-      </c>
-      <c r="X138">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="139" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S139" t="s">
-        <v>5</v>
-      </c>
-      <c r="U139">
-        <v>3</v>
-      </c>
-      <c r="V139">
-        <v>8</v>
-      </c>
-      <c r="W139">
-        <v>0.97321040535286396</v>
-      </c>
-      <c r="X139">
-        <v>4939</v>
-      </c>
-    </row>
-    <row r="140" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S140" t="s">
-        <v>5</v>
-      </c>
-      <c r="U140">
-        <v>3</v>
-      </c>
-      <c r="V140">
-        <v>9</v>
-      </c>
-      <c r="W140">
-        <v>0.97001467203717895</v>
-      </c>
-      <c r="X140">
-        <v>5342</v>
-      </c>
-    </row>
-    <row r="141" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S141" t="s">
-        <v>5</v>
-      </c>
-      <c r="U141">
-        <v>3</v>
-      </c>
-      <c r="V141">
-        <v>10</v>
-      </c>
-      <c r="W141">
-        <v>0.97090544732707895</v>
-      </c>
-      <c r="X141">
-        <v>5621</v>
-      </c>
-    </row>
-    <row r="142" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S142" t="s">
-        <v>5</v>
-      </c>
-      <c r="U142">
-        <v>3</v>
-      </c>
-      <c r="V142">
-        <v>11</v>
-      </c>
-      <c r="W142">
-        <v>0.968566609922767</v>
-      </c>
-      <c r="X142">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="143" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S143" t="s">
-        <v>5</v>
-      </c>
-      <c r="U143">
-        <v>3</v>
-      </c>
-      <c r="V143">
-        <v>12</v>
-      </c>
-      <c r="W143">
-        <v>0.97032511028027202</v>
-      </c>
-      <c r="X143">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="144" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S144" t="s">
-        <v>5</v>
-      </c>
-      <c r="U144">
-        <v>3</v>
-      </c>
-      <c r="V144">
-        <v>13</v>
-      </c>
-      <c r="W144">
-        <v>0.965725879932257</v>
-      </c>
-      <c r="X144">
-        <v>4593</v>
-      </c>
-    </row>
-    <row r="145" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S145" t="s">
-        <v>5</v>
-      </c>
-      <c r="U145">
-        <v>3</v>
-      </c>
-      <c r="V145">
-        <v>14</v>
-      </c>
-      <c r="W145">
-        <v>0.96748233855430799</v>
-      </c>
-      <c r="X145">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="146" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S146" t="s">
-        <v>5</v>
-      </c>
-      <c r="U146">
-        <v>3</v>
-      </c>
-      <c r="V146">
-        <v>15</v>
-      </c>
-      <c r="W146">
-        <v>0.96366438563356305</v>
-      </c>
-      <c r="X146">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="147" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S147" t="s">
-        <v>5</v>
-      </c>
-      <c r="U147">
-        <v>3</v>
-      </c>
-      <c r="V147">
-        <v>16</v>
-      </c>
-      <c r="W147">
-        <v>0.96489963847507698</v>
-      </c>
-      <c r="X147">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="148" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S148" t="s">
-        <v>5</v>
-      </c>
-      <c r="U148">
-        <v>3</v>
-      </c>
-      <c r="V148">
-        <v>17</v>
-      </c>
-      <c r="W148">
-        <v>0.96339212152977305</v>
-      </c>
-      <c r="X148">
-        <v>3638</v>
-      </c>
-    </row>
-    <row r="149" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S149" t="s">
-        <v>5</v>
-      </c>
-      <c r="U149">
-        <v>3</v>
-      </c>
-      <c r="V149">
-        <v>18</v>
-      </c>
-      <c r="W149">
-        <v>0.96167519682453395</v>
-      </c>
-      <c r="X149">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="150" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S150" t="s">
-        <v>5</v>
-      </c>
-      <c r="U150">
-        <v>3</v>
-      </c>
-      <c r="V150">
-        <v>19</v>
-      </c>
-      <c r="W150">
-        <v>0.96157073440937502</v>
-      </c>
-      <c r="X150">
-        <v>4719</v>
-      </c>
-    </row>
-    <row r="151" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S151" t="s">
-        <v>5</v>
-      </c>
-      <c r="U151">
-        <v>3</v>
-      </c>
-      <c r="V151">
-        <v>20</v>
-      </c>
-      <c r="W151">
-        <v>0.95890325803815701</v>
-      </c>
-      <c r="X151">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="152" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S152" t="s">
-        <v>5</v>
-      </c>
-      <c r="U152">
-        <v>3</v>
-      </c>
-      <c r="V152">
-        <v>21</v>
-      </c>
-      <c r="W152">
-        <v>0.95772632949746495</v>
-      </c>
-      <c r="X152">
-        <v>4083</v>
-      </c>
-    </row>
-    <row r="153" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S153" t="s">
-        <v>5</v>
-      </c>
-      <c r="U153">
-        <v>3</v>
-      </c>
-      <c r="V153">
-        <v>22</v>
-      </c>
-      <c r="W153">
-        <v>0.95626418765274401</v>
-      </c>
-      <c r="X153">
-        <v>4746</v>
-      </c>
-    </row>
-    <row r="154" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S154" t="s">
-        <v>5</v>
-      </c>
-      <c r="U154">
-        <v>3</v>
-      </c>
-      <c r="V154">
-        <v>23</v>
-      </c>
-      <c r="W154">
-        <v>0.95345557933724601</v>
-      </c>
-      <c r="X154">
-        <v>4548</v>
-      </c>
-    </row>
-    <row r="155" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S155" t="s">
-        <v>5</v>
-      </c>
-      <c r="U155">
-        <v>3</v>
-      </c>
-      <c r="V155">
-        <v>24</v>
-      </c>
-      <c r="W155">
-        <v>0.94429946599560199</v>
-      </c>
-      <c r="X155">
-        <v>5214</v>
-      </c>
-    </row>
-    <row r="156" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S156" t="s">
-        <v>5</v>
-      </c>
-      <c r="U156">
-        <v>3</v>
-      </c>
-      <c r="V156">
-        <v>25</v>
-      </c>
-      <c r="W156">
-        <v>0.947702068682168</v>
-      </c>
-      <c r="X156">
-        <v>4608</v>
-      </c>
-    </row>
-    <row r="157" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S157" t="s">
-        <v>5</v>
-      </c>
-      <c r="U157">
-        <v>3</v>
-      </c>
-      <c r="V157">
-        <v>26</v>
-      </c>
-      <c r="W157">
-        <v>0.94618262907834805</v>
-      </c>
-      <c r="X157">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="158" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S158" t="s">
-        <v>5</v>
-      </c>
-      <c r="U158">
-        <v>3</v>
-      </c>
-      <c r="V158">
-        <v>27</v>
-      </c>
-      <c r="W158">
-        <v>0.94544809427697396</v>
-      </c>
-      <c r="X158">
-        <v>4879</v>
-      </c>
-    </row>
-    <row r="159" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S159" t="s">
-        <v>5</v>
-      </c>
-      <c r="U159">
-        <v>3</v>
-      </c>
-      <c r="V159">
-        <v>28</v>
-      </c>
-      <c r="W159">
-        <v>0.942500593377114</v>
-      </c>
-      <c r="X159">
-        <v>8832</v>
-      </c>
-    </row>
-    <row r="160" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S160" t="s">
-        <v>5</v>
-      </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>29</v>
-      </c>
-      <c r="W160">
-        <v>0.94064404814480396</v>
-      </c>
-      <c r="X160">
-        <v>4971</v>
-      </c>
-    </row>
-    <row r="161" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S161" t="s">
-        <v>5</v>
-      </c>
-      <c r="U161">
-        <v>3</v>
-      </c>
-      <c r="V161">
-        <v>30</v>
-      </c>
-      <c r="W161">
-        <v>0.93763239485373495</v>
-      </c>
-      <c r="X161">
-        <v>4829</v>
-      </c>
-    </row>
-    <row r="162" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S162" t="s">
-        <v>5</v>
-      </c>
-      <c r="U162">
-        <v>3</v>
-      </c>
-      <c r="V162">
-        <v>31</v>
-      </c>
-      <c r="W162">
-        <v>0.93777779620533996</v>
-      </c>
-      <c r="X162">
-        <v>5394</v>
-      </c>
-    </row>
-    <row r="163" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S163" t="s">
-        <v>5</v>
-      </c>
-      <c r="U163">
-        <v>3</v>
-      </c>
-      <c r="V163">
-        <v>32</v>
-      </c>
-      <c r="W163">
-        <v>0.93683934143134096</v>
-      </c>
-      <c r="X163">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="164" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S164" t="s">
-        <v>5</v>
-      </c>
-      <c r="U164">
-        <v>3</v>
-      </c>
-      <c r="V164">
-        <v>33</v>
-      </c>
-      <c r="W164">
-        <v>0.93382501736188805</v>
-      </c>
-      <c r="X164">
-        <v>5209</v>
-      </c>
-    </row>
-    <row r="165" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S165" t="s">
-        <v>5</v>
-      </c>
-      <c r="U165">
-        <v>3</v>
-      </c>
-      <c r="V165">
-        <v>34</v>
-      </c>
-      <c r="W165">
-        <v>0.93052956865593195</v>
-      </c>
-      <c r="X165">
-        <v>5835</v>
-      </c>
-    </row>
-    <row r="166" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S166" t="s">
-        <v>5</v>
-      </c>
-      <c r="U166">
-        <v>3</v>
-      </c>
-      <c r="V166">
-        <v>35</v>
-      </c>
-      <c r="W166">
-        <v>0.93067459423031196</v>
-      </c>
-      <c r="X166">
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="167" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S167" t="s">
-        <v>5</v>
-      </c>
-      <c r="U167">
-        <v>3</v>
-      </c>
-      <c r="V167">
-        <v>36</v>
-      </c>
-      <c r="W167">
-        <v>0.92307450492885601</v>
-      </c>
-      <c r="X167">
-        <v>6860</v>
-      </c>
-    </row>
-    <row r="168" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S168" t="s">
-        <v>5</v>
-      </c>
-      <c r="U168">
-        <v>3</v>
-      </c>
-      <c r="V168">
-        <v>37</v>
-      </c>
-      <c r="W168">
-        <v>0.92121184580599702</v>
-      </c>
-      <c r="X168">
-        <v>5905</v>
-      </c>
-    </row>
-    <row r="169" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S169" t="s">
-        <v>5</v>
-      </c>
-      <c r="U169">
-        <v>3</v>
-      </c>
-      <c r="V169">
-        <v>38</v>
-      </c>
-      <c r="W169">
-        <v>0.92288418128690497</v>
-      </c>
-      <c r="X169">
-        <v>6519</v>
-      </c>
-    </row>
-    <row r="170" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S170" t="s">
-        <v>5</v>
-      </c>
-      <c r="U170">
-        <v>3</v>
-      </c>
-      <c r="V170">
-        <v>39</v>
-      </c>
-      <c r="W170">
-        <v>0.91338357278298499</v>
-      </c>
-      <c r="X170">
-        <v>6283</v>
-      </c>
-    </row>
-    <row r="171" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S171" t="s">
-        <v>5</v>
-      </c>
-      <c r="U171">
-        <v>3</v>
-      </c>
-      <c r="V171">
-        <v>40</v>
-      </c>
-      <c r="W171">
-        <v>0.91810342968276004</v>
-      </c>
-      <c r="X171">
-        <v>6619</v>
-      </c>
-    </row>
-    <row r="172" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S172" t="s">
-        <v>5</v>
-      </c>
-      <c r="U172">
-        <v>3</v>
-      </c>
-      <c r="V172">
-        <v>41</v>
-      </c>
-      <c r="W172">
-        <v>0.91007303910972903</v>
-      </c>
-      <c r="X172">
-        <v>5853</v>
-      </c>
-    </row>
-    <row r="173" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S173" t="s">
-        <v>5</v>
-      </c>
-      <c r="U173">
-        <v>3</v>
-      </c>
-      <c r="V173">
-        <v>42</v>
-      </c>
-      <c r="W173">
-        <v>0.91126300823956996</v>
-      </c>
-      <c r="X173">
-        <v>7670</v>
-      </c>
-    </row>
-    <row r="174" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S174" t="s">
-        <v>5</v>
-      </c>
-      <c r="U174">
-        <v>3</v>
-      </c>
-      <c r="V174">
-        <v>43</v>
-      </c>
-      <c r="W174">
-        <v>0.898914982189147</v>
-      </c>
-      <c r="X174">
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="175" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S175" t="s">
-        <v>5</v>
-      </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>44</v>
-      </c>
-      <c r="W175">
-        <v>0.90317839433645897</v>
-      </c>
-      <c r="X175">
-        <v>5393</v>
-      </c>
-    </row>
-    <row r="176" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S176" t="s">
-        <v>5</v>
-      </c>
-      <c r="U176">
-        <v>3</v>
-      </c>
-      <c r="V176">
-        <v>45</v>
-      </c>
-      <c r="W176">
-        <v>0.89957176575430198</v>
-      </c>
-      <c r="X176">
-        <v>6543</v>
-      </c>
-    </row>
-    <row r="177" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S177" t="s">
-        <v>5</v>
-      </c>
-      <c r="U177">
-        <v>3</v>
-      </c>
-      <c r="V177">
-        <v>46</v>
-      </c>
-      <c r="W177">
-        <v>0.89494999226276395</v>
-      </c>
-      <c r="X177">
-        <v>6402</v>
-      </c>
-    </row>
-    <row r="178" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S178" t="s">
-        <v>5</v>
-      </c>
-      <c r="U178">
-        <v>3</v>
-      </c>
-      <c r="V178">
-        <v>47</v>
-      </c>
-      <c r="W178">
-        <v>0.886425173665227</v>
-      </c>
-      <c r="X178">
-        <v>6437</v>
-      </c>
-    </row>
-    <row r="179" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S179" t="s">
-        <v>5</v>
-      </c>
-      <c r="U179">
-        <v>3</v>
-      </c>
-      <c r="V179">
-        <v>48</v>
-      </c>
-      <c r="W179">
-        <v>0.88554282722628097</v>
-      </c>
-      <c r="X179">
-        <v>6298</v>
-      </c>
-    </row>
-    <row r="180" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S180" t="s">
-        <v>5</v>
-      </c>
-      <c r="U180">
-        <v>3</v>
-      </c>
-      <c r="V180">
-        <v>49</v>
-      </c>
-      <c r="W180">
-        <v>0.89612614682706604</v>
-      </c>
-      <c r="X180">
-        <v>6354</v>
-      </c>
-    </row>
-    <row r="181" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S181" t="s">
-        <v>5</v>
-      </c>
-      <c r="U181">
-        <v>3</v>
-      </c>
-      <c r="V181">
-        <v>50</v>
-      </c>
-      <c r="W181">
-        <v>0.87514385750829304</v>
-      </c>
-      <c r="X181">
-        <v>6492</v>
-      </c>
-    </row>
-    <row r="182" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S182" t="s">
-        <v>5</v>
-      </c>
-      <c r="U182">
-        <v>3</v>
-      </c>
-      <c r="V182">
-        <v>51</v>
-      </c>
-      <c r="W182">
-        <v>0.88437561005424903</v>
-      </c>
-      <c r="X182">
-        <v>6042</v>
-      </c>
-    </row>
-    <row r="183" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S183" t="s">
-        <v>5</v>
-      </c>
-      <c r="U183">
-        <v>3</v>
-      </c>
-      <c r="V183">
-        <v>52</v>
-      </c>
-      <c r="W183">
-        <v>0.86566336082135398</v>
-      </c>
-      <c r="X183">
-        <v>6311</v>
-      </c>
-    </row>
-    <row r="184" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S184" t="s">
-        <v>5</v>
-      </c>
-      <c r="U184">
-        <v>3</v>
-      </c>
-      <c r="V184">
-        <v>53</v>
-      </c>
-      <c r="W184">
-        <v>0.87593027640670595</v>
-      </c>
-      <c r="X184">
-        <v>6169</v>
-      </c>
-    </row>
-    <row r="185" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S185" t="s">
-        <v>5</v>
-      </c>
-      <c r="U185">
-        <v>3</v>
-      </c>
-      <c r="V185">
-        <v>54</v>
-      </c>
-      <c r="W185">
-        <v>0.86600664069525901</v>
-      </c>
-      <c r="X185">
-        <v>6030</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F081C32-519D-460B-BBB9-8CFD23ED227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935761B6-A1E4-4550-BE64-B95C0C86C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="16">
   <si>
     <t>Threads</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>entropy-3-diversity</t>
+  </si>
+  <si>
+    <t>0,2-closeness</t>
   </si>
 </sst>
 </file>
@@ -958,6 +961,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1887990751"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1081,6 +1085,904 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>distinct-5-diversity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$AE$2:$AE$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>37197.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25107.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20226.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14261.666666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13379.666666666601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11906.666666666601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9752.6666666666606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9341.6666666666606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9425.6666666666606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8693.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9193.6666666666606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8827.6666666666606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7354.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7967.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7182.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7099.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6528.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6335.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6030.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5991.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5992.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6247.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6475.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6319.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6774.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6206</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5655</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5387.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5123.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5161.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5887.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5816.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5972.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5901.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6269.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5957.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5728.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5225</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5421.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5081.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5500.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5180</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5303.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5272.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6146.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5826.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5887.6666666666597</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5581.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5316.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4902.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5352.3333333333303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1666-40E9-A5A5-2556C3CADD35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$AD$2:$AD$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.92197435079333001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91636939861030597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91650315022140305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91250246851345995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90695481066999595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90281017777084105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89947043338715904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89745180140181902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89338351737795496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88998095058298499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88718126743204495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88435838795724198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.884637502924012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88435279393278299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88438558001646606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88426001868936599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.884413566601437</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.883732980454636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88429120912401205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88368178619514104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884025682484886</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88358901991642802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88364983654670703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88342267774360905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88367139884618895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88363301097758795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88332431416113699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88294200982373205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88284524447726798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88311875647116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88294281840482702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88284845158312897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88248852308096604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88284445321230798</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88247655573505801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88179677934105705</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88255093319516997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88239419089399196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88181437973144905</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88210707270097999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.881765555777557</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88153364203265105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88150166480407799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88175277881894099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88125212184007495</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.881845594676959</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.88176321566120097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88110255525707604</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88116016073761305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.88145527558456005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88119615576996801</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.88101541373184</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.88105617080770204</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.88076350847685503</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.88069310000630596</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.88043396441889099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88025644620931998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.88062751243064796</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.87994369820673002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88008524767584695</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.88030358403258602</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88004851129107597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.87984616544261496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87991887767483801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1666-40E9-A5A5-2556C3CADD35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1887996575"/>
+        <c:axId val="1887990751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024859584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024860000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024859584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887990751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887996575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1887996575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1887990751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>entropy-3-diversity</a:t>
             </a:r>
           </a:p>
@@ -1678,6 +2580,622 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B13-477C-A995-C38B560C0643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1887996575"/>
+        <c:axId val="1887990751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024859584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024860000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024859584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887990751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887996575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1887996575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1887990751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>0,2-closeness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$AU$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$AU$2:$AU$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>190734.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132667.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149966.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358445.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>389751.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>506251.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>709939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>658407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>728229.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>764935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>851173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>948555.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1029964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32C1-4F6A-B4B8-8B687D54045D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$AT$2:$AT$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.61187439095418905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52620248000150804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23030678072010499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.330453047026467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14315061552816599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9648514310787796E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.112549889126285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24581875189976299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18944732436889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25845114927532697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28784470914788401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25951227855952103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.377520336863156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17759418407017299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47055390091822802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41927991995806202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55914821756565902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32C1-4F6A-B4B8-8B687D54045D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5570,9 +7088,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>5-anonymity</a:t>
+              <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>0,2-closeness</a:t>
             </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5616,7 +7139,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$G$1</c:f>
+              <c:f>Local!$AU$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5677,201 +7200,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$G$2:$G$65</c:f>
+              <c:f>Local!$AU$2:$AU$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>151231.33333333299</c:v>
+                  <c:v>1178926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107505.666666666</c:v>
+                  <c:v>742075.66666666605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87475.666666666599</c:v>
+                  <c:v>362884.33333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56757</c:v>
+                  <c:v>201971.66666666599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51121.333333333299</c:v>
+                  <c:v>118161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50341</c:v>
+                  <c:v>109931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41269.333333333299</c:v>
+                  <c:v>98699.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36445.666666666599</c:v>
+                  <c:v>92736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35218</c:v>
+                  <c:v>92391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32404</c:v>
+                  <c:v>77786.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29722</c:v>
+                  <c:v>77559.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32072.333333333299</c:v>
+                  <c:v>70937.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27910</c:v>
+                  <c:v>72983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31872</c:v>
+                  <c:v>65493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24536</c:v>
+                  <c:v>72858.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30208</c:v>
+                  <c:v>63065.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21919.666666666599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30797</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21817.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19932.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19348</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18683</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24898.666666666599</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16959.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16317</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25307.666666666599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15619</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15888.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15901.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15685</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19959</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17763.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15748.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20095</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14494.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14815.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>17950.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14584.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13714.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14490.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14496.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15227</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14429.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14049.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>19079.666666666599</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13842.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16124.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13449.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14141.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13979</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13461.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>15795.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13931.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13072.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13768.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>13759.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12534.333333333299</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13392</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13427.666666666601</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12632</c:v>
+                  <c:v>65804.333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +7261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6681-47C1-8DD7-058B997DBCD8}"/>
+              <c16:uniqueId val="{00000000-A407-4E77-8E95-736D92C0E0B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5904,7 +7286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$F$1</c:f>
+              <c:f>Local!$AT$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5965,201 +7347,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$F$2:$F$65</c:f>
+              <c:f>Local!$AT$2:$AT$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0.85896106970655595</c:v>
+                  <c:v>0.78028847699252901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78775689990208397</c:v>
+                  <c:v>0.69907379023882099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81549914723912897</c:v>
+                  <c:v>0.67450790056020604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.811152837996853</c:v>
+                  <c:v>0.70889332890277001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.807994655720363</c:v>
+                  <c:v>0.719187093507624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80523168641097798</c:v>
+                  <c:v>0.72655189897819195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80321799562220597</c:v>
+                  <c:v>0.71726811098589505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80183302367519005</c:v>
+                  <c:v>0.72263148164120505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79918645161780499</c:v>
+                  <c:v>0.71737429483911996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79685980621313202</c:v>
+                  <c:v>0.72031642170943599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79459458219082901</c:v>
+                  <c:v>0.72773735387205496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79437171221657299</c:v>
+                  <c:v>0.741733730902845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79467658631783</c:v>
+                  <c:v>0.72499929307275601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79449226037689902</c:v>
+                  <c:v>0.751432923697544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79441516302766801</c:v>
+                  <c:v>0.72576287137137097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79442077055896698</c:v>
+                  <c:v>0.72658410966808495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79445721232020705</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.79399815085480496</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.79438642816942295</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.79393926953218197</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.79416004595594003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.79392665629275005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.794043022016791</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.79372902189496797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.79400025022535603</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.79398483247127605</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.79372902108225996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.79347669836332402</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.79339540268664699</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.79347739793606797</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.79351174331294105</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.79354048400247301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.79312695104795605</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.79348441365392197</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.79316271334948396</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79268753689806803</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.79333022359656902</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.79313258051848801</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.79277724796756199</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79290829638121796</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.79283609996298199</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.79250670512557497</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.79261464092706502</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.79262444476439398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.79229713697566395</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.79278356093431601</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.79259573562782304</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.79217448355446496</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.79211562762175103</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.79251721647739404</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.79227331482645802</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.79210721488774904</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.79216677603719299</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.79173576832354797</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.79188502946999295</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.79170981628971004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.79172664392581504</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.79184227568180598</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.79142524618006405</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.79139721785068395</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.791669145333048</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.791545118970293</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.79133487148412496</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.79170417428201101</c:v>
+                  <c:v>0.73974175238497597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +7408,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6681-47C1-8DD7-058B997DBCD8}"/>
+              <c16:uniqueId val="{00000001-A407-4E77-8E95-736D92C0E0B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6469,7 +7710,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>11-anonymity</a:t>
+              <a:t>5-anonymity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6514,7 +7755,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$O$1</c:f>
+              <c:f>Global!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6575,201 +7816,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$O$2:$O$65</c:f>
+              <c:f>Global!$G$2:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>190275.33333333299</c:v>
+                  <c:v>151231.33333333299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123387.33333333299</c:v>
+                  <c:v>107505.666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85340.333333333299</c:v>
+                  <c:v>87475.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58513</c:v>
+                  <c:v>56757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68502.666666666599</c:v>
+                  <c:v>51121.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50686.333333333299</c:v>
+                  <c:v>50341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52897</c:v>
+                  <c:v>41269.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37279.666666666599</c:v>
+                  <c:v>36445.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36728.333333333299</c:v>
+                  <c:v>35218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34873.666666666599</c:v>
+                  <c:v>32404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29958.666666666599</c:v>
+                  <c:v>29722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39030.333333333299</c:v>
+                  <c:v>32072.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26244.666666666599</c:v>
+                  <c:v>27910</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27390.666666666599</c:v>
+                  <c:v>31872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35737</c:v>
+                  <c:v>24536</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27741.666666666599</c:v>
+                  <c:v>30208</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27697.333333333299</c:v>
+                  <c:v>25176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23089</c:v>
+                  <c:v>21919.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30816.333333333299</c:v>
+                  <c:v>30797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21726</c:v>
+                  <c:v>21817.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29058</c:v>
+                  <c:v>19932.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28226.666666666599</c:v>
+                  <c:v>20159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19415</c:v>
+                  <c:v>19348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20457.666666666599</c:v>
+                  <c:v>18782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16802.666666666599</c:v>
+                  <c:v>18683</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17440.666666666599</c:v>
+                  <c:v>24898.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17632.333333333299</c:v>
+                  <c:v>16959.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16277</c:v>
+                  <c:v>16317</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24862.666666666599</c:v>
+                  <c:v>25307.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22120</c:v>
+                  <c:v>15619</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16660.666666666599</c:v>
+                  <c:v>15888.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17984.333333333299</c:v>
+                  <c:v>15901.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15601</c:v>
+                  <c:v>15685</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16004.333333333299</c:v>
+                  <c:v>19959</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17748</c:v>
+                  <c:v>17763.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17727</c:v>
+                  <c:v>15748.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15069.666666666601</c:v>
+                  <c:v>20095</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14235.666666666601</c:v>
+                  <c:v>14494.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19076.666666666599</c:v>
+                  <c:v>14815.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16587.666666666599</c:v>
+                  <c:v>17950.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15232.333333333299</c:v>
+                  <c:v>14584.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13617.666666666601</c:v>
+                  <c:v>13714.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14231</c:v>
+                  <c:v>14490.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14089</c:v>
+                  <c:v>14496.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14676.666666666601</c:v>
+                  <c:v>15227</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14866.666666666601</c:v>
+                  <c:v>14429.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>16543.666666666599</c:v>
+                  <c:v>14049.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13373</c:v>
+                  <c:v>19079.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13697.333333333299</c:v>
+                  <c:v>14642</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13188.666666666601</c:v>
+                  <c:v>13842.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14708.666666666601</c:v>
+                  <c:v>16124.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14010.666666666601</c:v>
+                  <c:v>13449.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17005</c:v>
+                  <c:v>14141.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12764</c:v>
+                  <c:v>13979</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13318</c:v>
+                  <c:v>13461.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14542.333333333299</c:v>
+                  <c:v>15795.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13340.666666666601</c:v>
+                  <c:v>13931.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13466.666666666601</c:v>
+                  <c:v>13072.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14753.666666666601</c:v>
+                  <c:v>13768.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13078</c:v>
+                  <c:v>13759.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13361.333333333299</c:v>
+                  <c:v>12534.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12447.666666666601</c:v>
+                  <c:v>13392</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15249.666666666601</c:v>
+                  <c:v>13427.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13407.666666666601</c:v>
+                  <c:v>12632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6777,7 +8018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31C2-49DD-8FD0-2D0A572226D5}"/>
+              <c16:uniqueId val="{00000000-6681-47C1-8DD7-058B997DBCD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6802,7 +8043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$N$1</c:f>
+              <c:f>Global!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6863,7 +8104,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$N$2:$N$65</c:f>
+              <c:f>Global!$F$2:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -7065,7 +8306,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-31C2-49DD-8FD0-2D0A572226D5}"/>
+              <c16:uniqueId val="{00000001-6681-47C1-8DD7-058B997DBCD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7367,7 +8608,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>distinct-3-diversity</a:t>
+              <a:t>11-anonymity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7412,7 +8653,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$W$1</c:f>
+              <c:f>Global!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7473,201 +8714,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$W$2:$W$65</c:f>
+              <c:f>Global!$O$2:$O$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>29651</c:v>
+                  <c:v>190275.33333333299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21041</c:v>
+                  <c:v>123387.33333333299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17068.333333333299</c:v>
+                  <c:v>85340.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10962.333333333299</c:v>
+                  <c:v>58513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9126.6666666666606</c:v>
+                  <c:v>68502.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9568.3333333333303</c:v>
+                  <c:v>50686.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8373</c:v>
+                  <c:v>52897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6398.3333333333303</c:v>
+                  <c:v>37279.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7097</c:v>
+                  <c:v>36728.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6578.6666666666597</c:v>
+                  <c:v>34873.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6390.3333333333303</c:v>
+                  <c:v>29958.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5793.3333333333303</c:v>
+                  <c:v>39030.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6060</c:v>
+                  <c:v>26244.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5409</c:v>
+                  <c:v>27390.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5217</c:v>
+                  <c:v>35737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6013.3333333333303</c:v>
+                  <c:v>27741.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5120.3333333333303</c:v>
+                  <c:v>27697.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5136.3333333333303</c:v>
+                  <c:v>23089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4635.6666666666597</c:v>
+                  <c:v>30816.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6635</c:v>
+                  <c:v>21726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4718</c:v>
+                  <c:v>29058</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4264.3333333333303</c:v>
+                  <c:v>28226.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4229</c:v>
+                  <c:v>19415</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4131</c:v>
+                  <c:v>20457.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3921.3333333333298</c:v>
+                  <c:v>16802.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4007</c:v>
+                  <c:v>17440.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3478</c:v>
+                  <c:v>17632.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3468.6666666666601</c:v>
+                  <c:v>16277</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3565.6666666666601</c:v>
+                  <c:v>24862.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3825.6666666666601</c:v>
+                  <c:v>22120</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3766.6666666666601</c:v>
+                  <c:v>16660.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3745.3333333333298</c:v>
+                  <c:v>17984.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3534</c:v>
+                  <c:v>15601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4107</c:v>
+                  <c:v>16004.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3686.3333333333298</c:v>
+                  <c:v>17748</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3674.3333333333298</c:v>
+                  <c:v>17727</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3390.6666666666601</c:v>
+                  <c:v>15069.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3280.6666666666601</c:v>
+                  <c:v>14235.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3839</c:v>
+                  <c:v>19076.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3344.3333333333298</c:v>
+                  <c:v>16587.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3492.6666666666601</c:v>
+                  <c:v>15232.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3603</c:v>
+                  <c:v>13617.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3255.3333333333298</c:v>
+                  <c:v>14231</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3739.6666666666601</c:v>
+                  <c:v>14089</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3680</c:v>
+                  <c:v>14676.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3780.6666666666601</c:v>
+                  <c:v>14866.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3683.3333333333298</c:v>
+                  <c:v>16543.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3442</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3594.3333333333298</c:v>
+                  <c:v>13697.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3173</c:v>
+                  <c:v>13188.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3518.6666666666601</c:v>
+                  <c:v>14708.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3438.3333333333298</c:v>
+                  <c:v>14010.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3178.3333333333298</c:v>
+                  <c:v>17005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2888.6666666666601</c:v>
+                  <c:v>12764</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2951.6666666666601</c:v>
+                  <c:v>13318</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3215.6666666666601</c:v>
+                  <c:v>14542.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3193</c:v>
+                  <c:v>13340.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3162.6666666666601</c:v>
+                  <c:v>13466.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3687.6666666666601</c:v>
+                  <c:v>14753.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3508.6666666666601</c:v>
+                  <c:v>13078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3473</c:v>
+                  <c:v>13361.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3354.6666666666601</c:v>
+                  <c:v>12447.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2955.6666666666601</c:v>
+                  <c:v>15249.666666666601</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3235.6666666666601</c:v>
+                  <c:v>13407.666666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7675,7 +8916,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79A8-475C-BEBA-DCB0897FB300}"/>
+              <c16:uniqueId val="{00000000-31C2-49DD-8FD0-2D0A572226D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7700,7 +8941,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$V$1</c:f>
+              <c:f>Global!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7761,201 +9002,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$V$2:$V$65</c:f>
+              <c:f>Global!$N$2:$N$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0.94505532531613401</c:v>
+                  <c:v>0.85896106970655595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93713006599936299</c:v>
+                  <c:v>0.78775689990208397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93884095100064702</c:v>
+                  <c:v>0.81549914723912897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93587118818777904</c:v>
+                  <c:v>0.811152837996853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93175940094816601</c:v>
+                  <c:v>0.807994655720363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.926786411941941</c:v>
+                  <c:v>0.80523168641097798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92520601581380302</c:v>
+                  <c:v>0.80321799562220597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92405989829693902</c:v>
+                  <c:v>0.80183302367519005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92192673345559795</c:v>
+                  <c:v>0.79918645161780499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91978322715924099</c:v>
+                  <c:v>0.79685980621313202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91915971335396096</c:v>
+                  <c:v>0.79459458219082901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.918924589264692</c:v>
+                  <c:v>0.79437171221657299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91919090622507005</c:v>
+                  <c:v>0.79467658631783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91900936421785595</c:v>
+                  <c:v>0.79449226037689902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91902935524234097</c:v>
+                  <c:v>0.79441516302766801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91893418495531998</c:v>
+                  <c:v>0.79442077055896698</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91899896380217305</c:v>
+                  <c:v>0.79445721232020705</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91859269051724701</c:v>
+                  <c:v>0.79399815085480496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91888779918072805</c:v>
+                  <c:v>0.79438642816942295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91850950941361398</c:v>
+                  <c:v>0.79393926953218197</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91876463441325196</c:v>
+                  <c:v>0.79416004595594003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91855509887751496</c:v>
+                  <c:v>0.79392665629275005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91857910770066697</c:v>
+                  <c:v>0.794043022016791</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91831517594555001</c:v>
+                  <c:v>0.79372902189496797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91862947626521096</c:v>
+                  <c:v>0.79400025022535603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91854870317336001</c:v>
+                  <c:v>0.79398483247127605</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91841274707013998</c:v>
+                  <c:v>0.79372902108225996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91812882788806705</c:v>
+                  <c:v>0.79347669836332402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91809123754384003</c:v>
+                  <c:v>0.79339540268664699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91823199207219397</c:v>
+                  <c:v>0.79347739793606797</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91819760806474804</c:v>
+                  <c:v>0.79351174331294105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.918157623108254</c:v>
+                  <c:v>0.79354048400247301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.91793367232627099</c:v>
+                  <c:v>0.79312695104795605</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91812163486189602</c:v>
+                  <c:v>0.79348441365392197</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91797527522832101</c:v>
+                  <c:v>0.79316271334948396</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91739226037852195</c:v>
+                  <c:v>0.79268753689806803</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.91792809114866902</c:v>
+                  <c:v>0.79333022359656902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91769696438123605</c:v>
+                  <c:v>0.79313258051848801</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.91757700329656799</c:v>
+                  <c:v>0.79277724796756199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.91752901178678303</c:v>
+                  <c:v>0.79290829638121796</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.91757698842289304</c:v>
+                  <c:v>0.79283609996298199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91727869355542502</c:v>
+                  <c:v>0.79250670512557497</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.91735147013421203</c:v>
+                  <c:v>0.79261464092706502</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.91739865115723895</c:v>
+                  <c:v>0.79262444476439398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.91719870533268399</c:v>
+                  <c:v>0.79229713697566395</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.91733548478628202</c:v>
+                  <c:v>0.79278356093431601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.91721872305285201</c:v>
+                  <c:v>0.79259573562782304</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.91698516902697902</c:v>
+                  <c:v>0.79217448355446496</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.91707955280263198</c:v>
+                  <c:v>0.79211562762175103</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.91728908838038303</c:v>
+                  <c:v>0.79251721647739404</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.917089947394643</c:v>
+                  <c:v>0.79227331482645802</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91691320474149396</c:v>
+                  <c:v>0.79210721488774904</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.91700276812808701</c:v>
+                  <c:v>0.79216677603719299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.91672846806554598</c:v>
+                  <c:v>0.79173576832354797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.91674125258074002</c:v>
+                  <c:v>0.79188502946999295</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.916488533086108</c:v>
+                  <c:v>0.79170981628971004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.91648293555468696</c:v>
+                  <c:v>0.79172664392581504</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.91658049074438797</c:v>
+                  <c:v>0.79184227568180598</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.91641893210534897</c:v>
+                  <c:v>0.79142524618006405</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.91633015548401198</c:v>
+                  <c:v>0.79139721785068395</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.91657888261350495</c:v>
+                  <c:v>0.791669145333048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.91646774085371396</c:v>
+                  <c:v>0.791545118970293</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.91628540086482002</c:v>
+                  <c:v>0.79133487148412496</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.91658847386461795</c:v>
+                  <c:v>0.79170417428201101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7963,7 +9204,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-79A8-475C-BEBA-DCB0897FB300}"/>
+              <c16:uniqueId val="{00000001-31C2-49DD-8FD0-2D0A572226D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8265,7 +9506,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>distinct-5-diversity</a:t>
+              <a:t>distinct-3-diversity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8310,7 +9551,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$AE$1</c:f>
+              <c:f>Global!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8371,201 +9612,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$AE$2:$AE$65</c:f>
+              <c:f>Global!$W$2:$W$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>37197.666666666599</c:v>
+                  <c:v>29651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25107.333333333299</c:v>
+                  <c:v>21041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20226.333333333299</c:v>
+                  <c:v>17068.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14261.666666666601</c:v>
+                  <c:v>10962.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13626</c:v>
+                  <c:v>9126.6666666666606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13379.666666666601</c:v>
+                  <c:v>9568.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11906.666666666601</c:v>
+                  <c:v>8373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10125</c:v>
+                  <c:v>6398.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10932</c:v>
+                  <c:v>7097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9752.6666666666606</c:v>
+                  <c:v>6578.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9341.6666666666606</c:v>
+                  <c:v>6390.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9425.6666666666606</c:v>
+                  <c:v>5793.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8828</c:v>
+                  <c:v>6060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8693.3333333333303</c:v>
+                  <c:v>5409</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9193.6666666666606</c:v>
+                  <c:v>5217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7946</c:v>
+                  <c:v>6013.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8827.6666666666606</c:v>
+                  <c:v>5120.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7963</c:v>
+                  <c:v>5136.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7354.6666666666597</c:v>
+                  <c:v>4635.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7967.3333333333303</c:v>
+                  <c:v>6635</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6936</c:v>
+                  <c:v>4718</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7182.3333333333303</c:v>
+                  <c:v>4264.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7099.6666666666597</c:v>
+                  <c:v>4229</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6528.6666666666597</c:v>
+                  <c:v>4131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6335.6666666666597</c:v>
+                  <c:v>3921.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6023</c:v>
+                  <c:v>4007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5733</c:v>
+                  <c:v>3478</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6030.6666666666597</c:v>
+                  <c:v>3468.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5991.3333333333303</c:v>
+                  <c:v>3565.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5992.6666666666597</c:v>
+                  <c:v>3825.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6247.6666666666597</c:v>
+                  <c:v>3766.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6475.3333333333303</c:v>
+                  <c:v>3745.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6656</c:v>
+                  <c:v>3534</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6319.3333333333303</c:v>
+                  <c:v>4107</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6774.3333333333303</c:v>
+                  <c:v>3686.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6206</c:v>
+                  <c:v>3674.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6110</c:v>
+                  <c:v>3390.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5655</c:v>
+                  <c:v>3280.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5387.3333333333303</c:v>
+                  <c:v>3839</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5123.6666666666597</c:v>
+                  <c:v>3344.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5161.3333333333303</c:v>
+                  <c:v>3492.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5118</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5887.6666666666597</c:v>
+                  <c:v>3255.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5816.3333333333303</c:v>
+                  <c:v>3739.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5972.6666666666597</c:v>
+                  <c:v>3680</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5901.3333333333303</c:v>
+                  <c:v>3780.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6269.6666666666597</c:v>
+                  <c:v>3683.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5957.6666666666597</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5728.6666666666597</c:v>
+                  <c:v>3594.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5225</c:v>
+                  <c:v>3173</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5421.6666666666597</c:v>
+                  <c:v>3518.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5081.3333333333303</c:v>
+                  <c:v>3438.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5500.6666666666597</c:v>
+                  <c:v>3178.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5180</c:v>
+                  <c:v>2888.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4917</c:v>
+                  <c:v>2951.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5303.3333333333303</c:v>
+                  <c:v>3215.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5272.3333333333303</c:v>
+                  <c:v>3193</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6146.3333333333303</c:v>
+                  <c:v>3162.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5826.3333333333303</c:v>
+                  <c:v>3687.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5887.6666666666597</c:v>
+                  <c:v>3508.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5581.3333333333303</c:v>
+                  <c:v>3473</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5316.3333333333303</c:v>
+                  <c:v>3354.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4902.3333333333303</c:v>
+                  <c:v>2955.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5352.3333333333303</c:v>
+                  <c:v>3235.6666666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8573,7 +9814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1666-40E9-A5A5-2556C3CADD35}"/>
+              <c16:uniqueId val="{00000000-79A8-475C-BEBA-DCB0897FB300}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8598,7 +9839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Global!$AD$1</c:f>
+              <c:f>Global!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8659,201 +9900,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Global!$AD$2:$AD$65</c:f>
+              <c:f>Global!$V$2:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0.92197435079333001</c:v>
+                  <c:v>0.94505532531613401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91636939861030597</c:v>
+                  <c:v>0.93713006599936299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91650315022140305</c:v>
+                  <c:v>0.93884095100064702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91250246851345995</c:v>
+                  <c:v>0.93587118818777904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90695481066999595</c:v>
+                  <c:v>0.93175940094816601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90281017777084105</c:v>
+                  <c:v>0.926786411941941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89947043338715904</c:v>
+                  <c:v>0.92520601581380302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89745180140181902</c:v>
+                  <c:v>0.92405989829693902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89338351737795496</c:v>
+                  <c:v>0.92192673345559795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88998095058298499</c:v>
+                  <c:v>0.91978322715924099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88718126743204495</c:v>
+                  <c:v>0.91915971335396096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88435838795724198</c:v>
+                  <c:v>0.918924589264692</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.884637502924012</c:v>
+                  <c:v>0.91919090622507005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88435279393278299</c:v>
+                  <c:v>0.91900936421785595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88438558001646606</c:v>
+                  <c:v>0.91902935524234097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88426001868936599</c:v>
+                  <c:v>0.91893418495531998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.884413566601437</c:v>
+                  <c:v>0.91899896380217305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.883732980454636</c:v>
+                  <c:v>0.91859269051724701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88429120912401205</c:v>
+                  <c:v>0.91888779918072805</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88368178619514104</c:v>
+                  <c:v>0.91850950941361398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.884025682484886</c:v>
+                  <c:v>0.91876463441325196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88358901991642802</c:v>
+                  <c:v>0.91855509887751496</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88364983654670703</c:v>
+                  <c:v>0.91857910770066697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88342267774360905</c:v>
+                  <c:v>0.91831517594555001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88367139884618895</c:v>
+                  <c:v>0.91862947626521096</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88363301097758795</c:v>
+                  <c:v>0.91854870317336001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88332431416113699</c:v>
+                  <c:v>0.91841274707013998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.88294200982373205</c:v>
+                  <c:v>0.91812882788806705</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88284524447726798</c:v>
+                  <c:v>0.91809123754384003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88311875647116</c:v>
+                  <c:v>0.91823199207219397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88294281840482702</c:v>
+                  <c:v>0.91819760806474804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.88284845158312897</c:v>
+                  <c:v>0.918157623108254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.88248852308096604</c:v>
+                  <c:v>0.91793367232627099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.88284445321230798</c:v>
+                  <c:v>0.91812163486189602</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88247655573505801</c:v>
+                  <c:v>0.91797527522832101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.88179677934105705</c:v>
+                  <c:v>0.91739226037852195</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.88255093319516997</c:v>
+                  <c:v>0.91792809114866902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.88239419089399196</c:v>
+                  <c:v>0.91769696438123605</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.88181437973144905</c:v>
+                  <c:v>0.91757700329656799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.88210707270097999</c:v>
+                  <c:v>0.91752901178678303</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.881765555777557</c:v>
+                  <c:v>0.91757698842289304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.88153364203265105</c:v>
+                  <c:v>0.91727869355542502</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.88150166480407799</c:v>
+                  <c:v>0.91735147013421203</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.88175277881894099</c:v>
+                  <c:v>0.91739865115723895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.88125212184007495</c:v>
+                  <c:v>0.91719870533268399</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.881845594676959</c:v>
+                  <c:v>0.91733548478628202</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.88176321566120097</c:v>
+                  <c:v>0.91721872305285201</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.88110255525707604</c:v>
+                  <c:v>0.91698516902697902</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.88116016073761305</c:v>
+                  <c:v>0.91707955280263198</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.88145527558456005</c:v>
+                  <c:v>0.91728908838038303</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.88119615576996801</c:v>
+                  <c:v>0.917089947394643</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.88101541373184</c:v>
+                  <c:v>0.91691320474149396</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88105617080770204</c:v>
+                  <c:v>0.91700276812808701</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.88076350847685503</c:v>
+                  <c:v>0.91672846806554598</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.88069310000630596</c:v>
+                  <c:v>0.91674125258074002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.88043396441889099</c:v>
+                  <c:v>0.916488533086108</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.88025644620931998</c:v>
+                  <c:v>0.91648293555468696</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.88062751243064796</c:v>
+                  <c:v>0.91658049074438797</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.87994369820673002</c:v>
+                  <c:v>0.91641893210534897</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.88008524767584695</c:v>
+                  <c:v>0.91633015548401198</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.88030358403258602</c:v>
+                  <c:v>0.91657888261350495</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.88004851129107597</c:v>
+                  <c:v>0.91646774085371396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.87984616544261496</c:v>
+                  <c:v>0.91628540086482002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.87991887767483801</c:v>
+                  <c:v>0.91658847386461795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8861,7 +10102,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1666-40E9-A5A5-2556C3CADD35}"/>
+              <c16:uniqueId val="{00000001-79A8-475C-BEBA-DCB0897FB300}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9169,6 +10410,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10574,6 +11895,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
@@ -14950,6 +17317,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD1DE78-7EEA-4787-A3A6-25B0A4E2C7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15140,6 +17545,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1A0D72-DE93-4AAD-8C62-DC7BF7B48539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15445,15 +17888,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8959742-C5B8-4D5E-8EB1-1E24848E00F5}">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -15559,8 +18002,29 @@
       <c r="AM1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -15666,8 +18130,29 @@
       <c r="AM2" s="1">
         <v>83206.666666666599</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.78028847699252901</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1178926</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15773,8 +18258,29 @@
       <c r="AM3" s="1">
         <v>65056.333333333299</v>
       </c>
+      <c r="AO3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0.69907379023882099</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>742075.66666666605</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -15880,8 +18386,29 @@
       <c r="AM4" s="1">
         <v>47380.333333333299</v>
       </c>
+      <c r="AO4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.67450790056020604</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>362884.33333333302</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -15987,8 +18514,29 @@
       <c r="AM5" s="1">
         <v>40048.666666666599</v>
       </c>
+      <c r="AO5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.70889332890277001</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>201971.66666666599</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -16094,8 +18642,29 @@
       <c r="AM6" s="1">
         <v>31969</v>
       </c>
+      <c r="AO6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.719187093507624</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>118161</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -16201,8 +18770,29 @@
       <c r="AM7" s="1">
         <v>31421.333333333299</v>
       </c>
+      <c r="AO7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0.72655189897819195</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>109931</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16308,8 +18898,29 @@
       <c r="AM8" s="1">
         <v>30799.333333333299</v>
       </c>
+      <c r="AO8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0.71726811098589505</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>98699.333333333299</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -16415,8 +19026,29 @@
       <c r="AM9" s="1">
         <v>26736.666666666599</v>
       </c>
+      <c r="AO9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0.72263148164120505</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>92736</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -16522,8 +19154,29 @@
       <c r="AM10" s="1">
         <v>24959.666666666599</v>
       </c>
+      <c r="AO10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0.71737429483911996</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>92391</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -16629,8 +19282,29 @@
       <c r="AM11" s="1">
         <v>23231</v>
       </c>
+      <c r="AO11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0.72031642170943599</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>77786.333333333299</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -16736,8 +19410,29 @@
       <c r="AM12" s="1">
         <v>23198.333333333299</v>
       </c>
+      <c r="AO12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0.72773735387205496</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>77559.666666666599</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -16843,8 +19538,29 @@
       <c r="AM13" s="1">
         <v>22089.666666666599</v>
       </c>
+      <c r="AO13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0.741733730902845</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>70937.666666666599</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -16950,8 +19666,29 @@
       <c r="AM14" s="1">
         <v>21129</v>
       </c>
+      <c r="AO14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0.72499929307275601</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>72983</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -17057,8 +19794,29 @@
       <c r="AM15" s="1">
         <v>20256</v>
       </c>
+      <c r="AO15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0.751432923697544</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>65493</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -17164,8 +19922,29 @@
       <c r="AM16" s="1">
         <v>19228</v>
       </c>
+      <c r="AO16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0.72576287137137097</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>72858.666666666599</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -17271,8 +20050,29 @@
       <c r="AM17" s="1">
         <v>20620.333333333299</v>
       </c>
+      <c r="AO17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0.72658410966808495</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>63065.666666666599</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -17378,8 +20178,29 @@
       <c r="AM18" s="1">
         <v>19438.666666666599</v>
       </c>
+      <c r="AO18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0.73974175238497597</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>65804.333333333299</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -17486,7 +20307,7 @@
         <v>19613.666666666599</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -17593,7 +20414,7 @@
         <v>18811.333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -17700,7 +20521,7 @@
         <v>18306</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -17807,7 +20628,7 @@
         <v>17125.666666666599</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -17914,7 +20735,7 @@
         <v>17181.666666666599</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -18021,7 +20842,7 @@
         <v>16819</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -18128,7 +20949,7 @@
         <v>16308</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -18235,7 +21056,7 @@
         <v>16077.666666666601</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -18342,7 +21163,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -18449,7 +21270,7 @@
         <v>15543.333333333299</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -18556,7 +21377,7 @@
         <v>15598.666666666601</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -18663,7 +21484,7 @@
         <v>14917</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -18770,7 +21591,7 @@
         <v>15114</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -22409,8 +25230,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G321">
-    <sortCondition ref="C2:C321"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO2:AU35">
+    <sortCondition ref="AQ2:AQ35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22419,15 +25240,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08F581-ECA6-40F4-AA0A-73D637039F72}">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="AB2" workbookViewId="0">
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -22533,8 +25354,29 @@
       <c r="AM1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -22640,8 +25482,29 @@
       <c r="AM2" s="1">
         <v>46008.333333333299</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.61187439095418905</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>190734.66666666599</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -22747,8 +25610,29 @@
       <c r="AM3" s="1">
         <v>39101.666666666599</v>
       </c>
+      <c r="AO3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0.52620248000150804</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>132667.66666666599</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -22854,8 +25738,29 @@
       <c r="AM4" s="1">
         <v>30222</v>
       </c>
+      <c r="AO4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.23030678072010499</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>149966.33333333299</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -22961,8 +25866,29 @@
       <c r="AM5" s="1">
         <v>22484.666666666599</v>
       </c>
+      <c r="AO5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.330453047026467</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>184777</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -23068,8 +25994,29 @@
       <c r="AM6" s="1">
         <v>20690.666666666599</v>
       </c>
+      <c r="AO6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.14315061552816599</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>209982</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -23175,8 +26122,29 @@
       <c r="AM7" s="1">
         <v>21375.666666666599</v>
       </c>
+      <c r="AO7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>4.9648514310787796E-3</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>362043</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -23282,8 +26250,29 @@
       <c r="AM8" s="1">
         <v>19112</v>
       </c>
+      <c r="AO8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0.112549889126285</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>358445.66666666599</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -23389,8 +26378,29 @@
       <c r="AM9" s="1">
         <v>18909</v>
       </c>
+      <c r="AO9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0.24581875189976299</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>389751.66666666599</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -23496,8 +26506,29 @@
       <c r="AM10" s="1">
         <v>17688.666666666599</v>
       </c>
+      <c r="AO10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0.18944732436889</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>506251.66666666599</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -23603,8 +26634,29 @@
       <c r="AM11" s="1">
         <v>16991.333333333299</v>
       </c>
+      <c r="AO11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0.25845114927532697</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>709939</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -23710,8 +26762,29 @@
       <c r="AM12" s="1">
         <v>16051</v>
       </c>
+      <c r="AO12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0.28784470914788401</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>544606</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -23817,8 +26890,29 @@
       <c r="AM13" s="1">
         <v>16746.333333333299</v>
       </c>
+      <c r="AO13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0.25951227855952103</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>658407</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -23924,8 +27018,29 @@
       <c r="AM14" s="1">
         <v>16173.666666666601</v>
       </c>
+      <c r="AO14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0.377520336863156</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>728229.33333333302</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -24031,8 +27146,29 @@
       <c r="AM15" s="1">
         <v>16304</v>
       </c>
+      <c r="AO15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0.17759418407017299</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>764935</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -24138,8 +27274,29 @@
       <c r="AM16" s="1">
         <v>15636.666666666601</v>
       </c>
+      <c r="AO16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0.47055390091822802</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>851173</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -24245,8 +27402,29 @@
       <c r="AM17" s="1">
         <v>15077.333333333299</v>
       </c>
+      <c r="AO17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0.41927991995806202</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>948555.66666666605</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -24352,8 +27530,29 @@
       <c r="AM18" s="1">
         <v>15280.333333333299</v>
       </c>
+      <c r="AO18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0.55914821756565902</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>1029964</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -24460,7 +27659,7 @@
         <v>15419</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -24567,7 +27766,7 @@
         <v>14877.333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -24674,7 +27873,7 @@
         <v>14973.333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -24781,7 +27980,7 @@
         <v>14446.666666666601</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -24888,7 +28087,7 @@
         <v>14718.333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -24995,7 +28194,7 @@
         <v>14353.333333333299</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -25102,7 +28301,7 @@
         <v>13564</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -25209,7 +28408,7 @@
         <v>13187.333333333299</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -25316,7 +28515,7 @@
         <v>13640</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -25423,7 +28622,7 @@
         <v>12941.666666666601</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -25530,7 +28729,7 @@
         <v>13204.333333333299</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -25637,7 +28836,7 @@
         <v>13253</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -25744,7 +28943,7 @@
         <v>13017</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935761B6-A1E4-4550-BE64-B95C0C86C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75705620-58AA-4B3E-8161-4EFDA141F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="16">
   <si>
     <t>Threads</t>
   </si>
@@ -2992,55 +2992,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>190734.66666666599</c:v>
+                  <c:v>192046.66666666599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132667.66666666599</c:v>
+                  <c:v>114489.666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149966.33333333299</c:v>
+                  <c:v>88976.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184777</c:v>
+                  <c:v>63864.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>209982</c:v>
+                  <c:v>58267.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>362043</c:v>
+                  <c:v>56068.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>358445.66666666599</c:v>
+                  <c:v>47305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>389751.66666666599</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>506251.66666666599</c:v>
+                  <c:v>43037.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>709939</c:v>
+                  <c:v>37131.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>544606</c:v>
+                  <c:v>40721.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>658407</c:v>
+                  <c:v>34849.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>728229.33333333302</c:v>
+                  <c:v>34436</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>764935</c:v>
+                  <c:v>32231.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>851173</c:v>
+                  <c:v>30612</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>948555.66666666605</c:v>
+                  <c:v>29371.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1029964</c:v>
+                  <c:v>31166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27932.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28812</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25717.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24057.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23868.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24441.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25070.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22402.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23230.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22786</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22759</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21625.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21660</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21614.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21685.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21335.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22369.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21209.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22010.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22633</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21877.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22420.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21137</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22217.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21173</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21470.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21370.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20697</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19746.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19700.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19590</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20940</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20911.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20758.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21370.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,52 +3283,193 @@
                   <c:v>0.61187439095418905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52620248000150804</c:v>
+                  <c:v>0.60854038154968204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23030678072010499</c:v>
+                  <c:v>0.61041203802961397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.330453047026467</c:v>
+                  <c:v>0.60924637030018702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14315061552816599</c:v>
+                  <c:v>0.60588951984490602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9648514310787796E-3</c:v>
+                  <c:v>0.60714314003941905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.112549889126285</c:v>
+                  <c:v>0.60463179195397498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24581875189976299</c:v>
+                  <c:v>0.60260947476864202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18944732436889</c:v>
+                  <c:v>0.60099057115413701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25845114927532697</c:v>
+                  <c:v>0.59834378110045405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28784470914788401</c:v>
+                  <c:v>0.59717575288616997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25951227855952103</c:v>
+                  <c:v>0.59861936772322599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.377520336863156</c:v>
+                  <c:v>0.59479588014662099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17759418407017299</c:v>
+                  <c:v>0.592603657969209</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47055390091822802</c:v>
+                  <c:v>0.59264381675580702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41927991995806202</c:v>
+                  <c:v>0.594499328147718</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55914821756565902</c:v>
+                  <c:v>0.58901786190633798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58242811546316098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59247131417906496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58526607142065001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58810512504533696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57982354134870295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58615159350176405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58752150956340998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58712634089008597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58273117601556901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58565298084321804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57587619587375904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57152546013072503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57695786891979794</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57702819599916699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57716107880888601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56805182314800096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57531619365402897</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57717236460439203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56120451629982804</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.56605214372857504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.575066311103409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57177996612426696</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56798394221127002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56483296361257296</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56548330612312803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56144612001298999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54946162643415897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.554689195209212</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56649526632702196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56661113783343897</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.56864131412220198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56046976511621205</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56302404831169905</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.55456462072710999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54962841145160901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55439031724874399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55713552217173401</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54188786686422297</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55163107502490005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55112872172329197</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55115080079850098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54988125866013504</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55155255477481302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.559205633812628</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56026594314566602</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.54199418102663299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55800415371576895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7205,55 +7487,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1178926</c:v>
+                  <c:v>1188993.66666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>742075.66666666605</c:v>
+                  <c:v>785456.33333333302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362884.33333333302</c:v>
+                  <c:v>394316.33333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201971.66666666599</c:v>
+                  <c:v>254825.66666666599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118161</c:v>
+                  <c:v>160159.33333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109931</c:v>
+                  <c:v>114231.666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98699.333333333299</c:v>
+                  <c:v>108437.666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92736</c:v>
+                  <c:v>100717.666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92391</c:v>
+                  <c:v>95013.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77786.333333333299</c:v>
+                  <c:v>94804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77559.666666666599</c:v>
+                  <c:v>86429.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70937.666666666599</c:v>
+                  <c:v>81268.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72983</c:v>
+                  <c:v>72913.333333333299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65493</c:v>
+                  <c:v>72605.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72858.666666666599</c:v>
+                  <c:v>75237.666666666599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63065.666666666599</c:v>
+                  <c:v>65177</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65804.333333333299</c:v>
+                  <c:v>72972.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65349.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60229.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61423</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54656.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53274.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50442.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59582</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60244</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60443.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50133</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46617.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53457.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46892</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50456.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47797.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60795</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47762</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44468.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50719.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51360.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48350</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48711.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46891.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43884.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47549</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47593.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45334.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44405.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43806.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45708.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39797.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47215.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42146.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40239.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39600.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44383.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47322</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42003.333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7355,52 +7778,193 @@
                   <c:v>0.78028847699252901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69907379023882099</c:v>
+                  <c:v>0.69717668091696805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67450790056020604</c:v>
+                  <c:v>0.65935622938369798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70889332890277001</c:v>
+                  <c:v>0.67259016827031104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.719187093507624</c:v>
+                  <c:v>0.65462251765589097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72655189897819195</c:v>
+                  <c:v>0.632564177599514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71726811098589505</c:v>
+                  <c:v>0.63631840709599097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72263148164120505</c:v>
+                  <c:v>0.63365126039967601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71737429483911996</c:v>
+                  <c:v>0.63214370317234803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72031642170943599</c:v>
+                  <c:v>0.63520541470290803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72773735387205496</c:v>
+                  <c:v>0.63175056613397595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.741733730902845</c:v>
+                  <c:v>0.62690607158634104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72499929307275601</c:v>
+                  <c:v>0.63410155885563602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.751432923697544</c:v>
+                  <c:v>0.63056071829265903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72576287137137097</c:v>
+                  <c:v>0.63136502626656699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72658410966808495</c:v>
+                  <c:v>0.630126579419656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73974175238497597</c:v>
+                  <c:v>0.62903416006377899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62956663462043205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62835247090822999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62936141620028097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62914875311340501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62510293442904696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63170744843509996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62878425394526405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63158760225017696</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62842073055361602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63002799737857096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62587689347425202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61952560282047298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625104671755357</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.62873938411835995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62852140188470296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61807714435584604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62145190115316995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62146823118727701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.617472682562627</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62040559198275802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62468454541583796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62629298071164796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62169699643775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61860732314455003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61523536344005303</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61945893910503602</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61913305220983705</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61788830485337298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62461683877197105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62496316504598204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62246871581627305</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61567318443968</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62353189129963704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61201758595460998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61875476302566801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61718003755630602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61872666598721304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61668781083875901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61663081587272095</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.615806628833243</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61556394842662698</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.61205435584594603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.61731773152530001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61730329488187097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62134243966704406</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61106499386550905</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61809110107100795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17890,8 +18454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8959742-C5B8-4D5E-8EB1-1E24848E00F5}">
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18149,7 +18713,7 @@
         <v>0.78028847699252901</v>
       </c>
       <c r="AU2" s="1">
-        <v>1178926</v>
+        <v>1188993.66666666</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -18274,10 +18838,10 @@
         <v>2</v>
       </c>
       <c r="AT3" s="1">
-        <v>0.69907379023882099</v>
+        <v>0.69717668091696805</v>
       </c>
       <c r="AU3" s="1">
-        <v>742075.66666666605</v>
+        <v>785456.33333333302</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -18402,10 +18966,10 @@
         <v>3</v>
       </c>
       <c r="AT4" s="1">
-        <v>0.67450790056020604</v>
+        <v>0.65935622938369798</v>
       </c>
       <c r="AU4" s="1">
-        <v>362884.33333333302</v>
+        <v>394316.33333333302</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -18530,10 +19094,10 @@
         <v>4</v>
       </c>
       <c r="AT5" s="1">
-        <v>0.70889332890277001</v>
+        <v>0.67259016827031104</v>
       </c>
       <c r="AU5" s="1">
-        <v>201971.66666666599</v>
+        <v>254825.66666666599</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -18658,10 +19222,10 @@
         <v>5</v>
       </c>
       <c r="AT6" s="1">
-        <v>0.719187093507624</v>
+        <v>0.65462251765589097</v>
       </c>
       <c r="AU6" s="1">
-        <v>118161</v>
+        <v>160159.33333333299</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -18786,10 +19350,10 @@
         <v>6</v>
       </c>
       <c r="AT7" s="1">
-        <v>0.72655189897819195</v>
+        <v>0.632564177599514</v>
       </c>
       <c r="AU7" s="1">
-        <v>109931</v>
+        <v>114231.666666666</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -18914,10 +19478,10 @@
         <v>7</v>
       </c>
       <c r="AT8" s="1">
-        <v>0.71726811098589505</v>
+        <v>0.63631840709599097</v>
       </c>
       <c r="AU8" s="1">
-        <v>98699.333333333299</v>
+        <v>108437.666666666</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -19042,10 +19606,10 @@
         <v>8</v>
       </c>
       <c r="AT9" s="1">
-        <v>0.72263148164120505</v>
+        <v>0.63365126039967601</v>
       </c>
       <c r="AU9" s="1">
-        <v>92736</v>
+        <v>100717.666666666</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -19170,10 +19734,10 @@
         <v>9</v>
       </c>
       <c r="AT10" s="1">
-        <v>0.71737429483911996</v>
+        <v>0.63214370317234803</v>
       </c>
       <c r="AU10" s="1">
-        <v>92391</v>
+        <v>95013.666666666599</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -19298,10 +19862,10 @@
         <v>10</v>
       </c>
       <c r="AT11" s="1">
-        <v>0.72031642170943599</v>
+        <v>0.63520541470290803</v>
       </c>
       <c r="AU11" s="1">
-        <v>77786.333333333299</v>
+        <v>94804</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -19426,10 +19990,10 @@
         <v>11</v>
       </c>
       <c r="AT12" s="1">
-        <v>0.72773735387205496</v>
+        <v>0.63175056613397595</v>
       </c>
       <c r="AU12" s="1">
-        <v>77559.666666666599</v>
+        <v>86429.333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -19554,10 +20118,10 @@
         <v>12</v>
       </c>
       <c r="AT13" s="1">
-        <v>0.741733730902845</v>
+        <v>0.62690607158634104</v>
       </c>
       <c r="AU13" s="1">
-        <v>70937.666666666599</v>
+        <v>81268.666666666599</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -19682,10 +20246,10 @@
         <v>13</v>
       </c>
       <c r="AT14" s="1">
-        <v>0.72499929307275601</v>
+        <v>0.63410155885563602</v>
       </c>
       <c r="AU14" s="1">
-        <v>72983</v>
+        <v>72913.333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -19810,10 +20374,10 @@
         <v>14</v>
       </c>
       <c r="AT15" s="1">
-        <v>0.751432923697544</v>
+        <v>0.63056071829265903</v>
       </c>
       <c r="AU15" s="1">
-        <v>65493</v>
+        <v>72605.666666666599</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -19938,10 +20502,10 @@
         <v>15</v>
       </c>
       <c r="AT16" s="1">
-        <v>0.72576287137137097</v>
+        <v>0.63136502626656699</v>
       </c>
       <c r="AU16" s="1">
-        <v>72858.666666666599</v>
+        <v>75237.666666666599</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -20066,10 +20630,10 @@
         <v>16</v>
       </c>
       <c r="AT17" s="1">
-        <v>0.72658410966808495</v>
+        <v>0.630126579419656</v>
       </c>
       <c r="AU17" s="1">
-        <v>63065.666666666599</v>
+        <v>65177</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -20194,10 +20758,10 @@
         <v>17</v>
       </c>
       <c r="AT18" s="1">
-        <v>0.73974175238497597</v>
+        <v>0.62903416006377899</v>
       </c>
       <c r="AU18" s="1">
-        <v>65804.333333333299</v>
+        <v>72972.666666666599</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
@@ -20306,6 +20870,27 @@
       <c r="AM19" s="1">
         <v>19613.666666666599</v>
       </c>
+      <c r="AO19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0.62956663462043205</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>79728</v>
+      </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -20413,6 +20998,27 @@
       <c r="AM20" s="1">
         <v>18811.333333333299</v>
       </c>
+      <c r="AO20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.62835247090822999</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>65349.666666666599</v>
+      </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -20520,6 +21126,27 @@
       <c r="AM21" s="1">
         <v>18306</v>
       </c>
+      <c r="AO21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.62936141620028097</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>60229.666666666599</v>
+      </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -20627,6 +21254,27 @@
       <c r="AM22" s="1">
         <v>17125.666666666599</v>
       </c>
+      <c r="AO22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.62914875311340501</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>61423</v>
+      </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -20734,6 +21382,27 @@
       <c r="AM23" s="1">
         <v>17181.666666666599</v>
       </c>
+      <c r="AO23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>22</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.62510293442904696</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>74995</v>
+      </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -20841,6 +21510,27 @@
       <c r="AM24" s="1">
         <v>16819</v>
       </c>
+      <c r="AO24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>23</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.63170744843509996</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>54656.666666666599</v>
+      </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -20948,6 +21638,27 @@
       <c r="AM25" s="1">
         <v>16308</v>
       </c>
+      <c r="AO25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.62878425394526405</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>53274.333333333299</v>
+      </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -21055,6 +21766,27 @@
       <c r="AM26" s="1">
         <v>16077.666666666601</v>
       </c>
+      <c r="AO26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.63158760225017696</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>50442.333333333299</v>
+      </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -21162,6 +21894,27 @@
       <c r="AM27" s="1">
         <v>15576</v>
       </c>
+      <c r="AO27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>26</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.62842073055361602</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>59582</v>
+      </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -21269,6 +22022,27 @@
       <c r="AM28" s="1">
         <v>15543.333333333299</v>
       </c>
+      <c r="AO28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.63002799737857096</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>60244</v>
+      </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -21376,6 +22150,27 @@
       <c r="AM29" s="1">
         <v>15598.666666666601</v>
       </c>
+      <c r="AO29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>28</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.62587689347425202</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>60443.333333333299</v>
+      </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -21483,6 +22278,27 @@
       <c r="AM30" s="1">
         <v>14917</v>
       </c>
+      <c r="AO30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>29</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.61952560282047298</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>50133</v>
+      </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -21590,6 +22406,27 @@
       <c r="AM31" s="1">
         <v>15114</v>
       </c>
+      <c r="AO31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.625104671755357</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>46617.666666666599</v>
+      </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -21697,8 +22534,29 @@
       <c r="AM32" s="1">
         <v>15028.666666666601</v>
       </c>
+      <c r="AO32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.62873938411835995</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>53457.333333333299</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -21804,8 +22662,29 @@
       <c r="AM33" s="1">
         <v>15509</v>
       </c>
+      <c r="AO33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.62852140188470296</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>46892</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -21911,8 +22790,29 @@
       <c r="AM34" s="1">
         <v>15337.333333333299</v>
       </c>
+      <c r="AO34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>33</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.61807714435584604</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>50456.666666666599</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -22018,8 +22918,29 @@
       <c r="AM35" s="1">
         <v>15314.333333333299</v>
       </c>
+      <c r="AO35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>34</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0.62145190115316995</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>53622</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -22125,8 +23046,29 @@
       <c r="AM36" s="1">
         <v>16219.666666666601</v>
       </c>
+      <c r="AO36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0.62146823118727701</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>47797.333333333299</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -22232,8 +23174,29 @@
       <c r="AM37" s="1">
         <v>15125.333333333299</v>
       </c>
+      <c r="AO37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>36</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0.617472682562627</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>60795</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -22339,8 +23302,29 @@
       <c r="AM38" s="1">
         <v>15646.333333333299</v>
       </c>
+      <c r="AO38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0.62040559198275802</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>47762</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -22446,8 +23430,29 @@
       <c r="AM39" s="1">
         <v>15279</v>
       </c>
+      <c r="AO39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>38</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0.62468454541583796</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>44468.333333333299</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -22553,8 +23558,29 @@
       <c r="AM40" s="1">
         <v>15382</v>
       </c>
+      <c r="AO40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>39</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0.62629298071164796</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>50719.666666666599</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -22660,8 +23686,29 @@
       <c r="AM41" s="1">
         <v>14925.666666666601</v>
       </c>
+      <c r="AO41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0.62169699643775</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>51360.666666666599</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -22767,8 +23814,29 @@
       <c r="AM42" s="1">
         <v>15661.333333333299</v>
       </c>
+      <c r="AO42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>41</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0.61860732314455003</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>48350</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -22874,8 +23942,29 @@
       <c r="AM43" s="1">
         <v>15127.666666666601</v>
       </c>
+      <c r="AO43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0.61523536344005303</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>48711.333333333299</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -22981,8 +24070,29 @@
       <c r="AM44" s="1">
         <v>14934</v>
       </c>
+      <c r="AO44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0.61945893910503602</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>48166</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -23088,8 +24198,29 @@
       <c r="AM45" s="1">
         <v>15534</v>
       </c>
+      <c r="AO45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0.61913305220983705</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>46891.333333333299</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -23195,8 +24326,29 @@
       <c r="AM46" s="1">
         <v>15521.333333333299</v>
       </c>
+      <c r="AO46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>45</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0.61788830485337298</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>43884.333333333299</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -23302,8 +24454,29 @@
       <c r="AM47" s="1">
         <v>15294.333333333299</v>
       </c>
+      <c r="AO47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>46</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0.62461683877197105</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>47549</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -23409,8 +24582,29 @@
       <c r="AM48" s="1">
         <v>14896.666666666601</v>
       </c>
+      <c r="AO48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>47</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0.62496316504598204</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>47593.333333333299</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -23516,8 +24710,29 @@
       <c r="AM49" s="1">
         <v>14943.666666666601</v>
       </c>
+      <c r="AO49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>48</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0.62246871581627305</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>43728</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -23623,8 +24838,29 @@
       <c r="AM50" s="1">
         <v>14755.666666666601</v>
       </c>
+      <c r="AO50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>49</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>0.61567318443968</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>42196</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -23730,8 +24966,29 @@
       <c r="AM51" s="1">
         <v>14395</v>
       </c>
+      <c r="AO51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>50</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0.62353189129963704</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>45334.666666666599</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -23837,8 +25094,29 @@
       <c r="AM52" s="1">
         <v>15112.333333333299</v>
       </c>
+      <c r="AO52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>51</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>0.61201758595460998</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>44405.666666666599</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -23944,8 +25222,29 @@
       <c r="AM53" s="1">
         <v>14035</v>
       </c>
+      <c r="AO53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>52</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0.61875476302566801</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>43806.333333333299</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -24051,8 +25350,29 @@
       <c r="AM54" s="1">
         <v>14614</v>
       </c>
+      <c r="AO54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>53</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>0.61718003755630602</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>45708.666666666599</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -24158,8 +25478,29 @@
       <c r="AM55" s="1">
         <v>14175.666666666601</v>
       </c>
+      <c r="AO55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>54</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>0.61872666598721304</v>
+      </c>
+      <c r="AU55" s="1">
+        <v>45520</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -24265,8 +25606,29 @@
       <c r="AM56" s="1">
         <v>15304.666666666601</v>
       </c>
+      <c r="AO56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>55</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>0.61668781083875901</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>42847</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -24372,8 +25734,29 @@
       <c r="AM57" s="1">
         <v>14551</v>
       </c>
+      <c r="AO57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>56</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>0.61663081587272095</v>
+      </c>
+      <c r="AU57" s="1">
+        <v>42875</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -24479,8 +25862,29 @@
       <c r="AM58" s="1">
         <v>14555.666666666601</v>
       </c>
+      <c r="AO58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0.615806628833243</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>39797.666666666599</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -24586,8 +25990,29 @@
       <c r="AM59" s="1">
         <v>14630</v>
       </c>
+      <c r="AO59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>58</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>0.61556394842662698</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>47215.333333333299</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -24693,8 +26118,29 @@
       <c r="AM60" s="1">
         <v>14738.333333333299</v>
       </c>
+      <c r="AO60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>59</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>0.61205435584594603</v>
+      </c>
+      <c r="AU60" s="1">
+        <v>42146.333333333299</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -24800,8 +26246,29 @@
       <c r="AM61" s="1">
         <v>15087</v>
       </c>
+      <c r="AO61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>0.61731773152530001</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>40239.666666666599</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -24907,8 +26374,29 @@
       <c r="AM62" s="1">
         <v>14568</v>
       </c>
+      <c r="AO62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>61</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0.61730329488187097</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>39600.666666666599</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -25014,8 +26502,29 @@
       <c r="AM63" s="1">
         <v>14477.666666666601</v>
       </c>
+      <c r="AO63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>62</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0.62134243966704406</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>44383.666666666599</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -25121,8 +26630,29 @@
       <c r="AM64" s="1">
         <v>14864</v>
       </c>
+      <c r="AO64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>63</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0.61106499386550905</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>47322</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -25228,10 +26758,31 @@
       <c r="AM65" s="1">
         <v>14499</v>
       </c>
+      <c r="AO65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>64</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0.61809110107100795</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>42003.333333333299</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO2:AU35">
-    <sortCondition ref="AQ2:AQ35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AW2:BC131">
+    <sortCondition ref="AY2:AY131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25242,8 +26793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08F581-ECA6-40F4-AA0A-73D637039F72}">
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AU52" sqref="AU52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25501,7 +27052,7 @@
         <v>0.61187439095418905</v>
       </c>
       <c r="AU2" s="1">
-        <v>190734.66666666599</v>
+        <v>192046.66666666599</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -25626,10 +27177,10 @@
         <v>2</v>
       </c>
       <c r="AT3" s="1">
-        <v>0.52620248000150804</v>
+        <v>0.60854038154968204</v>
       </c>
       <c r="AU3" s="1">
-        <v>132667.66666666599</v>
+        <v>114489.666666666</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -25754,10 +27305,10 @@
         <v>3</v>
       </c>
       <c r="AT4" s="1">
-        <v>0.23030678072010499</v>
+        <v>0.61041203802961397</v>
       </c>
       <c r="AU4" s="1">
-        <v>149966.33333333299</v>
+        <v>88976.333333333299</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -25882,10 +27433,10 @@
         <v>4</v>
       </c>
       <c r="AT5" s="1">
-        <v>0.330453047026467</v>
+        <v>0.60924637030018702</v>
       </c>
       <c r="AU5" s="1">
-        <v>184777</v>
+        <v>63864.666666666599</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -26010,10 +27561,10 @@
         <v>5</v>
       </c>
       <c r="AT6" s="1">
-        <v>0.14315061552816599</v>
+        <v>0.60588951984490602</v>
       </c>
       <c r="AU6" s="1">
-        <v>209982</v>
+        <v>58267.666666666599</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -26138,10 +27689,10 @@
         <v>6</v>
       </c>
       <c r="AT7" s="1">
-        <v>4.9648514310787796E-3</v>
+        <v>0.60714314003941905</v>
       </c>
       <c r="AU7" s="1">
-        <v>362043</v>
+        <v>56068.333333333299</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -26266,10 +27817,10 @@
         <v>7</v>
       </c>
       <c r="AT8" s="1">
-        <v>0.112549889126285</v>
+        <v>0.60463179195397498</v>
       </c>
       <c r="AU8" s="1">
-        <v>358445.66666666599</v>
+        <v>47305</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -26394,10 +27945,10 @@
         <v>8</v>
       </c>
       <c r="AT9" s="1">
-        <v>0.24581875189976299</v>
+        <v>0.60260947476864202</v>
       </c>
       <c r="AU9" s="1">
-        <v>389751.66666666599</v>
+        <v>42105</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -26522,10 +28073,10 @@
         <v>9</v>
       </c>
       <c r="AT10" s="1">
-        <v>0.18944732436889</v>
+        <v>0.60099057115413701</v>
       </c>
       <c r="AU10" s="1">
-        <v>506251.66666666599</v>
+        <v>43037.666666666599</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -26650,10 +28201,10 @@
         <v>10</v>
       </c>
       <c r="AT11" s="1">
-        <v>0.25845114927532697</v>
+        <v>0.59834378110045405</v>
       </c>
       <c r="AU11" s="1">
-        <v>709939</v>
+        <v>37131.333333333299</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -26778,10 +28329,10 @@
         <v>11</v>
       </c>
       <c r="AT12" s="1">
-        <v>0.28784470914788401</v>
+        <v>0.59717575288616997</v>
       </c>
       <c r="AU12" s="1">
-        <v>544606</v>
+        <v>40721.333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -26906,10 +28457,10 @@
         <v>12</v>
       </c>
       <c r="AT13" s="1">
-        <v>0.25951227855952103</v>
+        <v>0.59861936772322599</v>
       </c>
       <c r="AU13" s="1">
-        <v>658407</v>
+        <v>34849.333333333299</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -27034,10 +28585,10 @@
         <v>13</v>
       </c>
       <c r="AT14" s="1">
-        <v>0.377520336863156</v>
+        <v>0.59479588014662099</v>
       </c>
       <c r="AU14" s="1">
-        <v>728229.33333333302</v>
+        <v>34436</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -27162,10 +28713,10 @@
         <v>14</v>
       </c>
       <c r="AT15" s="1">
-        <v>0.17759418407017299</v>
+        <v>0.592603657969209</v>
       </c>
       <c r="AU15" s="1">
-        <v>764935</v>
+        <v>32231.333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -27290,10 +28841,10 @@
         <v>15</v>
       </c>
       <c r="AT16" s="1">
-        <v>0.47055390091822802</v>
+        <v>0.59264381675580702</v>
       </c>
       <c r="AU16" s="1">
-        <v>851173</v>
+        <v>30612</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -27418,10 +28969,10 @@
         <v>16</v>
       </c>
       <c r="AT17" s="1">
-        <v>0.41927991995806202</v>
+        <v>0.594499328147718</v>
       </c>
       <c r="AU17" s="1">
-        <v>948555.66666666605</v>
+        <v>29371.333333333299</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -27546,10 +29097,10 @@
         <v>17</v>
       </c>
       <c r="AT18" s="1">
-        <v>0.55914821756565902</v>
+        <v>0.58901786190633798</v>
       </c>
       <c r="AU18" s="1">
-        <v>1029964</v>
+        <v>31166</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
@@ -27658,6 +29209,27 @@
       <c r="AM19" s="1">
         <v>15419</v>
       </c>
+      <c r="AO19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0.58242811546316098</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>27932.333333333299</v>
+      </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -27765,6 +29337,27 @@
       <c r="AM20" s="1">
         <v>14877.333333333299</v>
       </c>
+      <c r="AO20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.59247131417906496</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>28603</v>
+      </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -27872,6 +29465,27 @@
       <c r="AM21" s="1">
         <v>14973.333333333299</v>
       </c>
+      <c r="AO21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.58526607142065001</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>28812</v>
+      </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -27979,6 +29593,27 @@
       <c r="AM22" s="1">
         <v>14446.666666666601</v>
       </c>
+      <c r="AO22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.58810512504533696</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>27488</v>
+      </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -28086,6 +29721,27 @@
       <c r="AM23" s="1">
         <v>14718.333333333299</v>
       </c>
+      <c r="AO23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>22</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.57982354134870295</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>27203</v>
+      </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -28193,6 +29849,27 @@
       <c r="AM24" s="1">
         <v>14353.333333333299</v>
       </c>
+      <c r="AO24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>23</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.58615159350176405</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>25717.333333333299</v>
+      </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -28300,6 +29977,27 @@
       <c r="AM25" s="1">
         <v>13564</v>
       </c>
+      <c r="AO25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.58752150956340998</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>25308</v>
+      </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -28407,6 +30105,27 @@
       <c r="AM26" s="1">
         <v>13187.333333333299</v>
       </c>
+      <c r="AO26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.58712634089008597</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>24214</v>
+      </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -28514,6 +30233,27 @@
       <c r="AM27" s="1">
         <v>13640</v>
       </c>
+      <c r="AO27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>26</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.58273117601556901</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>24057.333333333299</v>
+      </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -28621,6 +30361,27 @@
       <c r="AM28" s="1">
         <v>12941.666666666601</v>
       </c>
+      <c r="AO28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.58565298084321804</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>23868.333333333299</v>
+      </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -28728,6 +30489,27 @@
       <c r="AM29" s="1">
         <v>13204.333333333299</v>
       </c>
+      <c r="AO29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>28</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.57587619587375904</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>24441.666666666599</v>
+      </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -28835,6 +30617,27 @@
       <c r="AM30" s="1">
         <v>13253</v>
       </c>
+      <c r="AO30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>29</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.57152546013072503</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>25070.666666666599</v>
+      </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -28942,6 +30745,27 @@
       <c r="AM31" s="1">
         <v>13017</v>
       </c>
+      <c r="AO31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.57695786891979794</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>22402.333333333299</v>
+      </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -29049,8 +30873,29 @@
       <c r="AM32" s="1">
         <v>13051.333333333299</v>
       </c>
+      <c r="AO32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.57702819599916699</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>23230.666666666599</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -29156,8 +31001,29 @@
       <c r="AM33" s="1">
         <v>12953</v>
       </c>
+      <c r="AO33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.57716107880888601</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>21114</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -29263,8 +31129,29 @@
       <c r="AM34" s="1">
         <v>13584.666666666601</v>
       </c>
+      <c r="AO34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>33</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.56805182314800096</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>22786</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -29370,8 +31257,29 @@
       <c r="AM35" s="1">
         <v>13673.333333333299</v>
       </c>
+      <c r="AO35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>34</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0.57531619365402897</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>24035</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -29477,8 +31385,29 @@
       <c r="AM36" s="1">
         <v>13403.333333333299</v>
       </c>
+      <c r="AO36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0.57717236460439203</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>22759</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -29584,8 +31513,29 @@
       <c r="AM37" s="1">
         <v>13507.333333333299</v>
       </c>
+      <c r="AO37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>36</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0.56120451629982804</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>21625.333333333299</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -29691,8 +31641,29 @@
       <c r="AM38" s="1">
         <v>13346</v>
       </c>
+      <c r="AO38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0.56605214372857504</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>21660</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -29798,8 +31769,29 @@
       <c r="AM39" s="1">
         <v>12710</v>
       </c>
+      <c r="AO39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>38</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0.575066311103409</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>21614.666666666599</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -29905,8 +31897,29 @@
       <c r="AM40" s="1">
         <v>12805</v>
       </c>
+      <c r="AO40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>39</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0.57177996612426696</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>21685.666666666599</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -30012,8 +32025,29 @@
       <c r="AM41" s="1">
         <v>13128</v>
       </c>
+      <c r="AO41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0.56798394221127002</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>21335.666666666599</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -30119,8 +32153,29 @@
       <c r="AM42" s="1">
         <v>12991.666666666601</v>
       </c>
+      <c r="AO42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>41</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0.56483296361257296</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>22369.333333333299</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -30226,8 +32281,29 @@
       <c r="AM43" s="1">
         <v>12941</v>
       </c>
+      <c r="AO43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0.56548330612312803</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>21209.333333333299</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -30333,8 +32409,29 @@
       <c r="AM44" s="1">
         <v>13274.333333333299</v>
       </c>
+      <c r="AO44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0.56144612001298999</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>22010.333333333299</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -30440,8 +32537,29 @@
       <c r="AM45" s="1">
         <v>12543.666666666601</v>
       </c>
+      <c r="AO45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0.54946162643415897</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>22633</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -30547,8 +32665,29 @@
       <c r="AM46" s="1">
         <v>13423</v>
       </c>
+      <c r="AO46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>45</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0.554689195209212</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>21877.666666666599</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -30654,8 +32793,29 @@
       <c r="AM47" s="1">
         <v>13341</v>
       </c>
+      <c r="AO47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>46</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0.56649526632702196</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>22420.333333333299</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -30761,8 +32921,29 @@
       <c r="AM48" s="1">
         <v>13332</v>
       </c>
+      <c r="AO48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>47</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0.56661113783343897</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>21137</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -30868,8 +33049,29 @@
       <c r="AM49" s="1">
         <v>12732</v>
       </c>
+      <c r="AO49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>48</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0.56864131412220198</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>22217.333333333299</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -30975,8 +33177,29 @@
       <c r="AM50" s="1">
         <v>12888.666666666601</v>
       </c>
+      <c r="AO50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>49</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>0.56046976511621205</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>21173</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -31082,8 +33305,29 @@
       <c r="AM51" s="1">
         <v>13112</v>
       </c>
+      <c r="AO51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>50</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0.56302404831169905</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>20556</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -31189,8 +33433,29 @@
       <c r="AM52" s="1">
         <v>12779.333333333299</v>
       </c>
+      <c r="AO52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>51</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>0.55456462072710999</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>22056</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -31296,8 +33561,29 @@
       <c r="AM53" s="1">
         <v>12375</v>
       </c>
+      <c r="AO53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>52</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0.54962841145160901</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>21470.333333333299</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -31403,8 +33689,29 @@
       <c r="AM54" s="1">
         <v>12653.333333333299</v>
       </c>
+      <c r="AO54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>53</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>0.55439031724874399</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>21370.666666666599</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -31510,8 +33817,29 @@
       <c r="AM55" s="1">
         <v>12164.333333333299</v>
       </c>
+      <c r="AO55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>54</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>0.55713552217173401</v>
+      </c>
+      <c r="AU55" s="1">
+        <v>20697</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -31617,8 +33945,29 @@
       <c r="AM56" s="1">
         <v>12174</v>
       </c>
+      <c r="AO56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>55</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>0.54188786686422297</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>19746.666666666599</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -31724,8 +34073,29 @@
       <c r="AM57" s="1">
         <v>12678.666666666601</v>
       </c>
+      <c r="AO57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>56</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>0.55163107502490005</v>
+      </c>
+      <c r="AU57" s="1">
+        <v>19700.666666666599</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -31831,8 +34201,29 @@
       <c r="AM58" s="1">
         <v>12812</v>
       </c>
+      <c r="AO58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0.55112872172329197</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>20022</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -31938,8 +34329,29 @@
       <c r="AM59" s="1">
         <v>12658.333333333299</v>
       </c>
+      <c r="AO59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>58</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>0.55115080079850098</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>19590</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -32045,8 +34457,29 @@
       <c r="AM60" s="1">
         <v>12787.666666666601</v>
       </c>
+      <c r="AO60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>59</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>0.54988125866013504</v>
+      </c>
+      <c r="AU60" s="1">
+        <v>19500</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -32152,8 +34585,29 @@
       <c r="AM61" s="1">
         <v>13008.333333333299</v>
       </c>
+      <c r="AO61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>0.55155255477481302</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>20940</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -32259,8 +34713,29 @@
       <c r="AM62" s="1">
         <v>13099</v>
       </c>
+      <c r="AO62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>61</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0.559205633812628</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>20911.333333333299</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -32366,8 +34841,29 @@
       <c r="AM63" s="1">
         <v>12310.333333333299</v>
       </c>
+      <c r="AO63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>62</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0.56026594314566602</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>20758.666666666599</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -32473,8 +34969,29 @@
       <c r="AM64" s="1">
         <v>12553</v>
       </c>
+      <c r="AO64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>63</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0.54199418102663299</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>21370.666666666599</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -32579,6 +35096,27 @@
       </c>
       <c r="AM65" s="1">
         <v>12397</v>
+      </c>
+      <c r="AO65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>64</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0.55800415371576895</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>19829</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/org/deidentifier/arx/distributed/eval.xlsx
+++ b/src/main/org/deidentifier/arx/distributed/eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\git\arx\src\main\org\deidentifier\arx\distributed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F1DE13-5232-4940-AFF4-C29D73F657AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AA411-EF58-4EF4-8362-73D3CA391E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2207E27C-B32F-4C7E-B1A0-3C25600B901E}"/>
   </bookViews>
   <sheets>
     <sheet name="Local" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7101" uniqueCount="24">
   <si>
     <t>Threads</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>0,01-average-risk</t>
+  </si>
+  <si>
+    <t>(e10-6, 2)-differential privacy</t>
   </si>
 </sst>
 </file>
@@ -17017,6 +17020,907 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A45-4CEC-93F2-2167459194C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1887996575"/>
+        <c:axId val="1887990751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1024859584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024860000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024859584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887990751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887996575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1887996575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1887990751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(e10-6, 2)-Differential Privacy</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$DG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$DG$2:$DG$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>14491.666666666601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12988.666666666601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8285.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5897.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3049.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2422.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2321.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2306.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1706.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1865.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1876.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1677.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1437.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1449.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1578.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1450.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1420.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1849.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1522.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1780.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1535.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1369.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1831.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1877.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1898.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1903.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1922.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1974.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2235</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1890.3333333333301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2218.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2144.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2356.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2684.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2590.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2614.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3197.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2844.6666666666601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3017.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3047</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3090.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3650.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3961.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3170.3333333333298</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4315.3333333333303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FC6-4FA9-985E-4BEF24E613F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1024859584"/>
+        <c:axId val="1024860000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Global!$DF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Global!$DF$2:$DF$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.57176207514791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37556250031312199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26375253918106101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.193893698388903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.162975858242282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131051319964998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11032479153902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7420120812517996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5710852707038196E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3236523644779505E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3259786463999407E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6123009602124602E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1667817358462903E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6877206657495903E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3843183471745602E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1275807834952501E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8972441400914798E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6846850572282201E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4733370374740197E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2983606906646298E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1547312444784301E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0128818094769E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.89872329821491E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7535990495283699E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6499141892202E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5325819309356599E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4286103599135599E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.32743710680769E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2477336255262499E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.16907482548515E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1068032418373499E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.05697137315899E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0102818299256701E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.96363007504535E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8990240563838801E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8449366452834601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.81568720983382E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7538052254954101E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.68839474464762E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.64312136282087E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5904808224680399E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5351289604355301E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.489764732083E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4591250242523101E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.39488654760552E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3659510453351099E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3250276550399001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2718450148090201E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.22943773909847E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1853703292054599E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1720661083289501E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.15140064657914E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1168034578857899E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.08214451129728E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0602900280165899E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.03678597064105E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.01419215999112E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.9043532782365409E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.7756146118165507E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5593736977078892E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.3463478959353898E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1665729352990496E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.9713526583480793E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.64932657338199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FC6-4FA9-985E-4BEF24E613F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24349,6 +25253,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -34044,6 +34988,529 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39222,6 +40689,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68449679-A9DB-44C2-9EF6-F191F55C676D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39524,7 +41029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8959742-C5B8-4D5E-8EB1-1E24848E00F5}">
   <dimension ref="A1:CY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -57414,15 +58919,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08F581-ECA6-40F4-AA0A-73D637039F72}">
-  <dimension ref="A1:CY65"/>
+  <dimension ref="A1:DG65"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="CV27" sqref="CV27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -57696,8 +59201,29 @@
       <c r="CY1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="DA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -57971,8 +59497,29 @@
       <c r="CY2" s="1">
         <v>670638.33333333302</v>
       </c>
+      <c r="DA2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>0.57176207514791</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>14491.666666666601</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -58246,8 +59793,29 @@
       <c r="CY3" s="1">
         <v>425335.66666666599</v>
       </c>
+      <c r="DA3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF3" s="1">
+        <v>0.37556250031312199</v>
+      </c>
+      <c r="DG3" s="1">
+        <v>12988.666666666601</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -58521,8 +60089,29 @@
       <c r="CY4" s="1">
         <v>307363.33333333302</v>
       </c>
+      <c r="DA4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE4" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>0.26375253918106101</v>
+      </c>
+      <c r="DG4" s="1">
+        <v>8285.3333333333303</v>
+      </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -58796,8 +60385,29 @@
       <c r="CY5" s="1">
         <v>211644</v>
       </c>
+      <c r="DA5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF5" s="1">
+        <v>0.193893698388903</v>
+      </c>
+      <c r="DG5" s="1">
+        <v>5897.3333333333303</v>
+      </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -59071,8 +60681,29 @@
       <c r="CY6" s="1">
         <v>223424</v>
       </c>
+      <c r="DA6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE6" s="1">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>0.162975858242282</v>
+      </c>
+      <c r="DG6" s="1">
+        <v>3673</v>
+      </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -59346,8 +60977,29 @@
       <c r="CY7" s="1">
         <v>209927.33333333299</v>
       </c>
+      <c r="DA7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE7" s="1">
+        <v>6</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>0.131051319964998</v>
+      </c>
+      <c r="DG7" s="1">
+        <v>3368</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -59621,8 +61273,29 @@
       <c r="CY8" s="1">
         <v>191779.33333333299</v>
       </c>
+      <c r="DA8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>0.11032479153902</v>
+      </c>
+      <c r="DG8" s="1">
+        <v>3049.6666666666601</v>
+      </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -59896,8 +61569,29 @@
       <c r="CY9" s="1">
         <v>151069.66666666599</v>
       </c>
+      <c r="DA9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE9" s="1">
+        <v>8</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>9.7420120812517996E-2</v>
+      </c>
+      <c r="DG9" s="1">
+        <v>2616.3333333333298</v>
+      </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -60171,8 +61865,29 @@
       <c r="CY10" s="1">
         <v>154683.66666666599</v>
       </c>
+      <c r="DA10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE10" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF10" s="1">
+        <v>8.5710852707038196E-2</v>
+      </c>
+      <c r="DG10" s="1">
+        <v>2422.3333333333298</v>
+      </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -60446,8 +62161,29 @@
       <c r="CY11" s="1">
         <v>151067.33333333299</v>
       </c>
+      <c r="DA11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE11" s="1">
+        <v>10</v>
+      </c>
+      <c r="DF11" s="1">
+        <v>7.3236523644779505E-2</v>
+      </c>
+      <c r="DG11" s="1">
+        <v>2321.6666666666601</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -60721,8 +62457,29 @@
       <c r="CY12" s="1">
         <v>144753</v>
       </c>
+      <c r="DA12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE12" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF12" s="1">
+        <v>6.3259786463999407E-2</v>
+      </c>
+      <c r="DG12" s="1">
+        <v>2306.6666666666601</v>
+      </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -60996,8 +62753,29 @@
       <c r="CY13" s="1">
         <v>135302.33333333299</v>
       </c>
+      <c r="DA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE13" s="1">
+        <v>12</v>
+      </c>
+      <c r="DF13" s="1">
+        <v>5.6123009602124602E-2</v>
+      </c>
+      <c r="DG13" s="1">
+        <v>2004</v>
+      </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -61271,8 +63049,29 @@
       <c r="CY14" s="1">
         <v>126883.666666666</v>
       </c>
+      <c r="DA14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE14" s="1">
+        <v>13</v>
+      </c>
+      <c r="DF14" s="1">
+        <v>5.1667817358462903E-2</v>
+      </c>
+      <c r="DG14" s="1">
+        <v>2279</v>
+      </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -61546,8 +63345,29 @@
       <c r="CY15" s="1">
         <v>120552.666666666</v>
       </c>
+      <c r="DA15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE15" s="1">
+        <v>14</v>
+      </c>
+      <c r="DF15" s="1">
+        <v>4.6877206657495903E-2</v>
+      </c>
+      <c r="DG15" s="1">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -61821,8 +63641,29 @@
       <c r="CY16" s="1">
         <v>117945</v>
       </c>
+      <c r="DA16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE16" s="1">
+        <v>15</v>
+      </c>
+      <c r="DF16" s="1">
+        <v>4.3843183471745602E-2</v>
+      </c>
+      <c r="DG16" s="1">
+        <v>1706.3333333333301</v>
+      </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -62096,8 +63937,29 @@
       <c r="CY17" s="1">
         <v>126079.666666666</v>
       </c>
+      <c r="DA17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE17" s="1">
+        <v>16</v>
+      </c>
+      <c r="DF17" s="1">
+        <v>4.1275807834952501E-2</v>
+      </c>
+      <c r="DG17" s="1">
+        <v>1665</v>
+      </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -62371,8 +64233,29 @@
       <c r="CY18" s="1">
         <v>113138</v>
       </c>
+      <c r="DA18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE18" s="1">
+        <v>17</v>
+      </c>
+      <c r="DF18" s="1">
+        <v>3.8972441400914798E-2</v>
+      </c>
+      <c r="DG18" s="1">
+        <v>1865.6666666666599</v>
+      </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -62646,8 +64529,29 @@
       <c r="CY19" s="1">
         <v>116513.33333333299</v>
       </c>
+      <c r="DA19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE19" s="1">
+        <v>18</v>
+      </c>
+      <c r="DF19" s="1">
+        <v>3.6846850572282201E-2</v>
+      </c>
+      <c r="DG19" s="1">
+        <v>1740</v>
+      </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -62921,8 +64825,29 @@
       <c r="CY20" s="1">
         <v>102858.33333333299</v>
       </c>
+      <c r="DA20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE20" s="1">
+        <v>19</v>
+      </c>
+      <c r="DF20" s="1">
+        <v>3.4733370374740197E-2</v>
+      </c>
+      <c r="DG20" s="1">
+        <v>1876.3333333333301</v>
+      </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -63196,8 +65121,29 @@
       <c r="CY21" s="1">
         <v>100355</v>
       </c>
+      <c r="DA21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE21" s="1">
+        <v>20</v>
+      </c>
+      <c r="DF21" s="1">
+        <v>3.2983606906646298E-2</v>
+      </c>
+      <c r="DG21" s="1">
+        <v>1677.6666666666599</v>
+      </c>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -63471,8 +65417,29 @@
       <c r="CY22" s="1">
         <v>97103</v>
       </c>
+      <c r="DA22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE22" s="1">
+        <v>21</v>
+      </c>
+      <c r="DF22" s="1">
+        <v>3.1547312444784301E-2</v>
+      </c>
+      <c r="DG22" s="1">
+        <v>1437.6666666666599</v>
+      </c>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -63746,8 +65713,29 @@
       <c r="CY23" s="1">
         <v>95964.333333333299</v>
       </c>
+      <c r="DA23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE23" s="1">
+        <v>22</v>
+      </c>
+      <c r="DF23" s="1">
+        <v>3.0128818094769E-2</v>
+      </c>
+      <c r="DG23" s="1">
+        <v>1449.6666666666599</v>
+      </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -64021,8 +66009,29 @@
       <c r="CY24" s="1">
         <v>93373</v>
       </c>
+      <c r="DA24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE24" s="1">
+        <v>23</v>
+      </c>
+      <c r="DF24" s="1">
+        <v>2.89872329821491E-2</v>
+      </c>
+      <c r="DG24" s="1">
+        <v>1578.3333333333301</v>
+      </c>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -64296,8 +66305,29 @@
       <c r="CY25" s="1">
         <v>94310.666666666599</v>
       </c>
+      <c r="DA25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE25" s="1">
+        <v>24</v>
+      </c>
+      <c r="DF25" s="1">
+        <v>2.7535990495283699E-2</v>
+      </c>
+      <c r="DG25" s="1">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -64571,8 +66601,29 @@
       <c r="CY26" s="1">
         <v>86687</v>
       </c>
+      <c r="DA26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE26" s="1">
+        <v>25</v>
+      </c>
+      <c r="DF26" s="1">
+        <v>2.6499141892202E-2</v>
+      </c>
+      <c r="DG26" s="1">
+        <v>1450.3333333333301</v>
+      </c>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -64846,8 +66897,29 @@
       <c r="CY27" s="1">
         <v>86814</v>
       </c>
+      <c r="DA27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE27" s="1">
+        <v>26</v>
+      </c>
+      <c r="DF27" s="1">
+        <v>2.5325819309356599E-2</v>
+      </c>
+      <c r="DG27" s="1">
+        <v>1420.6666666666599</v>
+      </c>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -65121,8 +67193,29 @@
       <c r="CY28" s="1">
         <v>81584.666666666599</v>
       </c>
+      <c r="DA28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE28" s="1">
+        <v>27</v>
+      </c>
+      <c r="DF28" s="1">
+        <v>2.4286103599135599E-2</v>
+      </c>
+      <c r="DG28" s="1">
+        <v>1849.6666666666599</v>
+      </c>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -65396,8 +67489,29 @@
       <c r="CY29" s="1">
         <v>79801.666666666599</v>
       </c>
+      <c r="DA29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE29" s="1">
+        <v>28</v>
+      </c>
+      <c r="DF29" s="1">
+        <v>2.32743710680769E-2</v>
+      </c>
+      <c r="DG29" s="1">
+        <v>1522.3333333333301</v>
+      </c>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -65671,8 +67785,29 @@
       <c r="CY30" s="1">
         <v>80503.333333333299</v>
       </c>
+      <c r="DA30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE30" s="1">
+        <v>29</v>
+      </c>
+      <c r="DF30" s="1">
+        <v>2.2477336255262499E-2</v>
+      </c>
+      <c r="DG30" s="1">
+        <v>1780.3333333333301</v>
+      </c>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -65946,8 +68081,29 @@
       <c r="CY31" s="1">
         <v>76535.666666666599</v>
       </c>
+      <c r="DA31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE31" s="1">
+        <v>30</v>
+      </c>
+      <c r="DF31" s="1">
+        <v>2.16907482548515E-2</v>
+      </c>
+      <c r="DG31" s="1">
+        <v>1535.3333333333301</v>
+      </c>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -66221,8 +68377,29 @@
       <c r="CY32" s="1">
         <v>76620.666666666599</v>
       </c>
+      <c r="DA32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE32" s="1">
+        <v>31</v>
+      </c>
+      <c r="DF32" s="1">
+        <v>2.1068032418373499E-2</v>
+      </c>
+      <c r="DG32" s="1">
+        <v>1369.6666666666599</v>
+      </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -66496,8 +68673,29 @@
       <c r="CY33" s="1">
         <v>74659</v>
       </c>
+      <c r="DA33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE33" s="1">
+        <v>32</v>
+      </c>
+      <c r="DF33" s="1">
+        <v>2.05697137315899E-2</v>
+      </c>
+      <c r="DG33" s="1">
+        <v>1831.3333333333301</v>
+      </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -66771,8 +68969,29 @@
       <c r="CY34" s="1">
         <v>77506.333333333299</v>
       </c>
+      <c r="DA34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE34" s="1">
+        <v>33</v>
+      </c>
+      <c r="DF34" s="1">
+        <v>2.0102818299256701E-2</v>
+      </c>
+      <c r="DG34" s="1">
+        <v>1765</v>
+      </c>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -67046,8 +69265,29 @@
       <c r="CY35" s="1">
         <v>76638.666666666599</v>
       </c>
+      <c r="DA35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE35" s="1">
+        <v>34</v>
+      </c>
+      <c r="DF35" s="1">
+        <v>1.96363007504535E-2</v>
+      </c>
+      <c r="DG35" s="1">
+        <v>1877.3333333333301</v>
+      </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -67321,8 +69561,29 @@
       <c r="CY36" s="1">
         <v>77621</v>
       </c>
+      <c r="DA36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE36" s="1">
+        <v>35</v>
+      </c>
+      <c r="DF36" s="1">
+        <v>1.8990240563838801E-2</v>
+      </c>
+      <c r="DG36" s="1">
+        <v>1898.3333333333301</v>
+      </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -67596,8 +69857,29 @@
       <c r="CY37" s="1">
         <v>70115</v>
       </c>
+      <c r="DA37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE37" s="1">
+        <v>36</v>
+      </c>
+      <c r="DF37" s="1">
+        <v>1.8449366452834601E-2</v>
+      </c>
+      <c r="DG37" s="1">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -67871,8 +70153,29 @@
       <c r="CY38" s="1">
         <v>68227.333333333299</v>
       </c>
+      <c r="DA38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE38" s="1">
+        <v>37</v>
+      </c>
+      <c r="DF38" s="1">
+        <v>1.81568720983382E-2</v>
+      </c>
+      <c r="DG38" s="1">
+        <v>1903.6666666666599</v>
+      </c>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -68146,8 +70449,29 @@
       <c r="CY39" s="1">
         <v>71823.333333333299</v>
       </c>
+      <c r="DA39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE39" s="1">
+        <v>38</v>
+      </c>
+      <c r="DF39" s="1">
+        <v>1.7538052254954101E-2</v>
+      </c>
+      <c r="DG39" s="1">
+        <v>1922.6666666666599</v>
+      </c>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -68421,8 +70745,29 @@
       <c r="CY40" s="1">
         <v>63901</v>
       </c>
+      <c r="DA40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE40" s="1">
+        <v>39</v>
+      </c>
+      <c r="DF40" s="1">
+        <v>1.68839474464762E-2</v>
+      </c>
+      <c r="DG40" s="1">
+        <v>1974.3333333333301</v>
+      </c>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -68696,8 +71041,29 @@
       <c r="CY41" s="1">
         <v>61193.333333333299</v>
       </c>
+      <c r="DA41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE41" s="1">
+        <v>40</v>
+      </c>
+      <c r="DF41" s="1">
+        <v>1.64312136282087E-2</v>
+      </c>
+      <c r="DG41" s="1">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -68971,8 +71337,29 @@
       <c r="CY42" s="1">
         <v>62458.333333333299</v>
       </c>
+      <c r="DA42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE42" s="1">
+        <v>41</v>
+      </c>
+      <c r="DF42" s="1">
+        <v>1.5904808224680399E-2</v>
+      </c>
+      <c r="DG42" s="1">
+        <v>1890.3333333333301</v>
+      </c>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -69246,8 +71633,29 @@
       <c r="CY43" s="1">
         <v>58789.333333333299</v>
       </c>
+      <c r="DA43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE43" s="1">
+        <v>42</v>
+      </c>
+      <c r="DF43" s="1">
+        <v>1.5351289604355301E-2</v>
+      </c>
+      <c r="DG43" s="1">
+        <v>2218.3333333333298</v>
+      </c>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -69521,8 +71929,29 @@
       <c r="CY44" s="1">
         <v>64234</v>
       </c>
+      <c r="DA44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE44" s="1">
+        <v>43</v>
+      </c>
+      <c r="DF44" s="1">
+        <v>1.489764732083E-2</v>
+      </c>
+      <c r="DG44" s="1">
+        <v>2399</v>
+      </c>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -69796,8 +72225,29 @@
       <c r="CY45" s="1">
         <v>62876</v>
       </c>
+      <c r="DA45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE45" s="1">
+        <v>44</v>
+      </c>
+      <c r="DF45" s="1">
+        <v>1.4591250242523101E-2</v>
+      </c>
+      <c r="DG45" s="1">
+        <v>2424</v>
+      </c>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -70071,8 +72521,29 @@
       <c r="CY46" s="1">
         <v>64067</v>
       </c>
+      <c r="DA46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE46" s="1">
+        <v>45</v>
+      </c>
+      <c r="DF46" s="1">
+        <v>1.39488654760552E-2</v>
+      </c>
+      <c r="DG46" s="1">
+        <v>2144.6666666666601</v>
+      </c>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -70346,8 +72817,29 @@
       <c r="CY47" s="1">
         <v>64083</v>
       </c>
+      <c r="DA47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE47" s="1">
+        <v>46</v>
+      </c>
+      <c r="DF47" s="1">
+        <v>1.3659510453351099E-2</v>
+      </c>
+      <c r="DG47" s="1">
+        <v>2373</v>
+      </c>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -70621,8 +73113,29 @@
       <c r="CY48" s="1">
         <v>64719</v>
       </c>
+      <c r="DA48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE48" s="1">
+        <v>47</v>
+      </c>
+      <c r="DF48" s="1">
+        <v>1.3250276550399001E-2</v>
+      </c>
+      <c r="DG48" s="1">
+        <v>2353</v>
+      </c>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -70896,8 +73409,29 @@
       <c r="CY49" s="1">
         <v>60777.333333333299</v>
       </c>
+      <c r="DA49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE49" s="1">
+        <v>48</v>
+      </c>
+      <c r="DF49" s="1">
+        <v>1.2718450148090201E-2</v>
+      </c>
+      <c r="DG49" s="1">
+        <v>2356.6666666666601</v>
+      </c>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -71171,8 +73705,29 @@
       <c r="CY50" s="1">
         <v>60705.666666666599</v>
       </c>
+      <c r="DA50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE50" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF50" s="1">
+        <v>1.22943773909847E-2</v>
+      </c>
+      <c r="DG50" s="1">
+        <v>2625</v>
+      </c>
     </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -71446,8 +74001,29 @@
       <c r="CY51" s="1">
         <v>55443.333333333299</v>
       </c>
+      <c r="DA51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE51" s="1">
+        <v>50</v>
+      </c>
+      <c r="DF51" s="1">
+        <v>1.1853703292054599E-2</v>
+      </c>
+      <c r="DG51" s="1">
+        <v>2684.3333333333298</v>
+      </c>
     </row>
-    <row r="52" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -71721,8 +74297,29 @@
       <c r="CY52" s="1">
         <v>55929</v>
       </c>
+      <c r="DA52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE52" s="1">
+        <v>51</v>
+      </c>
+      <c r="DF52" s="1">
+        <v>1.1720661083289501E-2</v>
+      </c>
+      <c r="DG52" s="1">
+        <v>2590.6666666666601</v>
+      </c>
     </row>
-    <row r="53" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -71996,8 +74593,29 @@
       <c r="CY53" s="1">
         <v>56691</v>
       </c>
+      <c r="DA53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE53" s="1">
+        <v>52</v>
+      </c>
+      <c r="DF53" s="1">
+        <v>1.15140064657914E-2</v>
+      </c>
+      <c r="DG53" s="1">
+        <v>2614.6666666666601</v>
+      </c>
     </row>
-    <row r="54" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -72271,8 +74889,29 @@
       <c r="CY54" s="1">
         <v>54188.666666666599</v>
       </c>
+      <c r="DA54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE54" s="1">
+        <v>53</v>
+      </c>
+      <c r="DF54" s="1">
+        <v>1.1168034578857899E-2</v>
+      </c>
+      <c r="DG54" s="1">
+        <v>3197.6666666666601</v>
+      </c>
     </row>
-    <row r="55" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -72546,8 +75185,29 @@
       <c r="CY55" s="1">
         <v>52333.333333333299</v>
       </c>
+      <c r="DA55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE55" s="1">
+        <v>54</v>
+      </c>
+      <c r="DF55" s="1">
+        <v>1.08214451129728E-2</v>
+      </c>
+      <c r="DG55" s="1">
+        <v>2881</v>
+      </c>
     </row>
-    <row r="56" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -72821,8 +75481,29 @@
       <c r="CY56" s="1">
         <v>51040.666666666599</v>
       </c>
+      <c r="DA56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE56" s="1">
+        <v>55</v>
+      </c>
+      <c r="DF56" s="1">
+        <v>1.0602900280165899E-2</v>
+      </c>
+      <c r="DG56" s="1">
+        <v>2844.6666666666601</v>
+      </c>
     </row>
-    <row r="57" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -73096,8 +75777,29 @@
       <c r="CY57" s="1">
         <v>60952.333333333299</v>
       </c>
+      <c r="DA57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE57" s="1">
+        <v>56</v>
+      </c>
+      <c r="DF57" s="1">
+        <v>1.03678597064105E-2</v>
+      </c>
+      <c r="DG57" s="1">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="58" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -73371,8 +76073,29 @@
       <c r="CY58" s="1">
         <v>54645.666666666599</v>
       </c>
+      <c r="DA58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE58" s="1">
+        <v>57</v>
+      </c>
+      <c r="DF58" s="1">
+        <v>1.01419215999112E-2</v>
+      </c>
+      <c r="DG58" s="1">
+        <v>3017.3333333333298</v>
+      </c>
     </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -73646,8 +76369,29 @@
       <c r="CY59" s="1">
         <v>54550</v>
       </c>
+      <c r="DA59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE59" s="1">
+        <v>58</v>
+      </c>
+      <c r="DF59" s="1">
+        <v>9.9043532782365409E-3</v>
+      </c>
+      <c r="DG59" s="1">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -73921,8 +76665,29 @@
       <c r="CY60" s="1">
         <v>56603.666666666599</v>
       </c>
+      <c r="DA60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE60" s="1">
+        <v>59</v>
+      </c>
+      <c r="DF60" s="1">
+        <v>9.7756146118165507E-3</v>
+      </c>
+      <c r="DG60" s="1">
+        <v>3090.3333333333298</v>
+      </c>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -74196,8 +76961,29 @@
       <c r="CY61" s="1">
         <v>56941.666666666599</v>
       </c>
+      <c r="DA61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE61" s="1">
+        <v>60</v>
+      </c>
+      <c r="DF61" s="1">
+        <v>9.5593736977078892E-3</v>
+      </c>
+      <c r="DG61" s="1">
+        <v>3650.3333333333298</v>
+      </c>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -74471,8 +77257,29 @@
       <c r="CY62" s="1">
         <v>53731.333333333299</v>
       </c>
+      <c r="DA62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE62" s="1">
+        <v>61</v>
+      </c>
+      <c r="DF62" s="1">
+        <v>9.3463478959353898E-3</v>
+      </c>
+      <c r="DG62" s="1">
+        <v>3961.3333333333298</v>
+      </c>
     </row>
-    <row r="63" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -74746,8 +77553,29 @@
       <c r="CY63" s="1">
         <v>55666</v>
       </c>
+      <c r="DA63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE63" s="1">
+        <v>62</v>
+      </c>
+      <c r="DF63" s="1">
+        <v>9.1665729352990496E-3</v>
+      </c>
+      <c r="DG63" s="1">
+        <v>3170.3333333333298</v>
+      </c>
     </row>
-    <row r="64" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -75021,8 +77849,29 @@
       <c r="CY64" s="1">
         <v>51396.333333333299</v>
       </c>
+      <c r="DA64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE64" s="1">
+        <v>63</v>
+      </c>
+      <c r="DF64" s="1">
+        <v>8.9713526583480793E-3</v>
+      </c>
+      <c r="DG64" s="1">
+        <v>3987</v>
+      </c>
     </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -75295,6 +78144,27 @@
       </c>
       <c r="CY65" s="1">
         <v>51306</v>
+      </c>
+      <c r="DA65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE65" s="1">
+        <v>64</v>
+      </c>
+      <c r="DF65" s="1">
+        <v>8.64932657338199E-3</v>
+      </c>
+      <c r="DG65" s="1">
+        <v>4315.3333333333303</v>
       </c>
     </row>
   </sheetData>
